--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="329">
   <si>
     <t>name</t>
   </si>
@@ -142,6 +142,9 @@
     <t>Justin Kluivert</t>
   </si>
   <si>
+    <t>Chris Mepham</t>
+  </si>
+  <si>
     <t>Norberto Murara Neto</t>
   </si>
   <si>
@@ -265,6 +268,9 @@
     <t>Carlos Baleba</t>
   </si>
   <si>
+    <t>Anssumane Fati Vieira</t>
+  </si>
+  <si>
     <t>Josh Brownhill</t>
   </si>
   <si>
@@ -418,6 +424,9 @@
     <t>Ben Godfrey</t>
   </si>
   <si>
+    <t>Michael Keane</t>
+  </si>
+  <si>
     <t>Dwight McNeil</t>
   </si>
   <si>
@@ -535,6 +544,9 @@
     <t>Virgil van Dijk</t>
   </si>
   <si>
+    <t>Jarell Quansah</t>
+  </si>
+  <si>
     <t>Wataru Endo</t>
   </si>
   <si>
@@ -667,6 +679,9 @@
     <t>Miguel Almirón Rejala</t>
   </si>
   <si>
+    <t>Elliot Anderson</t>
+  </si>
+  <si>
     <t>Bruno Guimarães Rodriguez Moura</t>
   </si>
   <si>
@@ -688,6 +703,9 @@
     <t>Sean Longstaff</t>
   </si>
   <si>
+    <t>Jacob Murphy</t>
+  </si>
+  <si>
     <t>Fabian Schär</t>
   </si>
   <si>
@@ -778,6 +796,9 @@
     <t>Jack Robinson</t>
   </si>
   <si>
+    <t>Yasser Larouci</t>
+  </si>
+  <si>
     <t>Vini de Souza Costa</t>
   </si>
   <si>
@@ -808,6 +829,9 @@
     <t>Dejan Kulusevski</t>
   </si>
   <si>
+    <t>Giovani Lo Celso</t>
+  </si>
+  <si>
     <t>James Maddison</t>
   </si>
   <si>
@@ -835,6 +859,9 @@
     <t>Guglielmo Vicario</t>
   </si>
   <si>
+    <t>Timo Werner</t>
+  </si>
+  <si>
     <t>Nayef Aguerd</t>
   </si>
   <si>
@@ -875,6 +902,9 @@
   </si>
   <si>
     <t>Rayan Aït-Nouri</t>
+  </si>
+  <si>
+    <t>Hugo Bueno López</t>
   </si>
   <si>
     <t>João Victor Gomes da Silva</t>
@@ -1332,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:J297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D2">
         <v>110</v>
@@ -1384,7 +1414,7 @@
         <v>45368</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G2">
         <v>72</v>
@@ -1407,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D3">
         <v>65</v>
@@ -1416,7 +1446,7 @@
         <v>45368</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -1439,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -1448,7 +1478,7 @@
         <v>45368</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G4">
         <v>53</v>
@@ -1471,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D5">
         <v>53</v>
@@ -1480,7 +1510,7 @@
         <v>45368</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G5">
         <v>44</v>
@@ -1503,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D6">
         <v>68</v>
@@ -1512,7 +1542,7 @@
         <v>45368</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>51</v>
@@ -1535,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D7">
         <v>128</v>
@@ -1544,7 +1574,7 @@
         <v>45368</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G7">
         <v>85</v>
@@ -1567,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1576,7 +1606,7 @@
         <v>45368</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G8">
         <v>45</v>
@@ -1599,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D9">
         <v>178</v>
@@ -1608,7 +1638,7 @@
         <v>45368</v>
       </c>
       <c r="F9" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G9">
         <v>91</v>
@@ -1631,7 +1661,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D10">
         <v>112</v>
@@ -1640,7 +1670,7 @@
         <v>45368</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G10">
         <v>58</v>
@@ -1663,7 +1693,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D11">
         <v>39</v>
@@ -1672,7 +1702,7 @@
         <v>45368</v>
       </c>
       <c r="F11" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>45</v>
@@ -1695,7 +1725,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D12">
         <v>87</v>
@@ -1704,7 +1734,7 @@
         <v>45368</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G12">
         <v>65</v>
@@ -1727,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D13">
         <v>119</v>
@@ -1736,7 +1766,7 @@
         <v>45368</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G13">
         <v>57</v>
@@ -1759,7 +1789,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D14">
         <v>86</v>
@@ -1768,7 +1798,7 @@
         <v>45368</v>
       </c>
       <c r="F14" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1791,7 +1821,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D15">
         <v>87</v>
@@ -1800,7 +1830,7 @@
         <v>45368</v>
       </c>
       <c r="F15" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G15">
         <v>50</v>
@@ -1823,7 +1853,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D16">
         <v>121</v>
@@ -1832,7 +1862,7 @@
         <v>45368</v>
       </c>
       <c r="F16" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G16">
         <v>55</v>
@@ -1855,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D17">
         <v>39</v>
@@ -1864,7 +1894,7 @@
         <v>45368</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G17">
         <v>52</v>
@@ -1887,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D18">
         <v>115</v>
@@ -1896,7 +1926,7 @@
         <v>45368</v>
       </c>
       <c r="F18" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G18">
         <v>57</v>
@@ -1919,7 +1949,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D19">
         <v>58</v>
@@ -1928,7 +1958,7 @@
         <v>45368</v>
       </c>
       <c r="F19" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G19">
         <v>46</v>
@@ -1951,7 +1981,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D20">
         <v>38</v>
@@ -1960,7 +1990,7 @@
         <v>45368</v>
       </c>
       <c r="F20" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G20">
         <v>44</v>
@@ -1983,7 +2013,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D21">
         <v>67</v>
@@ -1992,7 +2022,7 @@
         <v>45368</v>
       </c>
       <c r="F21" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G21">
         <v>46</v>
@@ -2015,7 +2045,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D22">
         <v>137</v>
@@ -2024,7 +2054,7 @@
         <v>45368</v>
       </c>
       <c r="F22" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G22">
         <v>57</v>
@@ -2047,7 +2077,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D23">
         <v>63</v>
@@ -2056,7 +2086,7 @@
         <v>45368</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G23">
         <v>45</v>
@@ -2079,7 +2109,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D24">
         <v>91</v>
@@ -2088,7 +2118,7 @@
         <v>45368</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G24">
         <v>53</v>
@@ -2111,7 +2141,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D25">
         <v>51</v>
@@ -2120,7 +2150,7 @@
         <v>45368</v>
       </c>
       <c r="F25" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G25">
         <v>56</v>
@@ -2143,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D26">
         <v>187</v>
@@ -2152,7 +2182,7 @@
         <v>45368</v>
       </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G26">
         <v>90</v>
@@ -2175,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D27">
         <v>66</v>
@@ -2184,7 +2214,7 @@
         <v>45368</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G27">
         <v>46</v>
@@ -2207,7 +2237,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D28">
         <v>102</v>
@@ -2216,7 +2246,7 @@
         <v>45368</v>
       </c>
       <c r="F28" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G28">
         <v>63</v>
@@ -2239,7 +2269,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D29">
         <v>26</v>
@@ -2248,7 +2278,7 @@
         <v>45368</v>
       </c>
       <c r="F29" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G29">
         <v>54</v>
@@ -2271,7 +2301,7 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2280,7 +2310,7 @@
         <v>45368</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G30">
         <v>45</v>
@@ -2303,7 +2333,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D31">
         <v>52</v>
@@ -2312,7 +2342,7 @@
         <v>45368</v>
       </c>
       <c r="F31" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G31">
         <v>51</v>
@@ -2335,7 +2365,7 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D32">
         <v>69</v>
@@ -2344,7 +2374,7 @@
         <v>45368</v>
       </c>
       <c r="F32" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -2367,7 +2397,7 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D33">
         <v>55</v>
@@ -2376,7 +2406,7 @@
         <v>45368</v>
       </c>
       <c r="F33" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G33">
         <v>50</v>
@@ -2399,7 +2429,7 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D34">
         <v>60</v>
@@ -2408,7 +2438,7 @@
         <v>45368</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G34">
         <v>46</v>
@@ -2431,28 +2461,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D35">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2">
         <v>45368</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G35">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>28</v>
       </c>
       <c r="I35">
-        <v>2250</v>
+        <v>433</v>
       </c>
       <c r="J35">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2463,16 +2493,16 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2">
         <v>45368</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G36">
         <v>47</v>
@@ -2481,10 +2511,10 @@
         <v>28</v>
       </c>
       <c r="I36">
-        <v>571</v>
+        <v>2250</v>
       </c>
       <c r="J36">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2495,28 +2525,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D37">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2">
         <v>45368</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G37">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H37">
         <v>28</v>
       </c>
       <c r="I37">
-        <v>1329</v>
+        <v>571</v>
       </c>
       <c r="J37">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2527,28 +2557,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D38">
+        <v>83</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38">
         <v>45</v>
       </c>
-      <c r="E38" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F38" t="s">
-        <v>317</v>
-      </c>
-      <c r="G38">
-        <v>44</v>
-      </c>
       <c r="H38">
         <v>28</v>
       </c>
       <c r="I38">
-        <v>1347</v>
+        <v>1329</v>
       </c>
       <c r="J38">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2559,28 +2589,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D39">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2">
         <v>45368</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G39">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H39">
         <v>28</v>
       </c>
       <c r="I39">
-        <v>2405</v>
+        <v>1347</v>
       </c>
       <c r="J39">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2591,28 +2621,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D40">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2">
         <v>45368</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G40">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H40">
         <v>28</v>
       </c>
       <c r="I40">
-        <v>1771</v>
+        <v>2405</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2623,28 +2653,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D41">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2">
         <v>45368</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G41">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H41">
         <v>28</v>
       </c>
       <c r="I41">
-        <v>2430</v>
+        <v>1771</v>
       </c>
       <c r="J41">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2655,28 +2685,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2">
         <v>45368</v>
       </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G42">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42">
         <v>28</v>
       </c>
       <c r="I42">
-        <v>1444</v>
+        <v>2430</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2687,28 +2717,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2">
         <v>45368</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G43">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>28</v>
       </c>
       <c r="I43">
-        <v>640</v>
+        <v>1444</v>
       </c>
       <c r="J43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2719,28 +2749,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E44" s="2">
         <v>45368</v>
       </c>
       <c r="F44" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G44">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H44">
         <v>28</v>
       </c>
       <c r="I44">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="J44">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2751,28 +2781,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E45" s="2">
         <v>45368</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G45">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45">
-        <v>1202</v>
+        <v>602</v>
       </c>
       <c r="J45">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2783,28 +2813,28 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2">
         <v>45368</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>29</v>
       </c>
       <c r="I46">
-        <v>1839</v>
+        <v>1202</v>
       </c>
       <c r="J46">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2815,28 +2845,28 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D47">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E47" s="2">
         <v>45368</v>
       </c>
       <c r="F47" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>29</v>
       </c>
       <c r="I47">
-        <v>2385</v>
+        <v>1839</v>
       </c>
       <c r="J47">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2847,28 +2877,28 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D48">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2">
         <v>45368</v>
       </c>
       <c r="F48" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G48">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H48">
         <v>29</v>
       </c>
       <c r="I48">
-        <v>2239</v>
+        <v>2385</v>
       </c>
       <c r="J48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2879,28 +2909,28 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2">
         <v>45368</v>
       </c>
       <c r="F49" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G49">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H49">
         <v>29</v>
       </c>
       <c r="I49">
-        <v>1511</v>
+        <v>2239</v>
       </c>
       <c r="J49">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2911,28 +2941,28 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2">
         <v>45368</v>
       </c>
       <c r="F50" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G50">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H50">
         <v>29</v>
       </c>
       <c r="I50">
-        <v>995</v>
+        <v>1511</v>
       </c>
       <c r="J50">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2943,28 +2973,28 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D51">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2">
         <v>45368</v>
       </c>
       <c r="F51" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G51">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H51">
         <v>29</v>
       </c>
       <c r="I51">
-        <v>1286</v>
+        <v>995</v>
       </c>
       <c r="J51">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2975,28 +3005,28 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2">
         <v>45368</v>
       </c>
       <c r="F52" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G52">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H52">
         <v>29</v>
       </c>
       <c r="I52">
-        <v>1072</v>
+        <v>1286</v>
       </c>
       <c r="J52">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3007,28 +3037,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D53">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E53" s="2">
         <v>45368</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G53">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H53">
         <v>29</v>
       </c>
       <c r="I53">
-        <v>1406</v>
+        <v>1072</v>
       </c>
       <c r="J53">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3039,28 +3069,28 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E54" s="2">
         <v>45368</v>
       </c>
       <c r="F54" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G54">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="H54">
         <v>29</v>
       </c>
       <c r="I54">
-        <v>810</v>
+        <v>1406</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3071,28 +3101,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D55">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E55" s="2">
         <v>45368</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G55">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H55">
         <v>29</v>
       </c>
       <c r="I55">
-        <v>1817</v>
+        <v>810</v>
       </c>
       <c r="J55">
-        <v>3.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3103,28 +3133,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2">
         <v>45368</v>
       </c>
       <c r="F56" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G56">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>29</v>
       </c>
       <c r="I56">
-        <v>546</v>
+        <v>1817</v>
       </c>
       <c r="J56">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3135,28 +3165,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E57" s="2">
         <v>45368</v>
       </c>
       <c r="F57" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G57">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>29</v>
       </c>
       <c r="I57">
-        <v>1188</v>
+        <v>546</v>
       </c>
       <c r="J57">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3167,28 +3197,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2">
         <v>45368</v>
       </c>
       <c r="F58" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G58">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H58">
         <v>29</v>
       </c>
       <c r="I58">
-        <v>698</v>
+        <v>1188</v>
       </c>
       <c r="J58">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3199,28 +3229,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D59">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2">
         <v>45368</v>
       </c>
       <c r="F59" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I59">
-        <v>1364</v>
+        <v>698</v>
       </c>
       <c r="J59">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3231,28 +3261,28 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D60">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2">
         <v>45368</v>
       </c>
       <c r="F60" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G60">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H60">
         <v>28</v>
       </c>
       <c r="I60">
-        <v>938</v>
+        <v>1364</v>
       </c>
       <c r="J60">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3263,28 +3293,28 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D61">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E61" s="2">
         <v>45368</v>
       </c>
       <c r="F61" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G61">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>28</v>
       </c>
       <c r="I61">
-        <v>2014</v>
+        <v>938</v>
       </c>
       <c r="J61">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3295,28 +3325,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D62">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E62" s="2">
         <v>45368</v>
       </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G62">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H62">
         <v>28</v>
       </c>
       <c r="I62">
-        <v>975</v>
+        <v>2014</v>
       </c>
       <c r="J62">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3327,28 +3357,28 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D63">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E63" s="2">
         <v>45368</v>
       </c>
       <c r="F63" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G63">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H63">
         <v>28</v>
       </c>
       <c r="I63">
-        <v>1290</v>
+        <v>975</v>
       </c>
       <c r="J63">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3359,28 +3389,28 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D64">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E64" s="2">
         <v>45368</v>
       </c>
       <c r="F64" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G64">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H64">
         <v>28</v>
       </c>
       <c r="I64">
-        <v>1775</v>
+        <v>1290</v>
       </c>
       <c r="J64">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3391,28 +3421,28 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D65">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="E65" s="2">
         <v>45368</v>
       </c>
       <c r="F65" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G65">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H65">
         <v>28</v>
       </c>
       <c r="I65">
-        <v>2122</v>
+        <v>1775</v>
       </c>
       <c r="J65">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3423,28 +3453,28 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2">
         <v>45368</v>
       </c>
       <c r="F66" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G66">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H66">
         <v>28</v>
       </c>
       <c r="I66">
-        <v>645</v>
+        <v>2122</v>
       </c>
       <c r="J66">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3455,28 +3485,28 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E67" s="2">
         <v>45368</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G67">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>28</v>
       </c>
       <c r="I67">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="J67">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3487,28 +3517,28 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D68">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E68" s="2">
         <v>45368</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G68">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>28</v>
       </c>
       <c r="I68">
-        <v>1350</v>
+        <v>560</v>
       </c>
       <c r="J68">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3519,16 +3549,16 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D69">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E69" s="2">
         <v>45368</v>
       </c>
       <c r="F69" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G69">
         <v>41</v>
@@ -3537,10 +3567,10 @@
         <v>28</v>
       </c>
       <c r="I69">
-        <v>1828</v>
+        <v>1350</v>
       </c>
       <c r="J69">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3551,28 +3581,28 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E70" s="2">
         <v>45368</v>
       </c>
       <c r="F70" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G70">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>28</v>
       </c>
       <c r="I70">
-        <v>1034</v>
+        <v>1828</v>
       </c>
       <c r="J70">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3583,28 +3613,28 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E71" s="2">
         <v>45368</v>
       </c>
       <c r="F71" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G71">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H71">
         <v>28</v>
       </c>
       <c r="I71">
-        <v>1080</v>
+        <v>1034</v>
       </c>
       <c r="J71">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3615,28 +3645,28 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E72" s="2">
         <v>45368</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G72">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H72">
         <v>28</v>
       </c>
       <c r="I72">
-        <v>766</v>
+        <v>1080</v>
       </c>
       <c r="J72">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3647,28 +3677,28 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D73">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2">
         <v>45368</v>
       </c>
       <c r="F73" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G73">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H73">
         <v>28</v>
       </c>
       <c r="I73">
-        <v>994</v>
+        <v>766</v>
       </c>
       <c r="J73">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3679,28 +3709,28 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E74" s="2">
         <v>45368</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G74">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H74">
         <v>28</v>
       </c>
       <c r="I74">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="J74">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3711,25 +3741,25 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E75" s="2">
         <v>45368</v>
       </c>
       <c r="F75" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G75">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H75">
         <v>28</v>
       </c>
       <c r="I75">
-        <v>667</v>
+        <v>983</v>
       </c>
       <c r="J75">
         <v>1.1</v>
@@ -3743,28 +3773,28 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D76">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E76" s="2">
         <v>45368</v>
       </c>
       <c r="F76" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G76">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I76">
-        <v>2028</v>
+        <v>667</v>
       </c>
       <c r="J76">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3775,25 +3805,25 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E77" s="2">
         <v>45368</v>
       </c>
       <c r="F77" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I77">
-        <v>1166</v>
+        <v>409</v>
       </c>
       <c r="J77">
         <v>1.9</v>
@@ -3807,16 +3837,16 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D78">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E78" s="2">
         <v>45368</v>
       </c>
       <c r="F78" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G78">
         <v>47</v>
@@ -3825,10 +3855,10 @@
         <v>29</v>
       </c>
       <c r="I78">
-        <v>1130</v>
+        <v>2028</v>
       </c>
       <c r="J78">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3839,28 +3869,28 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D79">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E79" s="2">
         <v>45368</v>
       </c>
       <c r="F79" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G79">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H79">
         <v>29</v>
       </c>
       <c r="I79">
-        <v>1048</v>
+        <v>1166</v>
       </c>
       <c r="J79">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3871,28 +3901,28 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D80">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E80" s="2">
         <v>45368</v>
       </c>
       <c r="F80" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G80">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H80">
         <v>29</v>
       </c>
       <c r="I80">
-        <v>2106</v>
+        <v>1130</v>
       </c>
       <c r="J80">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3903,28 +3933,28 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E81" s="2">
         <v>45368</v>
       </c>
       <c r="F81" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G81">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H81">
         <v>29</v>
       </c>
       <c r="I81">
-        <v>724</v>
+        <v>1048</v>
       </c>
       <c r="J81">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3935,25 +3965,25 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D82">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2">
         <v>45368</v>
       </c>
       <c r="F82" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G82">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H82">
         <v>29</v>
       </c>
       <c r="I82">
-        <v>1722</v>
+        <v>2106</v>
       </c>
       <c r="J82">
         <v>1.8</v>
@@ -3967,28 +3997,28 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E83" s="2">
         <v>45368</v>
       </c>
       <c r="F83" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G83">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H83">
         <v>29</v>
       </c>
       <c r="I83">
-        <v>1602</v>
+        <v>724</v>
       </c>
       <c r="J83">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3999,28 +4029,28 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D84">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E84" s="2">
         <v>45368</v>
       </c>
       <c r="F84" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G84">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>29</v>
       </c>
       <c r="I84">
-        <v>2102</v>
+        <v>1722</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4031,28 +4061,28 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D85">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E85" s="2">
         <v>45368</v>
       </c>
       <c r="F85" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G85">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>29</v>
       </c>
       <c r="I85">
-        <v>1759</v>
+        <v>1602</v>
       </c>
       <c r="J85">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4063,28 +4093,28 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D86">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E86" s="2">
         <v>45368</v>
       </c>
       <c r="F86" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G86">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>29</v>
       </c>
       <c r="I86">
-        <v>2520</v>
+        <v>2102</v>
       </c>
       <c r="J86">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4095,28 +4125,28 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D87">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E87" s="2">
         <v>45368</v>
       </c>
       <c r="F87" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G87">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H87">
         <v>29</v>
       </c>
       <c r="I87">
-        <v>582</v>
+        <v>1759</v>
       </c>
       <c r="J87">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4127,28 +4157,28 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D88">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E88" s="2">
         <v>45368</v>
       </c>
       <c r="F88" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H88">
         <v>29</v>
       </c>
       <c r="I88">
-        <v>1229</v>
+        <v>2520</v>
       </c>
       <c r="J88">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4159,28 +4189,28 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E89" s="2">
         <v>45368</v>
       </c>
       <c r="F89" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G89">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H89">
         <v>29</v>
       </c>
       <c r="I89">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J89">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4191,28 +4221,28 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E90" s="2">
         <v>45368</v>
       </c>
       <c r="F90" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G90">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H90">
         <v>29</v>
       </c>
       <c r="I90">
-        <v>528</v>
+        <v>1229</v>
       </c>
       <c r="J90">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4223,16 +4253,16 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E91" s="2">
         <v>45368</v>
       </c>
       <c r="F91" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G91">
         <v>40</v>
@@ -4241,10 +4271,10 @@
         <v>29</v>
       </c>
       <c r="I91">
-        <v>455</v>
+        <v>584</v>
       </c>
       <c r="J91">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4255,28 +4285,28 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D92">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E92" s="2">
         <v>45368</v>
       </c>
       <c r="F92" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G92">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I92">
-        <v>1850</v>
+        <v>528</v>
       </c>
       <c r="J92">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4287,28 +4317,28 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D93">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E93" s="2">
         <v>45368</v>
       </c>
       <c r="F93" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G93">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I93">
-        <v>1433</v>
+        <v>455</v>
       </c>
       <c r="J93">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4319,28 +4349,28 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E94" s="2">
         <v>45368</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G94">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>28</v>
       </c>
       <c r="I94">
-        <v>559</v>
+        <v>1850</v>
       </c>
       <c r="J94">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4351,28 +4381,28 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E95" s="2">
         <v>45368</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G95">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H95">
         <v>28</v>
       </c>
       <c r="I95">
-        <v>742</v>
+        <v>1433</v>
       </c>
       <c r="J95">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4383,28 +4413,28 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D96">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E96" s="2">
         <v>45368</v>
       </c>
       <c r="F96" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G96">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H96">
         <v>28</v>
       </c>
       <c r="I96">
-        <v>703</v>
+        <v>559</v>
       </c>
       <c r="J96">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4415,28 +4445,28 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D97">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E97" s="2">
         <v>45368</v>
       </c>
       <c r="F97" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G97">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H97">
         <v>28</v>
       </c>
       <c r="I97">
-        <v>1782</v>
+        <v>742</v>
       </c>
       <c r="J97">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4447,28 +4477,28 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D98">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="E98" s="2">
         <v>45368</v>
       </c>
       <c r="F98" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G98">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H98">
         <v>28</v>
       </c>
       <c r="I98">
-        <v>2092</v>
+        <v>703</v>
       </c>
       <c r="J98">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4479,28 +4509,28 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D99">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E99" s="2">
         <v>45368</v>
       </c>
       <c r="F99" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G99">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H99">
         <v>28</v>
       </c>
       <c r="I99">
-        <v>1276</v>
+        <v>1782</v>
       </c>
       <c r="J99">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4511,25 +4541,25 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D100">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E100" s="2">
         <v>45368</v>
       </c>
       <c r="F100" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G100">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H100">
         <v>28</v>
       </c>
       <c r="I100">
-        <v>882</v>
+        <v>2092</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -4543,28 +4573,28 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D101">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E101" s="2">
         <v>45368</v>
       </c>
       <c r="F101" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G101">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>28</v>
       </c>
       <c r="I101">
-        <v>1725</v>
+        <v>1276</v>
       </c>
       <c r="J101">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4575,28 +4605,28 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D102">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E102" s="2">
         <v>45368</v>
       </c>
       <c r="F102" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G102">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H102">
         <v>28</v>
       </c>
       <c r="I102">
-        <v>1741</v>
+        <v>882</v>
       </c>
       <c r="J102">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4607,28 +4637,28 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D103">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E103" s="2">
         <v>45368</v>
       </c>
       <c r="F103" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G103">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H103">
         <v>28</v>
       </c>
       <c r="I103">
-        <v>1982</v>
+        <v>1725</v>
       </c>
       <c r="J103">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4639,28 +4669,28 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D104">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2">
         <v>45368</v>
       </c>
       <c r="F104" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G104">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H104">
         <v>28</v>
       </c>
       <c r="I104">
-        <v>1654</v>
+        <v>1741</v>
       </c>
       <c r="J104">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4671,7 +4701,7 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D105">
         <v>66</v>
@@ -4680,19 +4710,19 @@
         <v>45368</v>
       </c>
       <c r="F105" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G105">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H105">
         <v>28</v>
       </c>
       <c r="I105">
-        <v>2136</v>
+        <v>1982</v>
       </c>
       <c r="J105">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4703,28 +4733,28 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D106">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2">
         <v>45368</v>
       </c>
       <c r="F106" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G106">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H106">
         <v>28</v>
       </c>
       <c r="I106">
-        <v>540</v>
+        <v>1654</v>
       </c>
       <c r="J106">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4735,28 +4765,28 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D107">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E107" s="2">
         <v>45368</v>
       </c>
       <c r="F107" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G107">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H107">
         <v>28</v>
       </c>
       <c r="I107">
-        <v>2430</v>
+        <v>2136</v>
       </c>
       <c r="J107">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4767,28 +4797,28 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D108">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="E108" s="2">
         <v>45368</v>
       </c>
       <c r="F108" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G108">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H108">
         <v>28</v>
       </c>
       <c r="I108">
-        <v>2066</v>
+        <v>540</v>
       </c>
       <c r="J108">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4799,28 +4829,28 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D109">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E109" s="2">
         <v>45368</v>
       </c>
       <c r="F109" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G109">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H109">
         <v>28</v>
       </c>
       <c r="I109">
-        <v>716</v>
+        <v>2430</v>
       </c>
       <c r="J109">
-        <v>1.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4831,16 +4861,16 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D110">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E110" s="2">
         <v>45368</v>
       </c>
       <c r="F110" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G110">
         <v>54</v>
@@ -4849,10 +4879,10 @@
         <v>28</v>
       </c>
       <c r="I110">
-        <v>1415</v>
+        <v>2066</v>
       </c>
       <c r="J110">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4863,28 +4893,28 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D111">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E111" s="2">
         <v>45368</v>
       </c>
       <c r="F111" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G111">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>28</v>
       </c>
       <c r="I111">
-        <v>1225</v>
+        <v>716</v>
       </c>
       <c r="J111">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4895,28 +4925,28 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D112">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E112" s="2">
         <v>45368</v>
       </c>
       <c r="F112" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G112">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H112">
         <v>28</v>
       </c>
       <c r="I112">
-        <v>1300</v>
+        <v>1415</v>
       </c>
       <c r="J112">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4927,28 +4957,28 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D113">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E113" s="2">
         <v>45368</v>
       </c>
       <c r="F113" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G113">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H113">
         <v>28</v>
       </c>
       <c r="I113">
-        <v>1706</v>
+        <v>1225</v>
       </c>
       <c r="J113">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4959,28 +4989,28 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D114">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E114" s="2">
         <v>45368</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G114">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H114">
         <v>28</v>
       </c>
       <c r="I114">
-        <v>1935</v>
+        <v>1300</v>
       </c>
       <c r="J114">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4991,28 +5021,28 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D115">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E115" s="2">
         <v>45368</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G115">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>28</v>
       </c>
       <c r="I115">
-        <v>1417</v>
+        <v>1706</v>
       </c>
       <c r="J115">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5023,28 +5053,28 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D116">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E116" s="2">
         <v>45368</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G116">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H116">
         <v>28</v>
       </c>
       <c r="I116">
-        <v>2257</v>
+        <v>1935</v>
       </c>
       <c r="J116">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5055,28 +5085,28 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D117">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E117" s="2">
         <v>45368</v>
       </c>
       <c r="F117" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G117">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H117">
         <v>28</v>
       </c>
       <c r="I117">
-        <v>1371</v>
+        <v>1417</v>
       </c>
       <c r="J117">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5087,28 +5117,28 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D118">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E118" s="2">
         <v>45368</v>
       </c>
       <c r="F118" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G118">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H118">
         <v>28</v>
       </c>
       <c r="I118">
-        <v>1220</v>
+        <v>2257</v>
       </c>
       <c r="J118">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5119,28 +5149,28 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D119">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E119" s="2">
         <v>45368</v>
       </c>
       <c r="F119" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G119">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>28</v>
       </c>
       <c r="I119">
-        <v>1602</v>
+        <v>1371</v>
       </c>
       <c r="J119">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5151,28 +5181,28 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E120" s="2">
         <v>45368</v>
       </c>
       <c r="F120" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G120">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H120">
         <v>28</v>
       </c>
       <c r="I120">
-        <v>720</v>
+        <v>1220</v>
       </c>
       <c r="J120">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5183,16 +5213,16 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D121">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E121" s="2">
         <v>45368</v>
       </c>
       <c r="F121" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G121">
         <v>45</v>
@@ -5201,10 +5231,10 @@
         <v>28</v>
       </c>
       <c r="I121">
-        <v>450</v>
+        <v>1602</v>
       </c>
       <c r="J121">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5215,28 +5245,28 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D122">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E122" s="2">
         <v>45368</v>
       </c>
       <c r="F122" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G122">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122">
         <v>28</v>
       </c>
       <c r="I122">
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="J122">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5247,28 +5277,28 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D123">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E123" s="2">
         <v>45368</v>
       </c>
       <c r="F123" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G123">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H123">
         <v>28</v>
       </c>
       <c r="I123">
-        <v>1549</v>
+        <v>450</v>
       </c>
       <c r="J123">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5279,28 +5309,28 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D124">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E124" s="2">
         <v>45368</v>
       </c>
       <c r="F124" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G124">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>28</v>
       </c>
       <c r="I124">
-        <v>1781</v>
+        <v>2160</v>
       </c>
       <c r="J124">
-        <v>4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5311,25 +5341,25 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D125">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E125" s="2">
         <v>45368</v>
       </c>
       <c r="F125" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G125">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H125">
         <v>28</v>
       </c>
       <c r="I125">
-        <v>2236</v>
+        <v>1549</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -5343,28 +5373,28 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D126">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E126" s="2">
         <v>45368</v>
       </c>
       <c r="F126" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G126">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H126">
         <v>28</v>
       </c>
       <c r="I126">
-        <v>580</v>
+        <v>1781</v>
       </c>
       <c r="J126">
-        <v>2.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5375,28 +5405,28 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D127">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E127" s="2">
         <v>45368</v>
       </c>
       <c r="F127" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G127">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H127">
         <v>28</v>
       </c>
       <c r="I127">
-        <v>1923</v>
+        <v>2236</v>
       </c>
       <c r="J127">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5407,28 +5437,28 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D128">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E128" s="2">
         <v>45368</v>
       </c>
       <c r="F128" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G128">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>28</v>
       </c>
       <c r="I128">
-        <v>1977</v>
+        <v>580</v>
       </c>
       <c r="J128">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5439,28 +5469,28 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D129">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E129" s="2">
         <v>45368</v>
       </c>
       <c r="F129" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G129">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H129">
         <v>28</v>
       </c>
       <c r="I129">
-        <v>1570</v>
+        <v>403</v>
       </c>
       <c r="J129">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5471,28 +5501,28 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D130">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E130" s="2">
         <v>45368</v>
       </c>
       <c r="F130" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G130">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H130">
         <v>28</v>
       </c>
       <c r="I130">
-        <v>954</v>
+        <v>1923</v>
       </c>
       <c r="J130">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5503,16 +5533,16 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D131">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E131" s="2">
         <v>45368</v>
       </c>
       <c r="F131" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G131">
         <v>46</v>
@@ -5521,10 +5551,10 @@
         <v>28</v>
       </c>
       <c r="I131">
-        <v>2430</v>
+        <v>1977</v>
       </c>
       <c r="J131">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5535,28 +5565,28 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D132">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E132" s="2">
         <v>45368</v>
       </c>
       <c r="F132" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G132">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H132">
         <v>28</v>
       </c>
       <c r="I132">
-        <v>2430</v>
+        <v>1570</v>
       </c>
       <c r="J132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5567,28 +5597,28 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D133">
+        <v>34</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F133" t="s">
+        <v>327</v>
+      </c>
+      <c r="G133">
         <v>43</v>
       </c>
-      <c r="E133" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F133" t="s">
-        <v>317</v>
-      </c>
-      <c r="G133">
-        <v>44</v>
-      </c>
       <c r="H133">
         <v>28</v>
       </c>
       <c r="I133">
-        <v>1511</v>
+        <v>954</v>
       </c>
       <c r="J133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5599,28 +5629,28 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D134">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2">
         <v>45368</v>
       </c>
       <c r="F134" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G134">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H134">
         <v>28</v>
       </c>
       <c r="I134">
-        <v>1669</v>
+        <v>2430</v>
       </c>
       <c r="J134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5631,28 +5661,28 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D135">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E135" s="2">
         <v>45368</v>
       </c>
       <c r="F135" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G135">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H135">
         <v>28</v>
       </c>
       <c r="I135">
-        <v>671</v>
+        <v>2430</v>
       </c>
       <c r="J135">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5663,28 +5693,28 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D136">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E136" s="2">
         <v>45368</v>
       </c>
       <c r="F136" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G136">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I136">
-        <v>1398</v>
+        <v>1511</v>
       </c>
       <c r="J136">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5695,28 +5725,28 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D137">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E137" s="2">
         <v>45368</v>
       </c>
       <c r="F137" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G137">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H137">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I137">
-        <v>1928</v>
+        <v>1669</v>
       </c>
       <c r="J137">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5727,28 +5757,28 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D138">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E138" s="2">
         <v>45368</v>
       </c>
       <c r="F138" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G138">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H138">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I138">
-        <v>1236</v>
+        <v>671</v>
       </c>
       <c r="J138">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5759,7 +5789,7 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D139">
         <v>77</v>
@@ -5768,7 +5798,7 @@
         <v>45368</v>
       </c>
       <c r="F139" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G139">
         <v>53</v>
@@ -5777,10 +5807,10 @@
         <v>29</v>
       </c>
       <c r="I139">
-        <v>1154</v>
+        <v>1398</v>
       </c>
       <c r="J139">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5791,28 +5821,28 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D140">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E140" s="2">
         <v>45368</v>
       </c>
       <c r="F140" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G140">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H140">
         <v>29</v>
       </c>
       <c r="I140">
-        <v>1153</v>
+        <v>1928</v>
       </c>
       <c r="J140">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5823,28 +5853,28 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D141">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E141" s="2">
         <v>45368</v>
       </c>
       <c r="F141" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G141">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H141">
         <v>29</v>
       </c>
       <c r="I141">
-        <v>2520</v>
+        <v>1236</v>
       </c>
       <c r="J141">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5855,28 +5885,28 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D142">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E142" s="2">
         <v>45368</v>
       </c>
       <c r="F142" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G142">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H142">
         <v>29</v>
       </c>
       <c r="I142">
-        <v>639</v>
+        <v>1154</v>
       </c>
       <c r="J142">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5887,28 +5917,28 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D143">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E143" s="2">
         <v>45368</v>
       </c>
       <c r="F143" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G143">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>29</v>
       </c>
       <c r="I143">
-        <v>867</v>
+        <v>1153</v>
       </c>
       <c r="J143">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5919,28 +5949,28 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D144">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2">
         <v>45368</v>
       </c>
       <c r="F144" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G144">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H144">
         <v>29</v>
       </c>
       <c r="I144">
-        <v>1866</v>
+        <v>2520</v>
       </c>
       <c r="J144">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5951,28 +5981,28 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D145">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E145" s="2">
         <v>45368</v>
       </c>
       <c r="F145" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G145">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>29</v>
       </c>
       <c r="I145">
-        <v>1413</v>
+        <v>639</v>
       </c>
       <c r="J145">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5983,28 +6013,28 @@
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D146">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E146" s="2">
         <v>45368</v>
       </c>
       <c r="F146" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G146">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H146">
         <v>29</v>
       </c>
       <c r="I146">
-        <v>1130</v>
+        <v>867</v>
       </c>
       <c r="J146">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6015,28 +6045,28 @@
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D147">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E147" s="2">
         <v>45368</v>
       </c>
       <c r="F147" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G147">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H147">
         <v>29</v>
       </c>
       <c r="I147">
-        <v>2378</v>
+        <v>1866</v>
       </c>
       <c r="J147">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -6047,28 +6077,28 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D148">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E148" s="2">
         <v>45368</v>
       </c>
       <c r="F148" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G148">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>29</v>
       </c>
       <c r="I148">
-        <v>670</v>
+        <v>1413</v>
       </c>
       <c r="J148">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -6079,28 +6109,28 @@
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D149">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E149" s="2">
         <v>45368</v>
       </c>
       <c r="F149" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G149">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H149">
         <v>29</v>
       </c>
       <c r="I149">
-        <v>1082</v>
+        <v>1130</v>
       </c>
       <c r="J149">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -6111,28 +6141,28 @@
         <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D150">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E150" s="2">
         <v>45368</v>
       </c>
       <c r="F150" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G150">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H150">
         <v>29</v>
       </c>
       <c r="I150">
-        <v>1381</v>
+        <v>2378</v>
       </c>
       <c r="J150">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -6143,28 +6173,28 @@
         <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D151">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E151" s="2">
         <v>45368</v>
       </c>
       <c r="F151" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G151">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H151">
         <v>29</v>
       </c>
       <c r="I151">
-        <v>1239</v>
+        <v>670</v>
       </c>
       <c r="J151">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -6175,25 +6205,25 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D152">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E152" s="2">
         <v>45368</v>
       </c>
       <c r="F152" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G152">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H152">
         <v>29</v>
       </c>
       <c r="I152">
-        <v>1527</v>
+        <v>1082</v>
       </c>
       <c r="J152">
         <v>3.3</v>
@@ -6207,28 +6237,28 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D153">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E153" s="2">
         <v>45368</v>
       </c>
       <c r="F153" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G153">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H153">
         <v>29</v>
       </c>
       <c r="I153">
-        <v>1399</v>
+        <v>1381</v>
       </c>
       <c r="J153">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -6239,28 +6269,28 @@
         <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D154">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E154" s="2">
         <v>45368</v>
       </c>
       <c r="F154" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G154">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H154">
         <v>29</v>
       </c>
       <c r="I154">
-        <v>1924</v>
+        <v>1239</v>
       </c>
       <c r="J154">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6271,28 +6301,28 @@
         <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D155">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E155" s="2">
         <v>45368</v>
       </c>
       <c r="F155" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G155">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H155">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I155">
-        <v>731</v>
+        <v>1527</v>
       </c>
       <c r="J155">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6303,28 +6333,28 @@
         <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D156">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E156" s="2">
         <v>45368</v>
       </c>
       <c r="F156" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G156">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I156">
-        <v>1136</v>
+        <v>1399</v>
       </c>
       <c r="J156">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6335,28 +6365,28 @@
         <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D157">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E157" s="2">
         <v>45368</v>
       </c>
       <c r="F157" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G157">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H157">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I157">
-        <v>1352</v>
+        <v>1924</v>
       </c>
       <c r="J157">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6367,28 +6397,28 @@
         <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D158">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E158" s="2">
         <v>45368</v>
       </c>
       <c r="F158" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G158">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H158">
         <v>28</v>
       </c>
       <c r="I158">
-        <v>540</v>
+        <v>731</v>
       </c>
       <c r="J158">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6399,28 +6429,28 @@
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D159">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="E159" s="2">
         <v>45368</v>
       </c>
       <c r="F159" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G159">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H159">
         <v>28</v>
       </c>
       <c r="I159">
-        <v>1742</v>
+        <v>1136</v>
       </c>
       <c r="J159">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6431,28 +6461,28 @@
         <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D160">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2">
         <v>45368</v>
       </c>
       <c r="F160" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G160">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H160">
         <v>28</v>
       </c>
       <c r="I160">
-        <v>1721</v>
+        <v>1352</v>
       </c>
       <c r="J160">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6463,28 +6493,28 @@
         <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D161">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E161" s="2">
         <v>45368</v>
       </c>
       <c r="F161" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G161">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>28</v>
       </c>
       <c r="I161">
-        <v>1034</v>
+        <v>540</v>
       </c>
       <c r="J161">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6495,28 +6525,28 @@
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D162">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="E162" s="2">
         <v>45368</v>
       </c>
       <c r="F162" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G162">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H162">
         <v>28</v>
       </c>
       <c r="I162">
-        <v>1786</v>
+        <v>1742</v>
       </c>
       <c r="J162">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6527,28 +6557,28 @@
         <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D163">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E163" s="2">
         <v>45368</v>
       </c>
       <c r="F163" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G163">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H163">
         <v>28</v>
       </c>
       <c r="I163">
-        <v>1673</v>
+        <v>1721</v>
       </c>
       <c r="J163">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6559,28 +6589,28 @@
         <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D164">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E164" s="2">
         <v>45368</v>
       </c>
       <c r="F164" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G164">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H164">
         <v>28</v>
       </c>
       <c r="I164">
-        <v>669</v>
+        <v>1034</v>
       </c>
       <c r="J164">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6591,28 +6621,28 @@
         <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D165">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="E165" s="2">
         <v>45368</v>
       </c>
       <c r="F165" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G165">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="H165">
         <v>28</v>
       </c>
       <c r="I165">
-        <v>2187</v>
+        <v>1786</v>
       </c>
       <c r="J165">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6623,28 +6653,28 @@
         <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D166">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E166" s="2">
         <v>45368</v>
       </c>
       <c r="F166" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G166">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H166">
         <v>28</v>
       </c>
       <c r="I166">
-        <v>997</v>
+        <v>1673</v>
       </c>
       <c r="J166">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6655,28 +6685,28 @@
         <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D167">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E167" s="2">
         <v>45368</v>
       </c>
       <c r="F167" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G167">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>28</v>
       </c>
       <c r="I167">
-        <v>837</v>
+        <v>669</v>
       </c>
       <c r="J167">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6687,28 +6717,28 @@
         <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D168">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E168" s="2">
         <v>45368</v>
       </c>
       <c r="F168" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G168">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H168">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I168">
-        <v>1033</v>
+        <v>2187</v>
       </c>
       <c r="J168">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6719,28 +6749,28 @@
         <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D169">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E169" s="2">
         <v>45368</v>
       </c>
       <c r="F169" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G169">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I169">
-        <v>653</v>
+        <v>441</v>
       </c>
       <c r="J169">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6751,28 +6781,28 @@
         <v>177</v>
       </c>
       <c r="C170" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D170">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E170" s="2">
         <v>45368</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G170">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H170">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I170">
-        <v>1959</v>
+        <v>997</v>
       </c>
       <c r="J170">
-        <v>4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6783,28 +6813,28 @@
         <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D171">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E171" s="2">
         <v>45368</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G171">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H171">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I171">
-        <v>1805</v>
+        <v>837</v>
       </c>
       <c r="J171">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6815,28 +6845,28 @@
         <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D172">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E172" s="2">
         <v>45368</v>
       </c>
       <c r="F172" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G172">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>29</v>
       </c>
       <c r="I172">
-        <v>1731</v>
+        <v>1033</v>
       </c>
       <c r="J172">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6847,28 +6877,28 @@
         <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D173">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E173" s="2">
         <v>45368</v>
       </c>
       <c r="F173" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G173">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H173">
         <v>29</v>
       </c>
       <c r="I173">
-        <v>1177</v>
+        <v>653</v>
       </c>
       <c r="J173">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6879,28 +6909,28 @@
         <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D174">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E174" s="2">
         <v>45368</v>
       </c>
       <c r="F174" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G174">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H174">
         <v>29</v>
       </c>
       <c r="I174">
-        <v>1333</v>
+        <v>1959</v>
       </c>
       <c r="J174">
-        <v>1.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6911,28 +6941,28 @@
         <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D175">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E175" s="2">
         <v>45368</v>
       </c>
       <c r="F175" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G175">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H175">
         <v>29</v>
       </c>
       <c r="I175">
-        <v>2520</v>
+        <v>1805</v>
       </c>
       <c r="J175">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6943,28 +6973,28 @@
         <v>183</v>
       </c>
       <c r="C176" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D176">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E176" s="2">
         <v>45368</v>
       </c>
       <c r="F176" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G176">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>29</v>
       </c>
       <c r="I176">
-        <v>1871</v>
+        <v>1731</v>
       </c>
       <c r="J176">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6975,28 +7005,28 @@
         <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D177">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E177" s="2">
         <v>45368</v>
       </c>
       <c r="F177" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G177">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H177">
         <v>29</v>
       </c>
       <c r="I177">
-        <v>835</v>
+        <v>1177</v>
       </c>
       <c r="J177">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -7007,28 +7037,28 @@
         <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D178">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E178" s="2">
         <v>45368</v>
       </c>
       <c r="F178" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G178">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I178">
-        <v>1587</v>
+        <v>1333</v>
       </c>
       <c r="J178">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -7039,28 +7069,28 @@
         <v>186</v>
       </c>
       <c r="C179" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D179">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E179" s="2">
         <v>45368</v>
       </c>
       <c r="F179" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G179">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I179">
-        <v>1635</v>
+        <v>2520</v>
       </c>
       <c r="J179">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -7071,28 +7101,28 @@
         <v>187</v>
       </c>
       <c r="C180" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D180">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E180" s="2">
         <v>45368</v>
       </c>
       <c r="F180" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G180">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H180">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I180">
-        <v>2128</v>
+        <v>1871</v>
       </c>
       <c r="J180">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -7103,28 +7133,28 @@
         <v>188</v>
       </c>
       <c r="C181" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D181">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E181" s="2">
         <v>45368</v>
       </c>
       <c r="F181" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G181">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H181">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I181">
-        <v>1805</v>
+        <v>835</v>
       </c>
       <c r="J181">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -7135,28 +7165,28 @@
         <v>189</v>
       </c>
       <c r="C182" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D182">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E182" s="2">
         <v>45368</v>
       </c>
       <c r="F182" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G182">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H182">
         <v>28</v>
       </c>
       <c r="I182">
-        <v>1927</v>
+        <v>1587</v>
       </c>
       <c r="J182">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -7167,28 +7197,28 @@
         <v>190</v>
       </c>
       <c r="C183" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D183">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="E183" s="2">
         <v>45368</v>
       </c>
       <c r="F183" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G183">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H183">
         <v>28</v>
       </c>
       <c r="I183">
-        <v>2220</v>
+        <v>1635</v>
       </c>
       <c r="J183">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -7199,28 +7229,28 @@
         <v>191</v>
       </c>
       <c r="C184" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D184">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="E184" s="2">
         <v>45368</v>
       </c>
       <c r="F184" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G184">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H184">
         <v>28</v>
       </c>
       <c r="I184">
-        <v>700</v>
+        <v>2128</v>
       </c>
       <c r="J184">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -7231,28 +7261,28 @@
         <v>192</v>
       </c>
       <c r="C185" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D185">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="E185" s="2">
         <v>45368</v>
       </c>
       <c r="F185" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G185">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="H185">
         <v>28</v>
       </c>
       <c r="I185">
-        <v>1832</v>
+        <v>1805</v>
       </c>
       <c r="J185">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -7263,28 +7293,28 @@
         <v>193</v>
       </c>
       <c r="C186" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D186">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E186" s="2">
         <v>45368</v>
       </c>
       <c r="F186" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G186">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H186">
         <v>28</v>
       </c>
       <c r="I186">
-        <v>940</v>
+        <v>1927</v>
       </c>
       <c r="J186">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -7295,28 +7325,28 @@
         <v>194</v>
       </c>
       <c r="C187" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D187">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E187" s="2">
         <v>45368</v>
       </c>
       <c r="F187" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G187">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="H187">
         <v>28</v>
       </c>
       <c r="I187">
-        <v>452</v>
+        <v>2220</v>
       </c>
       <c r="J187">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -7327,28 +7357,28 @@
         <v>195</v>
       </c>
       <c r="C188" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D188">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="E188" s="2">
         <v>45368</v>
       </c>
       <c r="F188" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G188">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H188">
         <v>28</v>
       </c>
       <c r="I188">
-        <v>2076</v>
+        <v>700</v>
       </c>
       <c r="J188">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -7359,28 +7389,28 @@
         <v>196</v>
       </c>
       <c r="C189" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D189">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2">
         <v>45368</v>
       </c>
       <c r="F189" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G189">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="H189">
         <v>28</v>
       </c>
       <c r="I189">
-        <v>860</v>
+        <v>1832</v>
       </c>
       <c r="J189">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -7391,28 +7421,28 @@
         <v>197</v>
       </c>
       <c r="C190" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D190">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E190" s="2">
         <v>45368</v>
       </c>
       <c r="F190" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G190">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H190">
         <v>28</v>
       </c>
       <c r="I190">
-        <v>2170</v>
+        <v>940</v>
       </c>
       <c r="J190">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -7423,28 +7453,28 @@
         <v>198</v>
       </c>
       <c r="C191" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D191">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E191" s="2">
         <v>45368</v>
       </c>
       <c r="F191" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G191">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H191">
         <v>28</v>
       </c>
       <c r="I191">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="J191">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -7455,28 +7485,28 @@
         <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D192">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E192" s="2">
         <v>45368</v>
       </c>
       <c r="F192" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G192">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H192">
         <v>28</v>
       </c>
       <c r="I192">
-        <v>1472</v>
+        <v>2076</v>
       </c>
       <c r="J192">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7487,28 +7517,28 @@
         <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D193">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E193" s="2">
         <v>45368</v>
       </c>
       <c r="F193" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G193">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H193">
         <v>28</v>
       </c>
       <c r="I193">
-        <v>1173</v>
+        <v>860</v>
       </c>
       <c r="J193">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7519,28 +7549,28 @@
         <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D194">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E194" s="2">
         <v>45368</v>
       </c>
       <c r="F194" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G194">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H194">
         <v>28</v>
       </c>
       <c r="I194">
-        <v>936</v>
+        <v>2170</v>
       </c>
       <c r="J194">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7551,28 +7581,28 @@
         <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D195">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="E195" s="2">
         <v>45368</v>
       </c>
       <c r="F195" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G195">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H195">
         <v>28</v>
       </c>
       <c r="I195">
-        <v>2340</v>
+        <v>500</v>
       </c>
       <c r="J195">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7583,28 +7613,28 @@
         <v>203</v>
       </c>
       <c r="C196" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D196">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E196" s="2">
         <v>45368</v>
       </c>
       <c r="F196" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G196">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H196">
         <v>28</v>
       </c>
       <c r="I196">
-        <v>2184</v>
+        <v>1472</v>
       </c>
       <c r="J196">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7615,28 +7645,28 @@
         <v>204</v>
       </c>
       <c r="C197" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D197">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E197" s="2">
         <v>45368</v>
       </c>
       <c r="F197" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G197">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H197">
         <v>28</v>
       </c>
       <c r="I197">
-        <v>882</v>
+        <v>1173</v>
       </c>
       <c r="J197">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7647,28 +7677,28 @@
         <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D198">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E198" s="2">
         <v>45368</v>
       </c>
       <c r="F198" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G198">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H198">
         <v>28</v>
       </c>
       <c r="I198">
-        <v>1683</v>
+        <v>936</v>
       </c>
       <c r="J198">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7679,28 +7709,28 @@
         <v>206</v>
       </c>
       <c r="C199" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D199">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E199" s="2">
         <v>45368</v>
       </c>
       <c r="F199" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G199">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H199">
         <v>28</v>
       </c>
       <c r="I199">
-        <v>1170</v>
+        <v>2340</v>
       </c>
       <c r="J199">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7711,28 +7741,28 @@
         <v>207</v>
       </c>
       <c r="C200" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D200">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E200" s="2">
         <v>45368</v>
       </c>
       <c r="F200" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G200">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H200">
         <v>28</v>
       </c>
       <c r="I200">
-        <v>1155</v>
+        <v>2184</v>
       </c>
       <c r="J200">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7743,28 +7773,28 @@
         <v>208</v>
       </c>
       <c r="C201" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D201">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E201" s="2">
         <v>45368</v>
       </c>
       <c r="F201" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G201">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H201">
         <v>28</v>
       </c>
       <c r="I201">
-        <v>1029</v>
+        <v>882</v>
       </c>
       <c r="J201">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7775,28 +7805,28 @@
         <v>209</v>
       </c>
       <c r="C202" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D202">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E202" s="2">
         <v>45368</v>
       </c>
       <c r="F202" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G202">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H202">
         <v>28</v>
       </c>
       <c r="I202">
-        <v>1374</v>
+        <v>1683</v>
       </c>
       <c r="J202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7807,28 +7837,28 @@
         <v>210</v>
       </c>
       <c r="C203" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D203">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E203" s="2">
         <v>45368</v>
       </c>
       <c r="F203" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G203">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H203">
         <v>28</v>
       </c>
       <c r="I203">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="J203">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7839,28 +7869,28 @@
         <v>211</v>
       </c>
       <c r="C204" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D204">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E204" s="2">
         <v>45368</v>
       </c>
       <c r="F204" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G204">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H204">
         <v>28</v>
       </c>
       <c r="I204">
-        <v>1894</v>
+        <v>1155</v>
       </c>
       <c r="J204">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7871,16 +7901,16 @@
         <v>212</v>
       </c>
       <c r="C205" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D205">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E205" s="2">
         <v>45368</v>
       </c>
       <c r="F205" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G205">
         <v>44</v>
@@ -7889,10 +7919,10 @@
         <v>28</v>
       </c>
       <c r="I205">
-        <v>882</v>
+        <v>1029</v>
       </c>
       <c r="J205">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7903,28 +7933,28 @@
         <v>213</v>
       </c>
       <c r="C206" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D206">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E206" s="2">
         <v>45368</v>
       </c>
       <c r="F206" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G206">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H206">
         <v>28</v>
       </c>
       <c r="I206">
-        <v>2430</v>
+        <v>1374</v>
       </c>
       <c r="J206">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7935,28 +7965,28 @@
         <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D207">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E207" s="2">
         <v>45368</v>
       </c>
       <c r="F207" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G207">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H207">
         <v>28</v>
       </c>
       <c r="I207">
-        <v>1463</v>
+        <v>1169</v>
       </c>
       <c r="J207">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7967,28 +7997,28 @@
         <v>215</v>
       </c>
       <c r="C208" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D208">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E208" s="2">
         <v>45368</v>
       </c>
       <c r="F208" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G208">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H208">
         <v>28</v>
       </c>
       <c r="I208">
-        <v>623</v>
+        <v>1894</v>
       </c>
       <c r="J208">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7999,28 +8029,28 @@
         <v>216</v>
       </c>
       <c r="C209" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D209">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E209" s="2">
         <v>45368</v>
       </c>
       <c r="F209" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G209">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H209">
         <v>28</v>
       </c>
       <c r="I209">
-        <v>1767</v>
+        <v>882</v>
       </c>
       <c r="J209">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -8031,28 +8061,28 @@
         <v>217</v>
       </c>
       <c r="C210" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D210">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E210" s="2">
         <v>45368</v>
       </c>
       <c r="F210" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G210">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H210">
         <v>28</v>
       </c>
       <c r="I210">
-        <v>2284</v>
+        <v>2430</v>
       </c>
       <c r="J210">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -8063,28 +8093,28 @@
         <v>218</v>
       </c>
       <c r="C211" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D211">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E211" s="2">
         <v>45368</v>
       </c>
       <c r="F211" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G211">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H211">
         <v>28</v>
       </c>
       <c r="I211">
-        <v>1757</v>
+        <v>1463</v>
       </c>
       <c r="J211">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -8095,28 +8125,28 @@
         <v>219</v>
       </c>
       <c r="C212" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D212">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E212" s="2">
         <v>45368</v>
       </c>
       <c r="F212" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G212">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H212">
         <v>28</v>
       </c>
       <c r="I212">
-        <v>1084</v>
+        <v>623</v>
       </c>
       <c r="J212">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -8127,28 +8157,28 @@
         <v>220</v>
       </c>
       <c r="C213" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D213">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E213" s="2">
         <v>45368</v>
       </c>
       <c r="F213" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G213">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H213">
         <v>28</v>
       </c>
       <c r="I213">
-        <v>2156</v>
+        <v>1767</v>
       </c>
       <c r="J213">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -8159,28 +8189,28 @@
         <v>221</v>
       </c>
       <c r="C214" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D214">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E214" s="2">
         <v>45368</v>
       </c>
       <c r="F214" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G214">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H214">
         <v>28</v>
       </c>
       <c r="I214">
-        <v>1310</v>
+        <v>408</v>
       </c>
       <c r="J214">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -8191,28 +8221,28 @@
         <v>222</v>
       </c>
       <c r="C215" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D215">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="E215" s="2">
         <v>45368</v>
       </c>
       <c r="F215" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G215">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H215">
         <v>28</v>
       </c>
       <c r="I215">
-        <v>1061</v>
+        <v>2284</v>
       </c>
       <c r="J215">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -8223,28 +8253,28 @@
         <v>223</v>
       </c>
       <c r="C216" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D216">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E216" s="2">
         <v>45368</v>
       </c>
       <c r="F216" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G216">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H216">
         <v>28</v>
       </c>
       <c r="I216">
-        <v>1804</v>
+        <v>1757</v>
       </c>
       <c r="J216">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -8255,28 +8285,28 @@
         <v>224</v>
       </c>
       <c r="C217" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D217">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="E217" s="2">
         <v>45368</v>
       </c>
       <c r="F217" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G217">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H217">
         <v>28</v>
       </c>
       <c r="I217">
-        <v>2353</v>
+        <v>1084</v>
       </c>
       <c r="J217">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -8287,28 +8317,28 @@
         <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D218">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E218" s="2">
         <v>45368</v>
       </c>
       <c r="F218" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G218">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H218">
         <v>28</v>
       </c>
       <c r="I218">
-        <v>1193</v>
+        <v>2156</v>
       </c>
       <c r="J218">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -8319,28 +8349,28 @@
         <v>226</v>
       </c>
       <c r="C219" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D219">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E219" s="2">
         <v>45368</v>
       </c>
       <c r="F219" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G219">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H219">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I219">
-        <v>1530</v>
+        <v>1310</v>
       </c>
       <c r="J219">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -8351,28 +8381,28 @@
         <v>227</v>
       </c>
       <c r="C220" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D220">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E220" s="2">
         <v>45368</v>
       </c>
       <c r="F220" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G220">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H220">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I220">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J220">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -8383,28 +8413,28 @@
         <v>228</v>
       </c>
       <c r="C221" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D221">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E221" s="2">
         <v>45368</v>
       </c>
       <c r="F221" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G221">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H221">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I221">
-        <v>1836</v>
+        <v>1804</v>
       </c>
       <c r="J221">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8415,28 +8445,28 @@
         <v>229</v>
       </c>
       <c r="C222" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D222">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E222" s="2">
         <v>45368</v>
       </c>
       <c r="F222" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G222">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H222">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I222">
-        <v>994</v>
+        <v>417</v>
       </c>
       <c r="J222">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -8447,28 +8477,28 @@
         <v>230</v>
       </c>
       <c r="C223" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D223">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E223" s="2">
         <v>45368</v>
       </c>
       <c r="F223" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G223">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H223">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I223">
-        <v>1118</v>
+        <v>2353</v>
       </c>
       <c r="J223">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8479,28 +8509,28 @@
         <v>231</v>
       </c>
       <c r="C224" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D224">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E224" s="2">
         <v>45368</v>
       </c>
       <c r="F224" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G224">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H224">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I224">
-        <v>2302</v>
+        <v>1193</v>
       </c>
       <c r="J224">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8511,28 +8541,28 @@
         <v>232</v>
       </c>
       <c r="C225" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D225">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E225" s="2">
         <v>45368</v>
       </c>
       <c r="F225" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G225">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H225">
         <v>29</v>
       </c>
       <c r="I225">
-        <v>1157</v>
+        <v>1530</v>
       </c>
       <c r="J225">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -8543,28 +8573,28 @@
         <v>233</v>
       </c>
       <c r="C226" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D226">
+        <v>68</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F226" t="s">
+        <v>325</v>
+      </c>
+      <c r="G226">
         <v>47</v>
       </c>
-      <c r="E226" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F226" t="s">
-        <v>317</v>
-      </c>
-      <c r="G226">
-        <v>44</v>
-      </c>
       <c r="H226">
         <v>29</v>
       </c>
       <c r="I226">
-        <v>1234</v>
+        <v>1062</v>
       </c>
       <c r="J226">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -8575,28 +8605,28 @@
         <v>234</v>
       </c>
       <c r="C227" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D227">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E227" s="2">
         <v>45368</v>
       </c>
       <c r="F227" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G227">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H227">
         <v>29</v>
       </c>
       <c r="I227">
-        <v>1060</v>
+        <v>1836</v>
       </c>
       <c r="J227">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -8607,28 +8637,28 @@
         <v>235</v>
       </c>
       <c r="C228" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D228">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E228" s="2">
         <v>45368</v>
       </c>
       <c r="F228" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G228">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H228">
         <v>29</v>
       </c>
       <c r="I228">
-        <v>953</v>
+        <v>994</v>
       </c>
       <c r="J228">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -8639,28 +8669,28 @@
         <v>236</v>
       </c>
       <c r="C229" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D229">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E229" s="2">
         <v>45368</v>
       </c>
       <c r="F229" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G229">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H229">
         <v>29</v>
       </c>
       <c r="I229">
-        <v>1320</v>
+        <v>1118</v>
       </c>
       <c r="J229">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -8671,28 +8701,28 @@
         <v>237</v>
       </c>
       <c r="C230" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D230">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E230" s="2">
         <v>45368</v>
       </c>
       <c r="F230" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G230">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H230">
         <v>29</v>
       </c>
       <c r="I230">
-        <v>1907</v>
+        <v>2302</v>
       </c>
       <c r="J230">
-        <v>2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -8703,16 +8733,16 @@
         <v>238</v>
       </c>
       <c r="C231" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E231" s="2">
         <v>45368</v>
       </c>
       <c r="F231" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G231">
         <v>45</v>
@@ -8721,10 +8751,10 @@
         <v>29</v>
       </c>
       <c r="I231">
-        <v>450</v>
+        <v>1157</v>
       </c>
       <c r="J231">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -8735,28 +8765,28 @@
         <v>239</v>
       </c>
       <c r="C232" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E232" s="2">
         <v>45368</v>
       </c>
       <c r="F232" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G232">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H232">
         <v>29</v>
       </c>
       <c r="I232">
-        <v>496</v>
+        <v>1234</v>
       </c>
       <c r="J232">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -8767,28 +8797,28 @@
         <v>240</v>
       </c>
       <c r="C233" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D233">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E233" s="2">
         <v>45368</v>
       </c>
       <c r="F233" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G233">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H233">
         <v>29</v>
       </c>
       <c r="I233">
-        <v>1344</v>
+        <v>1060</v>
       </c>
       <c r="J233">
-        <v>3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8799,28 +8829,28 @@
         <v>241</v>
       </c>
       <c r="C234" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D234">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E234" s="2">
         <v>45368</v>
       </c>
       <c r="F234" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G234">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H234">
         <v>29</v>
       </c>
       <c r="I234">
-        <v>849</v>
+        <v>953</v>
       </c>
       <c r="J234">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -8831,28 +8861,28 @@
         <v>242</v>
       </c>
       <c r="C235" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D235">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E235" s="2">
         <v>45368</v>
       </c>
       <c r="F235" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G235">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H235">
         <v>29</v>
       </c>
       <c r="I235">
-        <v>540</v>
+        <v>1320</v>
       </c>
       <c r="J235">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -8863,28 +8893,28 @@
         <v>243</v>
       </c>
       <c r="C236" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D236">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E236" s="2">
         <v>45368</v>
       </c>
       <c r="F236" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G236">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H236">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I236">
-        <v>1680</v>
+        <v>1907</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -8895,28 +8925,28 @@
         <v>244</v>
       </c>
       <c r="C237" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D237">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E237" s="2">
         <v>45368</v>
       </c>
       <c r="F237" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G237">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I237">
-        <v>1545</v>
+        <v>450</v>
       </c>
       <c r="J237">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8927,28 +8957,28 @@
         <v>245</v>
       </c>
       <c r="C238" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D238">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E238" s="2">
         <v>45368</v>
       </c>
       <c r="F238" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G238">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I238">
-        <v>1818</v>
+        <v>496</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8959,28 +8989,28 @@
         <v>246</v>
       </c>
       <c r="C239" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D239">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E239" s="2">
         <v>45368</v>
       </c>
       <c r="F239" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G239">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H239">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I239">
-        <v>878</v>
+        <v>1344</v>
       </c>
       <c r="J239">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8991,28 +9021,28 @@
         <v>247</v>
       </c>
       <c r="C240" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D240">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E240" s="2">
         <v>45368</v>
       </c>
       <c r="F240" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G240">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H240">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I240">
-        <v>1847</v>
+        <v>849</v>
       </c>
       <c r="J240">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -9023,28 +9053,28 @@
         <v>248</v>
       </c>
       <c r="C241" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D241">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E241" s="2">
         <v>45368</v>
       </c>
       <c r="F241" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G241">
         <v>45</v>
       </c>
       <c r="H241">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I241">
-        <v>2198</v>
+        <v>540</v>
       </c>
       <c r="J241">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -9055,28 +9085,28 @@
         <v>249</v>
       </c>
       <c r="C242" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D242">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E242" s="2">
         <v>45368</v>
       </c>
       <c r="F242" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G242">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H242">
         <v>28</v>
       </c>
       <c r="I242">
-        <v>838</v>
+        <v>1680</v>
       </c>
       <c r="J242">
-        <v>2.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -9087,28 +9117,28 @@
         <v>250</v>
       </c>
       <c r="C243" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D243">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E243" s="2">
         <v>45368</v>
       </c>
       <c r="F243" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G243">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H243">
         <v>28</v>
       </c>
       <c r="I243">
-        <v>1390</v>
+        <v>1545</v>
       </c>
       <c r="J243">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -9119,28 +9149,28 @@
         <v>251</v>
       </c>
       <c r="C244" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D244">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E244" s="2">
         <v>45368</v>
       </c>
       <c r="F244" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G244">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H244">
         <v>28</v>
       </c>
       <c r="I244">
-        <v>607</v>
+        <v>1818</v>
       </c>
       <c r="J244">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -9151,28 +9181,28 @@
         <v>252</v>
       </c>
       <c r="C245" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D245">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E245" s="2">
         <v>45368</v>
       </c>
       <c r="F245" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G245">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H245">
         <v>28</v>
       </c>
       <c r="I245">
-        <v>715</v>
+        <v>878</v>
       </c>
       <c r="J245">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -9183,28 +9213,28 @@
         <v>253</v>
       </c>
       <c r="C246" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D246">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E246" s="2">
         <v>45368</v>
       </c>
       <c r="F246" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G246">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H246">
         <v>28</v>
       </c>
       <c r="I246">
-        <v>2230</v>
+        <v>1847</v>
       </c>
       <c r="J246">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -9215,28 +9245,28 @@
         <v>254</v>
       </c>
       <c r="C247" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D247">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E247" s="2">
         <v>45368</v>
       </c>
       <c r="F247" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G247">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H247">
         <v>28</v>
       </c>
       <c r="I247">
-        <v>2121</v>
+        <v>2198</v>
       </c>
       <c r="J247">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -9247,28 +9277,28 @@
         <v>255</v>
       </c>
       <c r="C248" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D248">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E248" s="2">
         <v>45368</v>
       </c>
       <c r="F248" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G248">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H248">
         <v>28</v>
       </c>
       <c r="I248">
-        <v>647</v>
+        <v>838</v>
       </c>
       <c r="J248">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -9279,28 +9309,28 @@
         <v>256</v>
       </c>
       <c r="C249" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D249">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E249" s="2">
         <v>45368</v>
       </c>
       <c r="F249" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G249">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H249">
         <v>28</v>
       </c>
       <c r="I249">
-        <v>1972</v>
+        <v>1390</v>
       </c>
       <c r="J249">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -9311,28 +9341,28 @@
         <v>257</v>
       </c>
       <c r="C250" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D250">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E250" s="2">
         <v>45368</v>
       </c>
       <c r="F250" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G250">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H250">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I250">
-        <v>1192</v>
+        <v>607</v>
       </c>
       <c r="J250">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -9343,28 +9373,28 @@
         <v>258</v>
       </c>
       <c r="C251" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D251">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E251" s="2">
         <v>45368</v>
       </c>
       <c r="F251" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G251">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H251">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I251">
-        <v>505</v>
+        <v>715</v>
       </c>
       <c r="J251">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -9375,28 +9405,28 @@
         <v>259</v>
       </c>
       <c r="C252" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D252">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E252" s="2">
         <v>45368</v>
       </c>
       <c r="F252" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G252">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H252">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I252">
-        <v>1487</v>
+        <v>2230</v>
       </c>
       <c r="J252">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -9407,28 +9437,28 @@
         <v>260</v>
       </c>
       <c r="C253" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D253">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E253" s="2">
         <v>45368</v>
       </c>
       <c r="F253" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G253">
         <v>43</v>
       </c>
       <c r="H253">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I253">
-        <v>998</v>
+        <v>417</v>
       </c>
       <c r="J253">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -9439,28 +9469,28 @@
         <v>261</v>
       </c>
       <c r="C254" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D254">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E254" s="2">
         <v>45368</v>
       </c>
       <c r="F254" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G254">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H254">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I254">
-        <v>952</v>
+        <v>2121</v>
       </c>
       <c r="J254">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9471,28 +9501,28 @@
         <v>262</v>
       </c>
       <c r="C255" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D255">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E255" s="2">
         <v>45368</v>
       </c>
       <c r="F255" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G255">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H255">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I255">
-        <v>977</v>
+        <v>647</v>
       </c>
       <c r="J255">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -9503,28 +9533,28 @@
         <v>263</v>
       </c>
       <c r="C256" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D256">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E256" s="2">
         <v>45368</v>
       </c>
       <c r="F256" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G256">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H256">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I256">
-        <v>2119</v>
+        <v>1972</v>
       </c>
       <c r="J256">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -9535,28 +9565,28 @@
         <v>264</v>
       </c>
       <c r="C257" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D257">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E257" s="2">
         <v>45368</v>
       </c>
       <c r="F257" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G257">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H257">
         <v>29</v>
       </c>
       <c r="I257">
-        <v>1398</v>
+        <v>1192</v>
       </c>
       <c r="J257">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9567,28 +9597,28 @@
         <v>265</v>
       </c>
       <c r="C258" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D258">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E258" s="2">
         <v>45368</v>
       </c>
       <c r="F258" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G258">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H258">
         <v>29</v>
       </c>
       <c r="I258">
-        <v>2157</v>
+        <v>505</v>
       </c>
       <c r="J258">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9599,28 +9629,28 @@
         <v>266</v>
       </c>
       <c r="C259" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D259">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="E259" s="2">
         <v>45368</v>
       </c>
       <c r="F259" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G259">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H259">
         <v>29</v>
       </c>
       <c r="I259">
-        <v>1341</v>
+        <v>1487</v>
       </c>
       <c r="J259">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9631,28 +9661,28 @@
         <v>267</v>
       </c>
       <c r="C260" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D260">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E260" s="2">
         <v>45368</v>
       </c>
       <c r="F260" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G260">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H260">
         <v>29</v>
       </c>
       <c r="I260">
-        <v>1800</v>
+        <v>998</v>
       </c>
       <c r="J260">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9663,28 +9693,28 @@
         <v>268</v>
       </c>
       <c r="C261" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D261">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E261" s="2">
         <v>45368</v>
       </c>
       <c r="F261" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G261">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H261">
         <v>29</v>
       </c>
       <c r="I261">
-        <v>1416</v>
+        <v>952</v>
       </c>
       <c r="J261">
-        <v>3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9695,25 +9725,25 @@
         <v>269</v>
       </c>
       <c r="C262" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D262">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E262" s="2">
         <v>45368</v>
       </c>
       <c r="F262" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G262">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H262">
         <v>29</v>
       </c>
       <c r="I262">
-        <v>569</v>
+        <v>977</v>
       </c>
       <c r="J262">
         <v>1.1</v>
@@ -9727,28 +9757,28 @@
         <v>270</v>
       </c>
       <c r="C263" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D263">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="E263" s="2">
         <v>45368</v>
       </c>
       <c r="F263" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G263">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="H263">
         <v>29</v>
       </c>
       <c r="I263">
-        <v>1987</v>
+        <v>2119</v>
       </c>
       <c r="J263">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -9759,25 +9789,25 @@
         <v>271</v>
       </c>
       <c r="C264" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D264">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E264" s="2">
         <v>45368</v>
       </c>
       <c r="F264" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G264">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H264">
         <v>29</v>
       </c>
       <c r="I264">
-        <v>1941</v>
+        <v>414</v>
       </c>
       <c r="J264">
         <v>3</v>
@@ -9791,28 +9821,28 @@
         <v>272</v>
       </c>
       <c r="C265" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D265">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E265" s="2">
         <v>45368</v>
       </c>
       <c r="F265" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G265">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H265">
         <v>29</v>
       </c>
       <c r="I265">
-        <v>2430</v>
+        <v>1398</v>
       </c>
       <c r="J265">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9823,28 +9853,28 @@
         <v>273</v>
       </c>
       <c r="C266" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D266">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E266" s="2">
         <v>45368</v>
       </c>
       <c r="F266" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G266">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H266">
         <v>29</v>
       </c>
       <c r="I266">
-        <v>1767</v>
+        <v>2157</v>
       </c>
       <c r="J266">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9855,28 +9885,28 @@
         <v>274</v>
       </c>
       <c r="C267" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D267">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E267" s="2">
         <v>45368</v>
       </c>
       <c r="F267" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G267">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H267">
         <v>29</v>
       </c>
       <c r="I267">
-        <v>956</v>
+        <v>1341</v>
       </c>
       <c r="J267">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9887,28 +9917,28 @@
         <v>275</v>
       </c>
       <c r="C268" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D268">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E268" s="2">
         <v>45368</v>
       </c>
       <c r="F268" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G268">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H268">
         <v>29</v>
       </c>
       <c r="I268">
-        <v>2205</v>
+        <v>1800</v>
       </c>
       <c r="J268">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9919,28 +9949,28 @@
         <v>276</v>
       </c>
       <c r="C269" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D269">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="E269" s="2">
         <v>45368</v>
       </c>
       <c r="F269" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G269">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H269">
         <v>29</v>
       </c>
       <c r="I269">
-        <v>2427</v>
+        <v>1416</v>
       </c>
       <c r="J269">
-        <v>5.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9951,28 +9981,28 @@
         <v>277</v>
       </c>
       <c r="C270" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D270">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E270" s="2">
         <v>45368</v>
       </c>
       <c r="F270" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G270">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H270">
         <v>29</v>
       </c>
       <c r="I270">
-        <v>2302</v>
+        <v>569</v>
       </c>
       <c r="J270">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9983,28 +10013,28 @@
         <v>278</v>
       </c>
       <c r="C271" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D271">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E271" s="2">
         <v>45368</v>
       </c>
       <c r="F271" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G271">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="H271">
         <v>29</v>
       </c>
       <c r="I271">
-        <v>2272</v>
+        <v>1987</v>
       </c>
       <c r="J271">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -10015,28 +10045,28 @@
         <v>279</v>
       </c>
       <c r="C272" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D272">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E272" s="2">
         <v>45368</v>
       </c>
       <c r="F272" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G272">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H272">
         <v>29</v>
       </c>
       <c r="I272">
-        <v>1761</v>
+        <v>1941</v>
       </c>
       <c r="J272">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -10047,28 +10077,28 @@
         <v>280</v>
       </c>
       <c r="C273" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D273">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E273" s="2">
         <v>45368</v>
       </c>
       <c r="F273" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G273">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H273">
         <v>29</v>
       </c>
       <c r="I273">
-        <v>2143</v>
+        <v>2430</v>
       </c>
       <c r="J273">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -10079,28 +10109,28 @@
         <v>281</v>
       </c>
       <c r="C274" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D274">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E274" s="2">
         <v>45368</v>
       </c>
       <c r="F274" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G274">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H274">
         <v>29</v>
       </c>
       <c r="I274">
-        <v>1998</v>
+        <v>418</v>
       </c>
       <c r="J274">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -10111,28 +10141,28 @@
         <v>282</v>
       </c>
       <c r="C275" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D275">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E275" s="2">
         <v>45368</v>
       </c>
       <c r="F275" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G275">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H275">
         <v>29</v>
       </c>
       <c r="I275">
-        <v>2332</v>
+        <v>1767</v>
       </c>
       <c r="J275">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -10143,28 +10173,28 @@
         <v>283</v>
       </c>
       <c r="C276" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D276">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E276" s="2">
         <v>45368</v>
       </c>
       <c r="F276" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G276">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H276">
         <v>29</v>
       </c>
       <c r="I276">
-        <v>991</v>
+        <v>956</v>
       </c>
       <c r="J276">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -10175,28 +10205,28 @@
         <v>284</v>
       </c>
       <c r="C277" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D277">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E277" s="2">
         <v>45368</v>
       </c>
       <c r="F277" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G277">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H277">
         <v>29</v>
       </c>
       <c r="I277">
-        <v>1591</v>
+        <v>2205</v>
       </c>
       <c r="J277">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -10207,28 +10237,28 @@
         <v>285</v>
       </c>
       <c r="C278" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D278">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="E278" s="2">
         <v>45368</v>
       </c>
       <c r="F278" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G278">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H278">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I278">
-        <v>723</v>
+        <v>2427</v>
       </c>
       <c r="J278">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -10239,28 +10269,28 @@
         <v>286</v>
       </c>
       <c r="C279" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D279">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E279" s="2">
         <v>45368</v>
       </c>
       <c r="F279" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G279">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H279">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I279">
-        <v>1614</v>
+        <v>2302</v>
       </c>
       <c r="J279">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -10271,28 +10301,28 @@
         <v>287</v>
       </c>
       <c r="C280" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D280">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E280" s="2">
         <v>45368</v>
       </c>
       <c r="F280" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G280">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H280">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I280">
-        <v>1722</v>
+        <v>2272</v>
       </c>
       <c r="J280">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -10303,28 +10333,28 @@
         <v>288</v>
       </c>
       <c r="C281" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D281">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E281" s="2">
         <v>45368</v>
       </c>
       <c r="F281" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G281">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H281">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I281">
-        <v>2430</v>
+        <v>1761</v>
       </c>
       <c r="J281">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10335,28 +10365,28 @@
         <v>289</v>
       </c>
       <c r="C282" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D282">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E282" s="2">
         <v>45368</v>
       </c>
       <c r="F282" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G282">
         <v>49</v>
       </c>
       <c r="H282">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I282">
-        <v>2091</v>
+        <v>2143</v>
       </c>
       <c r="J282">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10367,28 +10397,28 @@
         <v>290</v>
       </c>
       <c r="C283" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D283">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E283" s="2">
         <v>45368</v>
       </c>
       <c r="F283" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G283">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H283">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I283">
-        <v>2137</v>
+        <v>1998</v>
       </c>
       <c r="J283">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10399,28 +10429,28 @@
         <v>291</v>
       </c>
       <c r="C284" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D284">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E284" s="2">
         <v>45368</v>
       </c>
       <c r="F284" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G284">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H284">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I284">
-        <v>1178</v>
+        <v>2332</v>
       </c>
       <c r="J284">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10431,28 +10461,28 @@
         <v>292</v>
       </c>
       <c r="C285" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D285">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E285" s="2">
         <v>45368</v>
       </c>
       <c r="F285" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G285">
         <v>45</v>
       </c>
       <c r="H285">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I285">
-        <v>2257</v>
+        <v>991</v>
       </c>
       <c r="J285">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10463,28 +10493,28 @@
         <v>293</v>
       </c>
       <c r="C286" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D286">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E286" s="2">
         <v>45368</v>
       </c>
       <c r="F286" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G286">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H286">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I286">
-        <v>1827</v>
+        <v>1591</v>
       </c>
       <c r="J286">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10495,27 +10525,347 @@
         <v>294</v>
       </c>
       <c r="C287" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D287">
+        <v>27</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F287" t="s">
+        <v>325</v>
+      </c>
+      <c r="G287">
+        <v>44</v>
+      </c>
+      <c r="H287">
+        <v>28</v>
+      </c>
+      <c r="I287">
+        <v>723</v>
+      </c>
+      <c r="J287">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>295</v>
+      </c>
+      <c r="C288" t="s">
+        <v>324</v>
+      </c>
+      <c r="D288">
+        <v>57</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F288" t="s">
+        <v>327</v>
+      </c>
+      <c r="G288">
+        <v>45</v>
+      </c>
+      <c r="H288">
+        <v>28</v>
+      </c>
+      <c r="I288">
+        <v>1614</v>
+      </c>
+      <c r="J288">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>296</v>
+      </c>
+      <c r="C289" t="s">
+        <v>324</v>
+      </c>
+      <c r="D289">
+        <v>21</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F289" t="s">
+        <v>327</v>
+      </c>
+      <c r="G289">
+        <v>44</v>
+      </c>
+      <c r="H289">
+        <v>28</v>
+      </c>
+      <c r="I289">
+        <v>423</v>
+      </c>
+      <c r="J289">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>297</v>
+      </c>
+      <c r="C290" t="s">
+        <v>324</v>
+      </c>
+      <c r="D290">
+        <v>61</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F290" t="s">
+        <v>325</v>
+      </c>
+      <c r="G290">
+        <v>49</v>
+      </c>
+      <c r="H290">
+        <v>28</v>
+      </c>
+      <c r="I290">
+        <v>1722</v>
+      </c>
+      <c r="J290">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>298</v>
+      </c>
+      <c r="C291" t="s">
+        <v>324</v>
+      </c>
+      <c r="D291">
+        <v>72</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F291" t="s">
+        <v>327</v>
+      </c>
+      <c r="G291">
+        <v>45</v>
+      </c>
+      <c r="H291">
+        <v>28</v>
+      </c>
+      <c r="I291">
+        <v>2430</v>
+      </c>
+      <c r="J291">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>299</v>
+      </c>
+      <c r="C292" t="s">
+        <v>324</v>
+      </c>
+      <c r="D292">
+        <v>73</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F292" t="s">
+        <v>325</v>
+      </c>
+      <c r="G292">
+        <v>49</v>
+      </c>
+      <c r="H292">
+        <v>28</v>
+      </c>
+      <c r="I292">
+        <v>2091</v>
+      </c>
+      <c r="J292">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>300</v>
+      </c>
+      <c r="C293" t="s">
+        <v>324</v>
+      </c>
+      <c r="D293">
+        <v>77</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F293" t="s">
+        <v>328</v>
+      </c>
+      <c r="G293">
+        <v>50</v>
+      </c>
+      <c r="H293">
+        <v>28</v>
+      </c>
+      <c r="I293">
+        <v>2137</v>
+      </c>
+      <c r="J293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>301</v>
+      </c>
+      <c r="C294" t="s">
+        <v>324</v>
+      </c>
+      <c r="D294">
+        <v>79</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F294" t="s">
+        <v>325</v>
+      </c>
+      <c r="G294">
+        <v>47</v>
+      </c>
+      <c r="H294">
+        <v>28</v>
+      </c>
+      <c r="I294">
+        <v>1178</v>
+      </c>
+      <c r="J294">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>302</v>
+      </c>
+      <c r="C295" t="s">
+        <v>324</v>
+      </c>
+      <c r="D295">
+        <v>59</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F295" t="s">
+        <v>327</v>
+      </c>
+      <c r="G295">
+        <v>45</v>
+      </c>
+      <c r="H295">
+        <v>28</v>
+      </c>
+      <c r="I295">
+        <v>2257</v>
+      </c>
+      <c r="J295">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>303</v>
+      </c>
+      <c r="C296" t="s">
+        <v>324</v>
+      </c>
+      <c r="D296">
+        <v>62</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F296" t="s">
+        <v>327</v>
+      </c>
+      <c r="G296">
+        <v>44</v>
+      </c>
+      <c r="H296">
+        <v>28</v>
+      </c>
+      <c r="I296">
+        <v>1827</v>
+      </c>
+      <c r="J296">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>304</v>
+      </c>
+      <c r="C297" t="s">
+        <v>324</v>
+      </c>
+      <c r="D297">
         <v>31</v>
       </c>
-      <c r="E287" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F287" t="s">
-        <v>317</v>
-      </c>
-      <c r="G287">
+      <c r="E297" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F297" t="s">
+        <v>327</v>
+      </c>
+      <c r="G297">
         <v>43</v>
       </c>
-      <c r="H287">
-        <v>28</v>
-      </c>
-      <c r="I287">
+      <c r="H297">
+        <v>28</v>
+      </c>
+      <c r="I297">
         <v>568</v>
       </c>
-      <c r="J287">
+      <c r="J297">
         <v>1.5</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +484,5641 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gabriel dos Santos Magalhães</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>540</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kai Havertz</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>44</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>540</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gabriel Martinelli Silva</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>408</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Martin Ødegaard</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>253</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Thomas Partey</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>534</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>William Saliba</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>86</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>540</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Leandro Trossard</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>49</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>314</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Benjamin White</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>45</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>405</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>David Raya Martin</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>540</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Declan Rice</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>59</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>402</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Leon Bailey</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>286</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Diego Carlos Santos Silva</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>48</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>180</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lucas Digne</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>46</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>434</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ezri Konsa Ngoyo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>45</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>540</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Emiliano Martínez Romero</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>45</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>540</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>John McGinn</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>45</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>349</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ollie Watkins</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>45</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>441</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pau Torres</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>38</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>540</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ryan Christie</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>380</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lewis Cook</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>52</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>533</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Justin Kluivert</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>41</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>335</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Dango Ouattara</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>59</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>215</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Antoine Semenyo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>45</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>517</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Marcos Senesi</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>40</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>346</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Adam Smith</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>56</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>264</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Marcus Tavernier</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>50</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>511</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Illia Zabarnyi</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>46</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>540</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Milos Kerkez</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>63</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>515</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Alex Scott</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>40</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>169</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kristoffer Ajer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>45</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>457</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mikkel Damsgaard</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>40</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>372</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mark Flekken</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>540</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vitaly Janelt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>40</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>470</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mathias Jensen</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>49</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>238</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Keane Lewis-Potter</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>51</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>366</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Bryan Mbeumo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>47</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>539</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Christian Nørgaard</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>48</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>360</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ethan Pinnock</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>43</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>540</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mads Roerslev Rasmussen</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>40</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>260</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kevin Schade</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>45</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>295</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Yoane Wissa</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>28</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>49</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>290</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>João Pedro Junqueira de Jesus</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>47</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>280</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jason Steele</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>49</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>180</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Bart Verbruggen</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>40</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>360</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Danny Welbeck</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>45</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>506</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Carlos Baleba</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>44</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>348</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Moisés Caicedo Corozo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>45</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>525</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Levi Colwill</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>52</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>540</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Marc Cucurella Saseta</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>52</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>500</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Malo Gusto</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>52</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>343</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Noni Madueke</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>43</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>44</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>387</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nicolas Jackson</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>42</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>39</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7</v>
+      </c>
+      <c r="H53" t="n">
+        <v>441</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Cole Palmer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>67</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>42</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>505</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Eberechi Eze</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>47</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>540</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Marc Guéhi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>45</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7</v>
+      </c>
+      <c r="H56" t="n">
+        <v>540</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jefferson Lerma Solís</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>50</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>213</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jean-Philippe Mateta</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>47</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>428</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tyrick Mitchell</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>48</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>538</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chris Richards</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>61</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>343</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Dean Henderson</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>21</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>45</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>540</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Daniel Muñoz</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>39</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7</v>
+      </c>
+      <c r="H62" t="n">
+        <v>530</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Adam Wharton</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>48</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7</v>
+      </c>
+      <c r="H63" t="n">
+        <v>475</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Dominic Calvert-Lewin</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>27</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>40</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>503</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Abdoulaye Doucouré</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>40</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7</v>
+      </c>
+      <c r="H65" t="n">
+        <v>305</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Idrissa Gueye</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>40</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>340</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michael Keane</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>43</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>450</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Dwight McNeil</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>41</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>44</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>532</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jordan Pickford</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>44</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>540</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>James Tarkowski</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>43</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>540</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ashley Young</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>45</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7</v>
+      </c>
+      <c r="H71" t="n">
+        <v>335</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Alex Iwobi</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>27</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>44</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7</v>
+      </c>
+      <c r="H72" t="n">
+        <v>511</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Andreas Hoelgebaum Pereira</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>40</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>480</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Issa Diop</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>45</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>278</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bernd Leno</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>40</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7</v>
+      </c>
+      <c r="H75" t="n">
+        <v>540</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rodrigo Muniz Carvalho</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>18</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>40</v>
+      </c>
+      <c r="G76" t="n">
+        <v>7</v>
+      </c>
+      <c r="H76" t="n">
+        <v>274</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Antonee Robinson</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>49</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7</v>
+      </c>
+      <c r="H77" t="n">
+        <v>540</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Kenny Tete</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>52</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>540</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Raúl Jiménez</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>32</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>44</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7</v>
+      </c>
+      <c r="H79" t="n">
+        <v>260</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Calvin Bassey</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>15</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>48</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7</v>
+      </c>
+      <c r="H80" t="n">
+        <v>540</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Adama Traoré</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>28</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>50</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7</v>
+      </c>
+      <c r="H81" t="n">
+        <v>466</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>39</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>492</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Alisson Ramses Becker</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>35</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>48</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>450</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Diogo Teixeira da Silva</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>34</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>43</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7</v>
+      </c>
+      <c r="H84" t="n">
+        <v>373</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ibrahima Konaté</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>37</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>39</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7</v>
+      </c>
+      <c r="H85" t="n">
+        <v>479</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Luis Díaz</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>54</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>40</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7</v>
+      </c>
+      <c r="H86" t="n">
+        <v>429</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Alexis Mac Allister</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>49</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7</v>
+      </c>
+      <c r="H87" t="n">
+        <v>509</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>28</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>44</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>502</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>62</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>55</v>
+      </c>
+      <c r="G89" t="n">
+        <v>7</v>
+      </c>
+      <c r="H89" t="n">
+        <v>532</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Dominik Szoboszlai</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>22</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>46</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>492</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>36</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>51</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7</v>
+      </c>
+      <c r="H91" t="n">
+        <v>540</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ryan Gravenberch</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>40</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>540</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Manuel Akanji</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>40</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7</v>
+      </c>
+      <c r="H93" t="n">
+        <v>540</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>52</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7</v>
+      </c>
+      <c r="H94" t="n">
+        <v>456</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>18</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>45</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7</v>
+      </c>
+      <c r="H95" t="n">
+        <v>356</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Rúben Gato Alves Dias</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>45</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>456</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jack Grealish</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>50</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7</v>
+      </c>
+      <c r="H97" t="n">
+        <v>265</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>67</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>65</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7</v>
+      </c>
+      <c r="H98" t="n">
+        <v>539</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Mateo Kovačić</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>36</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>45</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7</v>
+      </c>
+      <c r="H99" t="n">
+        <v>433</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Rico Lewis</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>21</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>40</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>395</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Kyle Walker</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>7</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>43</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7</v>
+      </c>
+      <c r="H101" t="n">
+        <v>259</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Joško Gvardiol</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>42</v>
+      </c>
+      <c r="G102" t="n">
+        <v>7</v>
+      </c>
+      <c r="H102" t="n">
+        <v>492</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jérémy Doku</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>16</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>46</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7</v>
+      </c>
+      <c r="H103" t="n">
+        <v>305</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Amad Diallo</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>20</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>48</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7</v>
+      </c>
+      <c r="H104" t="n">
+        <v>340</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Bruno Borges Fernandes</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>54</v>
+      </c>
+      <c r="G105" t="n">
+        <v>7</v>
+      </c>
+      <c r="H105" t="n">
+        <v>479</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Carlos Henrique Casimiro</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>43</v>
+      </c>
+      <c r="G106" t="n">
+        <v>7</v>
+      </c>
+      <c r="H106" t="n">
+        <v>273</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Diogo Dalot Teixeira</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>35</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>53</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7</v>
+      </c>
+      <c r="H107" t="n">
+        <v>540</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Christian Eriksen</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>68</v>
+      </c>
+      <c r="G108" t="n">
+        <v>7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>169</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Alejandro Garnacho</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>20</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>53</v>
+      </c>
+      <c r="G109" t="n">
+        <v>7</v>
+      </c>
+      <c r="H109" t="n">
+        <v>319</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Kobbie Mainoo</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>43</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7</v>
+      </c>
+      <c r="H110" t="n">
+        <v>487</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Lisandro Martínez</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>19</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>68</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7</v>
+      </c>
+      <c r="H111" t="n">
+        <v>526</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Marcus Rashford</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>20</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>63</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7</v>
+      </c>
+      <c r="H112" t="n">
+        <v>417</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>André Onana</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>39</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>49</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7</v>
+      </c>
+      <c r="H113" t="n">
+        <v>540</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Lewis Hall</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>45</v>
+      </c>
+      <c r="G114" t="n">
+        <v>7</v>
+      </c>
+      <c r="H114" t="n">
+        <v>337</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Bruno Guimarães Rodriguez Moura</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>19</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>47</v>
+      </c>
+      <c r="G115" t="n">
+        <v>7</v>
+      </c>
+      <c r="H115" t="n">
+        <v>536</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Dan Burn</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>18</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>40</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>540</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Alexander Isak</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>19</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>45</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7</v>
+      </c>
+      <c r="H117" t="n">
+        <v>405</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Joelinton Cássio Apolinário de Lira</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>19</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>45</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7</v>
+      </c>
+      <c r="H118" t="n">
+        <v>478</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Emil Krafth</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>40</v>
+      </c>
+      <c r="G119" t="n">
+        <v>7</v>
+      </c>
+      <c r="H119" t="n">
+        <v>240</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sean Longstaff</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>40</v>
+      </c>
+      <c r="G120" t="n">
+        <v>7</v>
+      </c>
+      <c r="H120" t="n">
+        <v>283</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jacob Murphy</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>16</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>45</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7</v>
+      </c>
+      <c r="H121" t="n">
+        <v>340</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Nick Pope</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>31</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>45</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7</v>
+      </c>
+      <c r="H122" t="n">
+        <v>540</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Fabian Schär</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>40</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7</v>
+      </c>
+      <c r="H123" t="n">
+        <v>297</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Kieran Trippier</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>43</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7</v>
+      </c>
+      <c r="H124" t="n">
+        <v>208</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Harvey Barnes</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>38</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>43</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7</v>
+      </c>
+      <c r="H125" t="n">
+        <v>323</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Callum Hudson-Odoi</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>42</v>
+      </c>
+      <c r="G126" t="n">
+        <v>7</v>
+      </c>
+      <c r="H126" t="n">
+        <v>399</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Anthony Elanga</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>49</v>
+      </c>
+      <c r="G127" t="n">
+        <v>7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>352</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Morgan Gibbs-White</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>40</v>
+      </c>
+      <c r="G128" t="n">
+        <v>7</v>
+      </c>
+      <c r="H128" t="n">
+        <v>432</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Chris Wood</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>39</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>39</v>
+      </c>
+      <c r="G129" t="n">
+        <v>7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>476</v>
+      </c>
+      <c r="I129" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Ryan Yates</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>48</v>
+      </c>
+      <c r="G130" t="n">
+        <v>7</v>
+      </c>
+      <c r="H130" t="n">
+        <v>356</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Murillo Santiago Costa dos Santos</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>21</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>45</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7</v>
+      </c>
+      <c r="H131" t="n">
+        <v>540</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Ibrahim Sangaré</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>45</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7</v>
+      </c>
+      <c r="H132" t="n">
+        <v>212</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Matz Sels</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>26</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>45</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7</v>
+      </c>
+      <c r="H133" t="n">
+        <v>540</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Brennan Johnson</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>36</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>40</v>
+      </c>
+      <c r="G134" t="n">
+        <v>7</v>
+      </c>
+      <c r="H134" t="n">
+        <v>423</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Rodrigo Bentancur</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>50</v>
+      </c>
+      <c r="G135" t="n">
+        <v>7</v>
+      </c>
+      <c r="H135" t="n">
+        <v>304</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Dejan Kulusevski</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>24</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>44</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7</v>
+      </c>
+      <c r="H136" t="n">
+        <v>437</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>James Maddison</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>39</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>55</v>
+      </c>
+      <c r="G137" t="n">
+        <v>7</v>
+      </c>
+      <c r="H137" t="n">
+        <v>479</v>
+      </c>
+      <c r="I137" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Pedro Porro</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>26</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>49</v>
+      </c>
+      <c r="G138" t="n">
+        <v>7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>537</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Cristian Romero</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>28</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>43</v>
+      </c>
+      <c r="G139" t="n">
+        <v>7</v>
+      </c>
+      <c r="H139" t="n">
+        <v>540</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Pape Matar Sarr</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>53</v>
+      </c>
+      <c r="G140" t="n">
+        <v>7</v>
+      </c>
+      <c r="H140" t="n">
+        <v>200</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Son Heung-min</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>33</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>42</v>
+      </c>
+      <c r="G141" t="n">
+        <v>7</v>
+      </c>
+      <c r="H141" t="n">
+        <v>450</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guglielmo Vicario</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>21</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>47</v>
+      </c>
+      <c r="G142" t="n">
+        <v>7</v>
+      </c>
+      <c r="H142" t="n">
+        <v>540</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Micky van de Ven</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>25</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>45</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7</v>
+      </c>
+      <c r="H143" t="n">
+        <v>440</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michail Antonio</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>30</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>48</v>
+      </c>
+      <c r="G144" t="n">
+        <v>7</v>
+      </c>
+      <c r="H144" t="n">
+        <v>358</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Alphonse Areola</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>16</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>45</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7</v>
+      </c>
+      <c r="H145" t="n">
+        <v>495</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Jarrod Bowen</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>36</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>44</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7</v>
+      </c>
+      <c r="H146" t="n">
+        <v>517</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Vladimír Coufal</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>57</v>
+      </c>
+      <c r="G147" t="n">
+        <v>7</v>
+      </c>
+      <c r="H147" t="n">
+        <v>198</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Emerson Palmieri dos Santos</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>11</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>45</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7</v>
+      </c>
+      <c r="H148" t="n">
+        <v>421</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Lucas Tolentino Coelho de Lima</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>24</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>45</v>
+      </c>
+      <c r="G149" t="n">
+        <v>7</v>
+      </c>
+      <c r="H149" t="n">
+        <v>444</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Tomáš Souček</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>27</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>40</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7</v>
+      </c>
+      <c r="H150" t="n">
+        <v>367</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Edson Álvarez Velázquez</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>5</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>53</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7</v>
+      </c>
+      <c r="H151" t="n">
+        <v>222</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Konstantinos Mavropanos</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>49</v>
+      </c>
+      <c r="G152" t="n">
+        <v>7</v>
+      </c>
+      <c r="H152" t="n">
+        <v>495</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mohammed Kudus</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>50</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7</v>
+      </c>
+      <c r="H153" t="n">
+        <v>492</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Rayan Aït-Nouri</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>22</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>44</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7</v>
+      </c>
+      <c r="H154" t="n">
+        <v>474</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hwang Hee-chan</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>7</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>45</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7</v>
+      </c>
+      <c r="H155" t="n">
+        <v>219</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>João Victor Gomes da Silva</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>10</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>39</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7</v>
+      </c>
+      <c r="H156" t="n">
+        <v>493</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Mario Lemina</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>24</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>43</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7</v>
+      </c>
+      <c r="H157" t="n">
+        <v>539</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>José Malheiro de Sá</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>53</v>
+      </c>
+      <c r="G158" t="n">
+        <v>7</v>
+      </c>
+      <c r="H158" t="n">
+        <v>180</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Toti António Gomes</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>44</v>
+      </c>
+      <c r="G159" t="n">
+        <v>7</v>
+      </c>
+      <c r="H159" t="n">
+        <v>360</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Matheus Santos Carneiro Da Cunha</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>30</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>45</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7</v>
+      </c>
+      <c r="H160" t="n">
+        <v>460</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Matt Doherty</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>45</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>208</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jean-Ricner Bellegarde</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>20</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>40</v>
+      </c>
+      <c r="G162" t="n">
+        <v>7</v>
+      </c>
+      <c r="H162" t="n">
+        <v>389</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>253</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>534</v>
+        <v>617</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -744,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
         <v>405</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>402</v>
+        <v>492</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="I15" t="n">
         <v>2.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
         <v>349</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I19" t="n">
         <v>2.9</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="I20" t="n">
         <v>2.4</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>533</v>
+        <v>623</v>
       </c>
       <c r="I21" t="n">
         <v>2.3</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="I23" t="n">
         <v>1.9</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>346</v>
+        <v>436</v>
       </c>
       <c r="I25" t="n">
         <v>3.3</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>264</v>
+        <v>326</v>
       </c>
       <c r="I26" t="n">
         <v>2.9</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I28" t="n">
         <v>2.3</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>457</v>
+        <v>547</v>
       </c>
       <c r="I31" t="n">
         <v>2.4</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>372</v>
+        <v>462</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>39</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="I34" t="n">
         <v>2.4</v>
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>49</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
         <v>238</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>51</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="I36" t="n">
         <v>2.4</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>47</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="I37" t="n">
         <v>5.1</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="I38" t="n">
         <v>2.4</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I39" t="n">
         <v>2.7</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>40</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I40" t="n">
         <v>2.2</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>45</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>49</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" t="n">
         <v>290</v>
@@ -1934,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H43" t="n">
         <v>280</v>
@@ -1957,7 +1957,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jason Steele</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,22 +1977,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="I44" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bart Verbruggen</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,33 +2001,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>360</v>
+        <v>596</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,45 +2036,45 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>506</v>
+        <v>421</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,22 +2082,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="I47" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2106,33 +2106,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
-        <v>525</v>
+        <v>630</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,19 +2155,19 @@
         <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="I49" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,19 +2190,19 @@
         <v>52</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,33 +2246,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>387</v>
+        <v>521</v>
       </c>
       <c r="I52" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2281,62 +2281,62 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>69</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>42</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>45571</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>39</v>
-      </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>441</v>
+        <v>595</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Nathaniel Clyne</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>505</v>
+        <v>226</v>
       </c>
       <c r="I54" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="55">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
         <v>47</v>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H55" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I55" t="n">
         <v>5</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>45</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H56" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I56" t="n">
         <v>2.6</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
         <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="I57" t="n">
         <v>2.3</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>47</v>
       </c>
       <c r="G58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="I58" t="n">
         <v>4.7</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2505,10 +2505,10 @@
         <v>48</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="I59" t="n">
         <v>3.2</v>
@@ -2529,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>61</v>
       </c>
       <c r="G60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>343</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         <v>45</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I61" t="n">
         <v>2.7</v>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2610,10 +2610,10 @@
         <v>39</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="I62" t="n">
         <v>3.5</v>
@@ -2634,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2645,10 +2645,10 @@
         <v>48</v>
       </c>
       <c r="G63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H63" t="n">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="I63" t="n">
         <v>3.1</v>
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2680,10 +2680,10 @@
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="I64" t="n">
         <v>3.2</v>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="I65" t="n">
         <v>3.6</v>
@@ -2727,7 +2727,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>James Garner</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="I66" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,33 +2771,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H67" t="n">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,33 +2806,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,33 +2841,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F69" t="n">
         <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
-        <v>540</v>
+        <v>622</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2876,33 +2876,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2922,57 +2922,57 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
-        <v>335</v>
+        <v>630</v>
       </c>
       <c r="I71" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2992,22 +2992,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H73" t="n">
-        <v>480</v>
+        <v>587</v>
       </c>
       <c r="I73" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,33 +3016,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H74" t="n">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="I74" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,33 +3051,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H75" t="n">
-        <v>540</v>
+        <v>278</v>
       </c>
       <c r="I75" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,33 +3086,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F76" t="n">
         <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
-        <v>274</v>
+        <v>630</v>
       </c>
       <c r="I76" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,33 +3121,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H77" t="n">
-        <v>540</v>
+        <v>287</v>
       </c>
       <c r="I77" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H78" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I78" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,33 +3191,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H79" t="n">
-        <v>260</v>
+        <v>616</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3226,33 +3226,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H80" t="n">
-        <v>540</v>
+        <v>336</v>
       </c>
       <c r="I80" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3261,68 +3261,68 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H81" t="n">
-        <v>466</v>
+        <v>630</v>
       </c>
       <c r="I81" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H82" t="n">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="I82" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3331,33 +3331,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>450</v>
+        <v>582</v>
       </c>
       <c r="I83" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3366,33 +3366,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84" t="n">
-        <v>373</v>
+        <v>528</v>
       </c>
       <c r="I84" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="I85" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
-        <v>429</v>
+        <v>207</v>
       </c>
       <c r="I86" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87" t="n">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="I87" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H88" t="n">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="I88" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3552,22 +3552,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89" t="n">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="I89" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,33 +3576,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H90" t="n">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,33 +3611,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H91" t="n">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="I91" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3657,34 +3657,34 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H92" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I92" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3692,34 +3692,34 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H93" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I93" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H94" t="n">
-        <v>456</v>
+        <v>630</v>
       </c>
       <c r="I94" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3751,33 +3751,33 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H95" t="n">
-        <v>356</v>
+        <v>601</v>
       </c>
       <c r="I95" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3786,33 +3786,33 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H96" t="n">
-        <v>456</v>
+        <v>546</v>
       </c>
       <c r="I96" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,22 +3832,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H97" t="n">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="I97" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3856,33 +3856,33 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H98" t="n">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3902,22 +3902,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
-        <v>433</v>
+        <v>326</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,33 +3926,33 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G100" t="n">
+        <v>8</v>
+      </c>
+      <c r="H100" t="n">
+        <v>629</v>
+      </c>
+      <c r="I100" t="n">
         <v>7</v>
-      </c>
-      <c r="H100" t="n">
-        <v>395</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
-        <v>259</v>
+        <v>523</v>
       </c>
       <c r="I101" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3999,7 +3999,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4007,22 +4007,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H102" t="n">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="I102" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,80 +4031,80 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H103" t="n">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="I103" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H104" t="n">
-        <v>340</v>
+        <v>582</v>
       </c>
       <c r="I104" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4112,22 +4112,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H105" t="n">
-        <v>479</v>
+        <v>333</v>
       </c>
       <c r="I105" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4147,22 +4147,22 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H106" t="n">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="I106" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4171,33 +4171,33 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H107" t="n">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="I107" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4217,22 +4217,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H108" t="n">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="I108" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4241,33 +4241,33 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F109" t="n">
         <v>53</v>
       </c>
       <c r="G109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H109" t="n">
-        <v>319</v>
+        <v>630</v>
       </c>
       <c r="I109" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,22 +4287,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H110" t="n">
-        <v>487</v>
+        <v>259</v>
       </c>
       <c r="I110" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4311,33 +4311,33 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>526</v>
+        <v>409</v>
       </c>
       <c r="I111" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,22 +4357,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H112" t="n">
-        <v>417</v>
+        <v>571</v>
       </c>
       <c r="I112" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,103 +4381,103 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H113" t="n">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I113" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H114" t="n">
-        <v>337</v>
+        <v>480</v>
       </c>
       <c r="I114" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H115" t="n">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="I115" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4489,7 +4489,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H116" t="n">
-        <v>540</v>
+        <v>427</v>
       </c>
       <c r="I116" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,33 +4521,33 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H117" t="n">
-        <v>405</v>
+        <v>626</v>
       </c>
       <c r="I117" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4559,30 +4559,30 @@
         <v>19</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H118" t="n">
-        <v>478</v>
+        <v>630</v>
       </c>
       <c r="I118" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Emil Krafth</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4591,33 +4591,33 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H119" t="n">
-        <v>240</v>
+        <v>405</v>
       </c>
       <c r="I119" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H120" t="n">
-        <v>283</v>
+        <v>568</v>
       </c>
       <c r="I120" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Emil Krafth</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4661,33 +4661,33 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H121" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="I121" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4696,33 +4696,33 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H122" t="n">
-        <v>540</v>
+        <v>302</v>
       </c>
       <c r="I122" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4731,33 +4731,33 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H123" t="n">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="I123" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H124" t="n">
-        <v>208</v>
+        <v>630</v>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,80 +4801,80 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H125" t="n">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H126" t="n">
-        <v>399</v>
+        <v>278</v>
       </c>
       <c r="I126" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4882,22 +4882,22 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H127" t="n">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="I127" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H128" t="n">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="I128" t="n">
         <v>3.8</v>
@@ -4932,7 +4932,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4941,33 +4941,33 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H129" t="n">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="I129" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H130" t="n">
-        <v>356</v>
+        <v>507</v>
       </c>
       <c r="I130" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5011,33 +5011,33 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H131" t="n">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="I131" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ibrahim Sangaré</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5057,22 +5057,22 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H132" t="n">
-        <v>212</v>
+        <v>446</v>
       </c>
       <c r="I132" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5081,45 +5081,45 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F133" t="n">
         <v>45</v>
       </c>
       <c r="G133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H133" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I133" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Ibrahim Sangaré</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5127,57 +5127,57 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H134" t="n">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="I134" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H135" t="n">
-        <v>304</v>
+        <v>630</v>
       </c>
       <c r="I135" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5197,22 +5197,22 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H136" t="n">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="I136" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5232,22 +5232,22 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H137" t="n">
-        <v>479</v>
+        <v>382</v>
       </c>
       <c r="I137" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5256,33 +5256,33 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H138" t="n">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="I138" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5291,33 +5291,33 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H139" t="n">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="I139" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5326,33 +5326,33 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H140" t="n">
-        <v>200</v>
+        <v>627</v>
       </c>
       <c r="I140" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5361,33 +5361,33 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H141" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="I141" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,33 +5396,33 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H142" t="n">
-        <v>540</v>
+        <v>211</v>
       </c>
       <c r="I142" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,103 +5431,103 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H143" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H144" t="n">
-        <v>358</v>
+        <v>630</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Micky van de Ven</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F145" t="n">
         <v>45</v>
       </c>
       <c r="G145" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H145" t="n">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="I145" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5536,33 +5536,33 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G146" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H146" t="n">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="I146" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Vladimír Coufal</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5571,33 +5571,33 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H147" t="n">
-        <v>198</v>
+        <v>585</v>
       </c>
       <c r="I147" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5606,33 +5606,33 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H148" t="n">
-        <v>421</v>
+        <v>607</v>
       </c>
       <c r="I148" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>Vladimír Coufal</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5641,33 +5641,33 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H149" t="n">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="I149" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5676,33 +5676,33 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H150" t="n">
-        <v>367</v>
+        <v>503</v>
       </c>
       <c r="I150" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,22 +5722,22 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H151" t="n">
-        <v>222</v>
+        <v>526</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5746,33 +5746,33 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G152" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H152" t="n">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="I152" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5792,34 +5792,34 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G153" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H153" t="n">
-        <v>492</v>
+        <v>242</v>
       </c>
       <c r="I153" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5827,34 +5827,34 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H154" t="n">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="I154" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,22 +5862,22 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G155" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H155" t="n">
-        <v>219</v>
+        <v>577</v>
       </c>
       <c r="I155" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5886,33 +5886,33 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H156" t="n">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="I156" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>Hwang Hee-chan</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5921,10 +5921,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G157" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H157" t="n">
-        <v>539</v>
+        <v>252</v>
       </c>
       <c r="I157" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>José Malheiro de Sá</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5956,33 +5956,33 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H158" t="n">
-        <v>180</v>
+        <v>569</v>
       </c>
       <c r="I158" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Toti António Gomes</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5991,33 +5991,33 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H159" t="n">
-        <v>360</v>
+        <v>629</v>
       </c>
       <c r="I159" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6026,33 +6026,33 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H160" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="I160" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Matt Doherty</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,61 +6061,96 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F161" t="n">
         <v>45</v>
       </c>
       <c r="G161" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H161" t="n">
-        <v>208</v>
+        <v>550</v>
       </c>
       <c r="I161" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>Matt Doherty</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>45</v>
+      </c>
+      <c r="G162" t="n">
+        <v>8</v>
+      </c>
+      <c r="H162" t="n">
+        <v>208</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>Jean-Ricner Bellegarde</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Wolves</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>20</v>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>45571</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
+      <c r="C163" t="n">
+        <v>21</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
         <v>40</v>
       </c>
-      <c r="G162" t="n">
-        <v>7</v>
-      </c>
-      <c r="H162" t="n">
-        <v>389</v>
-      </c>
-      <c r="I162" t="n">
+      <c r="G163" t="n">
+        <v>8</v>
+      </c>
+      <c r="H163" t="n">
+        <v>402</v>
+      </c>
+      <c r="I163" t="n">
         <v>2</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
         <v>253</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>617</v>
+        <v>707</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>405</v>
+        <v>495</v>
       </c>
       <c r="I9" t="n">
         <v>4.9</v>
@@ -779,7 +779,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>518</v>
+        <v>608</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
         <v>551</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I19" t="n">
         <v>2.9</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="I20" t="n">
         <v>2.4</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>623</v>
+        <v>713</v>
       </c>
       <c r="I21" t="n">
         <v>2.3</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" t="n">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="I23" t="n">
         <v>1.9</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="I25" t="n">
         <v>3.3</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="I26" t="n">
         <v>2.9</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I28" t="n">
         <v>2.3</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" t="n">
-        <v>577</v>
+        <v>667</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
@@ -1479,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
-        <v>547</v>
+        <v>637</v>
       </c>
       <c r="I31" t="n">
         <v>2.4</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
-        <v>462</v>
+        <v>552</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>39</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="I34" t="n">
         <v>2.4</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>49</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H35" t="n">
         <v>238</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>51</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H36" t="n">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="I36" t="n">
         <v>2.4</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>47</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H37" t="n">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="I37" t="n">
         <v>5.1</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="I38" t="n">
         <v>2.4</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H39" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I39" t="n">
         <v>2.7</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>40</v>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H40" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I40" t="n">
         <v>2.2</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>45</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>49</v>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="I42" t="n">
         <v>3.9</v>
@@ -1934,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H43" t="n">
         <v>280</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="I44" t="n">
         <v>3.2</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="I45" t="n">
         <v>2.7</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>44</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="I46" t="n">
         <v>1.3</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>615</v>
+        <v>705</v>
       </c>
       <c r="I47" t="n">
         <v>2.4</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>52</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I48" t="n">
         <v>2.8</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
         <v>590</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>52</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H50" t="n">
-        <v>433</v>
+        <v>523</v>
       </c>
       <c r="I50" t="n">
         <v>2.7</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>44</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>39</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H52" t="n">
-        <v>521</v>
+        <v>611</v>
       </c>
       <c r="I52" t="n">
         <v>4.1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         <v>42</v>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H53" t="n">
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="I53" t="n">
         <v>7.2</v>
@@ -2319,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H54" t="n">
         <v>226</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
         <v>47</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I55" t="n">
         <v>5</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>45</v>
       </c>
       <c r="G56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I56" t="n">
         <v>2.6</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
         <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="I57" t="n">
         <v>2.3</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>47</v>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="I58" t="n">
         <v>4.7</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2505,10 +2505,10 @@
         <v>48</v>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="I59" t="n">
         <v>3.2</v>
@@ -2529,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>61</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
         <v>343</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         <v>45</v>
       </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I61" t="n">
         <v>2.7</v>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2610,10 +2610,10 @@
         <v>39</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H62" t="n">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="I62" t="n">
         <v>3.5</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>48</v>
       </c>
       <c r="G63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H63" t="n">
         <v>534</v>
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2680,10 +2680,10 @@
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H64" t="n">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="I64" t="n">
         <v>3.2</v>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H65" t="n">
-        <v>395</v>
+        <v>485</v>
       </c>
       <c r="I65" t="n">
         <v>3.6</v>
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>55</v>
       </c>
       <c r="G66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n">
         <v>251</v>
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2785,10 +2785,10 @@
         <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H67" t="n">
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="I67" t="n">
         <v>2.9</v>
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H68" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2855,10 +2855,10 @@
         <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H69" t="n">
-        <v>622</v>
+        <v>712</v>
       </c>
       <c r="I69" t="n">
         <v>3.5</v>
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         <v>43</v>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H71" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I71" t="n">
         <v>3.1</v>
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H72" t="n">
-        <v>425</v>
+        <v>515</v>
       </c>
       <c r="I72" t="n">
         <v>2.5</v>
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2995,10 +2995,10 @@
         <v>44</v>
       </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H73" t="n">
-        <v>587</v>
+        <v>677</v>
       </c>
       <c r="I73" t="n">
         <v>3.2</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3030,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H74" t="n">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="I74" t="n">
         <v>3.4</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3065,10 +3065,10 @@
         <v>45</v>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="I75" t="n">
         <v>2.4</v>
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3100,10 +3100,10 @@
         <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H76" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I76" t="n">
         <v>3.5</v>
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H77" t="n">
         <v>287</v>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3170,10 +3170,10 @@
         <v>49</v>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H78" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I78" t="n">
         <v>2.8</v>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3205,10 +3205,10 @@
         <v>52</v>
       </c>
       <c r="G79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H79" t="n">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="I79" t="n">
         <v>1.9</v>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3240,10 +3240,10 @@
         <v>44</v>
       </c>
       <c r="G80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H80" t="n">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         <v>48</v>
       </c>
       <c r="G81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H81" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I81" t="n">
         <v>2.3</v>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H82" t="n">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="I82" t="n">
         <v>2.1</v>
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3345,10 +3345,10 @@
         <v>39</v>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H83" t="n">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I83" t="n">
         <v>4.4</v>
@@ -3369,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>48</v>
       </c>
       <c r="G84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H84" t="n">
         <v>528</v>
@@ -3404,7 +3404,7 @@
         <v>35</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3415,10 +3415,10 @@
         <v>43</v>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H85" t="n">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="I85" t="n">
         <v>5.2</v>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
         <v>49</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -3462,7 +3462,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H87" t="n">
-        <v>569</v>
+        <v>229</v>
       </c>
       <c r="I87" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H88" t="n">
-        <v>446</v>
+        <v>659</v>
       </c>
       <c r="I88" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3552,22 +3552,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H89" t="n">
-        <v>554</v>
+        <v>470</v>
       </c>
       <c r="I89" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,24 +3576,24 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H90" t="n">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="I90" t="n">
         <v>3.3</v>
@@ -3602,7 +3602,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,33 +3611,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H91" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I91" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3657,22 +3657,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H92" t="n">
-        <v>537</v>
+        <v>694</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,33 +3681,33 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H93" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I93" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,68 +3716,68 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H94" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I94" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F95" t="n">
         <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H95" t="n">
-        <v>601</v>
+        <v>720</v>
       </c>
       <c r="I95" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3786,33 +3786,33 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H96" t="n">
-        <v>546</v>
+        <v>601</v>
       </c>
       <c r="I96" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,22 +3832,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H97" t="n">
-        <v>356</v>
+        <v>636</v>
       </c>
       <c r="I97" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3856,33 +3856,33 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F98" t="n">
         <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H98" t="n">
-        <v>546</v>
+        <v>356</v>
       </c>
       <c r="I98" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,33 +3891,33 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H99" t="n">
-        <v>326</v>
+        <v>636</v>
       </c>
       <c r="I99" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,33 +3926,33 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H100" t="n">
-        <v>629</v>
+        <v>343</v>
       </c>
       <c r="I100" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H101" t="n">
-        <v>523</v>
+        <v>719</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,33 +3996,33 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H102" t="n">
-        <v>485</v>
+        <v>608</v>
       </c>
       <c r="I102" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,10 +4031,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H103" t="n">
-        <v>287</v>
+        <v>575</v>
       </c>
       <c r="I103" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>John Stones</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4077,22 +4077,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H104" t="n">
-        <v>582</v>
+        <v>237</v>
       </c>
       <c r="I104" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,80 +4101,80 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H105" t="n">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="I105" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H106" t="n">
-        <v>340</v>
+        <v>672</v>
       </c>
       <c r="I106" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>21</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4182,22 +4182,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H107" t="n">
-        <v>569</v>
+        <v>398</v>
       </c>
       <c r="I107" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4217,22 +4217,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H108" t="n">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="I108" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4241,33 +4241,33 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="I109" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,22 +4287,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H110" t="n">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="I110" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4311,33 +4311,33 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F111" t="n">
         <v>53</v>
       </c>
       <c r="G111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H111" t="n">
-        <v>409</v>
+        <v>720</v>
       </c>
       <c r="I111" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,22 +4357,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H112" t="n">
-        <v>571</v>
+        <v>349</v>
       </c>
       <c r="I112" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,33 +4381,33 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H113" t="n">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="I113" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H114" t="n">
-        <v>480</v>
+        <v>571</v>
       </c>
       <c r="I114" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,103 +4451,103 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H115" t="n">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="I115" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H116" t="n">
-        <v>427</v>
+        <v>570</v>
       </c>
       <c r="I116" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H117" t="n">
-        <v>626</v>
+        <v>720</v>
       </c>
       <c r="I117" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4570,19 +4570,19 @@
         <v>40</v>
       </c>
       <c r="G118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H118" t="n">
-        <v>630</v>
+        <v>517</v>
       </c>
       <c r="I118" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4591,33 +4591,33 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G119" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H119" t="n">
-        <v>405</v>
+        <v>710</v>
       </c>
       <c r="I119" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4626,33 +4626,33 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F120" t="n">
         <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H120" t="n">
-        <v>568</v>
+        <v>720</v>
       </c>
       <c r="I120" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Emil Krafth</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4661,33 +4661,33 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H121" t="n">
-        <v>240</v>
+        <v>495</v>
       </c>
       <c r="I121" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4710,19 +4710,19 @@
         <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H122" t="n">
-        <v>302</v>
+        <v>658</v>
       </c>
       <c r="I122" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Emil Krafth</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4731,33 +4731,33 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F123" t="n">
         <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H123" t="n">
-        <v>408</v>
+        <v>240</v>
       </c>
       <c r="I123" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F124" t="n">
         <v>45</v>
       </c>
       <c r="G124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H124" t="n">
-        <v>630</v>
+        <v>307</v>
       </c>
       <c r="I124" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,33 +4801,33 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H125" t="n">
-        <v>387</v>
+        <v>472</v>
       </c>
       <c r="I125" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,33 +4836,33 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H126" t="n">
-        <v>278</v>
+        <v>720</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,80 +4871,80 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H127" t="n">
-        <v>384</v>
+        <v>477</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H128" t="n">
-        <v>480</v>
+        <v>278</v>
       </c>
       <c r="I128" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4952,22 +4952,22 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H129" t="n">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="I129" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G130" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H130" t="n">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="I130" t="n">
         <v>3.8</v>
@@ -5002,7 +5002,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5011,33 +5011,33 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H131" t="n">
-        <v>557</v>
+        <v>422</v>
       </c>
       <c r="I131" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5057,22 +5057,22 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H132" t="n">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="I132" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5081,33 +5081,33 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G133" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H133" t="n">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="I133" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ibrahim Sangaré</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5130,19 +5130,19 @@
         <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H134" t="n">
-        <v>212</v>
+        <v>536</v>
       </c>
       <c r="I134" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5151,68 +5151,68 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F135" t="n">
         <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H135" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I135" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F136" t="n">
         <v>40</v>
       </c>
       <c r="G136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H136" t="n">
-        <v>513</v>
+        <v>720</v>
       </c>
       <c r="I136" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5232,22 +5232,22 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>382</v>
+        <v>603</v>
       </c>
       <c r="I137" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,22 +5267,22 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H138" t="n">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="I138" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,22 +5302,22 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G139" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H139" t="n">
-        <v>563</v>
+        <v>617</v>
       </c>
       <c r="I139" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5326,33 +5326,33 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F140" t="n">
         <v>49</v>
       </c>
       <c r="G140" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H140" t="n">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="I140" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5364,7 +5364,7 @@
         <v>30</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5372,22 +5372,22 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H141" t="n">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="I141" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,33 +5396,33 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F142" t="n">
         <v>53</v>
       </c>
       <c r="G142" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H142" t="n">
-        <v>211</v>
+        <v>720</v>
       </c>
       <c r="I142" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5442,22 +5442,22 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G143" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H143" t="n">
-        <v>450</v>
+        <v>256</v>
       </c>
       <c r="I143" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5466,33 +5466,33 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H144" t="n">
-        <v>630</v>
+        <v>519</v>
       </c>
       <c r="I144" t="n">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5504,56 +5504,56 @@
         <v>26</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G145" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H145" t="n">
-        <v>530</v>
+        <v>720</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Micky van de Ven</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H146" t="n">
-        <v>427</v>
+        <v>620</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -5562,7 +5562,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5571,33 +5571,33 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F147" t="n">
         <v>45</v>
       </c>
       <c r="G147" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H147" t="n">
-        <v>585</v>
+        <v>487</v>
       </c>
       <c r="I147" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5606,33 +5606,33 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F148" t="n">
         <v>44</v>
       </c>
       <c r="G148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H148" t="n">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="I148" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Vladimír Coufal</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5641,27 +5641,27 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H149" t="n">
-        <v>198</v>
+        <v>697</v>
       </c>
       <c r="I149" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="150">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H150" t="n">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="I150" t="n">
         <v>2.3</v>
@@ -5714,7 +5714,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H151" t="n">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="I151" t="n">
         <v>3.2</v>
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H152" t="n">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="I152" t="n">
         <v>3.1</v>
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5795,10 +5795,10 @@
         <v>53</v>
       </c>
       <c r="G153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H153" t="n">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -5819,7 +5819,7 @@
         <v>15</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H154" t="n">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="I154" t="n">
         <v>2.1</v>
@@ -5854,7 +5854,7 @@
         <v>23</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H155" t="n">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="I155" t="n">
         <v>4.2</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H156" t="n">
-        <v>564</v>
+        <v>654</v>
       </c>
       <c r="I156" t="n">
         <v>2.3</v>
@@ -5924,7 +5924,7 @@
         <v>7</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H157" t="n">
         <v>252</v>
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H158" t="n">
-        <v>569</v>
+        <v>658</v>
       </c>
       <c r="I158" t="n">
         <v>2.2</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6002,13 +6002,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G159" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H159" t="n">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="I159" t="n">
         <v>2.7</v>
@@ -6017,7 +6017,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Toti António Gomes</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6026,33 +6026,33 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H160" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="I160" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,33 +6061,33 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H161" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="I161" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Matt Doherty</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6096,27 +6096,27 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F162" t="n">
         <v>45</v>
       </c>
       <c r="G162" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H162" t="n">
-        <v>208</v>
+        <v>616</v>
       </c>
       <c r="I162" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="163">
@@ -6134,7 +6134,7 @@
         <v>21</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6142,13 +6142,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G163" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H163" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>720</v>
+        <v>773</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>464</v>
+        <v>548</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>253</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>659</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>407</v>
+        <v>497</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="I9" t="n">
         <v>4.9</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>582</v>
+        <v>672</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>348</v>
@@ -919,7 +919,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -954,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>551</v>
+        <v>641</v>
       </c>
       <c r="I15" t="n">
         <v>2.6</v>
@@ -989,7 +989,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -1094,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I19" t="n">
         <v>2.9</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="I20" t="n">
         <v>2.4</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>713</v>
+        <v>803</v>
       </c>
       <c r="I21" t="n">
         <v>2.3</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>322</v>
+        <v>412</v>
       </c>
       <c r="I23" t="n">
         <v>1.9</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>526</v>
+        <v>616</v>
       </c>
       <c r="I25" t="n">
         <v>3.3</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="I26" t="n">
         <v>2.9</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I28" t="n">
         <v>2.3</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
@@ -1479,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>258</v>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>637</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
-        <v>552</v>
+        <v>628</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>39</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="I34" t="n">
         <v>2.4</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>49</v>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="I35" t="n">
         <v>3.1</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>51</v>
       </c>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="I36" t="n">
         <v>2.4</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>47</v>
       </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="I37" t="n">
         <v>5.1</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="I38" t="n">
         <v>2.4</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I39" t="n">
         <v>2.7</v>
@@ -1829,7 +1829,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>40</v>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="I40" t="n">
         <v>2.2</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>45</v>
       </c>
       <c r="G41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>49</v>
       </c>
       <c r="G42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="I42" t="n">
         <v>3.9</v>
@@ -1934,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
         <v>280</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I44" t="n">
         <v>3.2</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
-        <v>676</v>
+        <v>748</v>
       </c>
       <c r="I45" t="n">
         <v>2.7</v>
@@ -2027,7 +2027,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Igor Julio dos Santos de Paulo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,45 +2036,45 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>491</v>
+        <v>294</v>
       </c>
       <c r="I46" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,22 +2082,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>705</v>
+        <v>570</v>
       </c>
       <c r="I47" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2106,33 +2106,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>720</v>
+        <v>795</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,19 +2155,19 @@
         <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>590</v>
+        <v>810</v>
       </c>
       <c r="I49" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,19 +2190,19 @@
         <v>52</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>523</v>
+        <v>602</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,33 +2246,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="I52" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2281,62 +2281,62 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="I53" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nathaniel Clyne</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H54" t="n">
-        <v>226</v>
+        <v>775</v>
       </c>
       <c r="I54" t="n">
-        <v>2.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
         <v>31</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
         <v>47</v>
       </c>
       <c r="G55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I55" t="n">
         <v>5</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>45</v>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I56" t="n">
         <v>2.6</v>
@@ -2424,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
         <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="I57" t="n">
         <v>2.3</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>47</v>
       </c>
       <c r="G58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H58" t="n">
-        <v>482</v>
+        <v>572</v>
       </c>
       <c r="I58" t="n">
         <v>4.7</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2505,10 +2505,10 @@
         <v>48</v>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H59" t="n">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="I59" t="n">
         <v>3.2</v>
@@ -2529,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>61</v>
       </c>
       <c r="G60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H60" t="n">
         <v>343</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         <v>45</v>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I61" t="n">
         <v>2.7</v>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2610,10 +2610,10 @@
         <v>39</v>
       </c>
       <c r="G62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H62" t="n">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="I62" t="n">
         <v>3.5</v>
@@ -2634,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2645,10 +2645,10 @@
         <v>48</v>
       </c>
       <c r="G63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>534</v>
+        <v>621</v>
       </c>
       <c r="I63" t="n">
         <v>3.1</v>
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2680,10 +2680,10 @@
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="I64" t="n">
         <v>3.2</v>
@@ -2704,7 +2704,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="I65" t="n">
         <v>3.6</v>
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>55</v>
       </c>
       <c r="G66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
         <v>251</v>
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2785,10 +2785,10 @@
         <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="I67" t="n">
         <v>2.9</v>
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2855,10 +2855,10 @@
         <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H69" t="n">
-        <v>712</v>
+        <v>797</v>
       </c>
       <c r="I69" t="n">
         <v>3.5</v>
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H70" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         <v>43</v>
       </c>
       <c r="G71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H71" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I71" t="n">
         <v>3.1</v>
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H72" t="n">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="I72" t="n">
         <v>2.5</v>
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2995,10 +2995,10 @@
         <v>44</v>
       </c>
       <c r="G73" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H73" t="n">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="I73" t="n">
         <v>3.2</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3030,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H74" t="n">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="I74" t="n">
         <v>3.4</v>
@@ -3054,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3065,10 +3065,10 @@
         <v>45</v>
       </c>
       <c r="G75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="I75" t="n">
         <v>2.4</v>
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3100,10 +3100,10 @@
         <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I76" t="n">
         <v>3.5</v>
@@ -3124,7 +3124,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3135,10 +3135,10 @@
         <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H77" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I77" t="n">
         <v>3.7</v>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3170,10 +3170,10 @@
         <v>49</v>
       </c>
       <c r="G78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H78" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I78" t="n">
         <v>2.8</v>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3205,10 +3205,10 @@
         <v>52</v>
       </c>
       <c r="G79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H79" t="n">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="I79" t="n">
         <v>1.9</v>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3240,10 +3240,10 @@
         <v>44</v>
       </c>
       <c r="G80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>426</v>
+        <v>516</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         <v>48</v>
       </c>
       <c r="G81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H81" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I81" t="n">
         <v>2.3</v>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H82" t="n">
-        <v>623</v>
+        <v>690</v>
       </c>
       <c r="I82" t="n">
         <v>2.1</v>
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3345,10 +3345,10 @@
         <v>39</v>
       </c>
       <c r="G83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H83" t="n">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="I83" t="n">
         <v>4.4</v>
@@ -3369,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>48</v>
       </c>
       <c r="G84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H84" t="n">
         <v>528</v>
@@ -3392,7 +3392,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H85" t="n">
-        <v>492</v>
+        <v>283</v>
       </c>
       <c r="I85" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>272</v>
+        <v>492</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3474,30 +3474,30 @@
         <v>21</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="I87" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>659</v>
+        <v>319</v>
       </c>
       <c r="I88" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Caoimhin Kelleher</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,33 +3541,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="I89" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,33 +3576,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H90" t="n">
-        <v>563</v>
+        <v>749</v>
       </c>
       <c r="I90" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,33 +3611,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H91" t="n">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="I91" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3657,22 +3657,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>694</v>
+        <v>625</v>
       </c>
       <c r="I92" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,33 +3681,33 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H93" t="n">
-        <v>627</v>
+        <v>665</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,33 +3716,33 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H94" t="n">
-        <v>720</v>
+        <v>784</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3762,34 +3762,34 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H95" t="n">
-        <v>720</v>
+        <v>654</v>
       </c>
       <c r="I95" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3797,34 +3797,34 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H96" t="n">
-        <v>601</v>
+        <v>810</v>
       </c>
       <c r="I96" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,22 +3832,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H97" t="n">
-        <v>636</v>
+        <v>810</v>
       </c>
       <c r="I97" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3856,33 +3856,33 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H98" t="n">
-        <v>356</v>
+        <v>691</v>
       </c>
       <c r="I98" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,33 +3891,33 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H99" t="n">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="I99" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3937,22 +3937,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H100" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="I100" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H101" t="n">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="I101" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4007,22 +4007,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H102" t="n">
-        <v>608</v>
+        <v>280</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,33 +4031,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H103" t="n">
-        <v>575</v>
+        <v>343</v>
       </c>
       <c r="I103" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>John Stones</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,33 +4066,33 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H104" t="n">
-        <v>237</v>
+        <v>809</v>
       </c>
       <c r="I104" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,33 +4101,33 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H105" t="n">
-        <v>287</v>
+        <v>698</v>
       </c>
       <c r="I105" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4147,22 +4147,22 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H106" t="n">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="I106" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4171,80 +4171,80 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H107" t="n">
-        <v>398</v>
+        <v>287</v>
       </c>
       <c r="I107" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H108" t="n">
-        <v>340</v>
+        <v>762</v>
       </c>
       <c r="I108" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4252,22 +4252,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H109" t="n">
-        <v>659</v>
+        <v>398</v>
       </c>
       <c r="I109" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4279,7 +4279,7 @@
         <v>21</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,22 +4287,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H110" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I110" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4311,33 +4311,33 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H111" t="n">
-        <v>720</v>
+        <v>749</v>
       </c>
       <c r="I111" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,22 +4357,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H112" t="n">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="I112" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,33 +4381,33 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H113" t="n">
-        <v>499</v>
+        <v>810</v>
       </c>
       <c r="I113" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4419,7 +4419,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H114" t="n">
-        <v>571</v>
+        <v>427</v>
       </c>
       <c r="I114" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,33 +4451,33 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H115" t="n">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="I115" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H116" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I116" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,138 +4521,138 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H117" t="n">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="I117" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="I118" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H119" t="n">
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="I119" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F120" t="n">
         <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H120" t="n">
-        <v>720</v>
+        <v>257</v>
       </c>
       <c r="I120" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4661,33 +4661,33 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F121" t="n">
         <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H121" t="n">
-        <v>495</v>
+        <v>605</v>
       </c>
       <c r="I121" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G122" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H122" t="n">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="I122" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Emil Krafth</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4745,19 +4745,19 @@
         <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H123" t="n">
-        <v>240</v>
+        <v>810</v>
       </c>
       <c r="I123" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G124" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H124" t="n">
-        <v>307</v>
+        <v>585</v>
       </c>
       <c r="I124" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4815,19 +4815,19 @@
         <v>45</v>
       </c>
       <c r="G125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H125" t="n">
-        <v>472</v>
+        <v>746</v>
       </c>
       <c r="I125" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,33 +4836,33 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H126" t="n">
-        <v>720</v>
+        <v>329</v>
       </c>
       <c r="I126" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,33 +4871,33 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F127" t="n">
         <v>40</v>
       </c>
       <c r="G127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H127" t="n">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="I127" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4906,33 +4906,33 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H128" t="n">
-        <v>278</v>
+        <v>810</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4941,80 +4941,80 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G129" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H129" t="n">
-        <v>409</v>
+        <v>567</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H130" t="n">
-        <v>563</v>
+        <v>278</v>
       </c>
       <c r="I130" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,22 +5022,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H131" t="n">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="I131" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5057,13 +5057,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H132" t="n">
-        <v>507</v>
+        <v>638</v>
       </c>
       <c r="I132" t="n">
         <v>3.8</v>
@@ -5072,7 +5072,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5081,33 +5081,33 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H133" t="n">
-        <v>640</v>
+        <v>497</v>
       </c>
       <c r="I133" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5130,19 +5130,19 @@
         <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H134" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="I134" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5151,33 +5151,33 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H135" t="n">
         <v>720</v>
       </c>
       <c r="I135" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5186,103 +5186,103 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H136" t="n">
-        <v>720</v>
+        <v>626</v>
       </c>
       <c r="I136" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F137" t="n">
         <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H137" t="n">
-        <v>603</v>
+        <v>810</v>
       </c>
       <c r="I137" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F138" t="n">
         <v>45</v>
       </c>
       <c r="G138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H138" t="n">
-        <v>391</v>
+        <v>810</v>
       </c>
       <c r="I138" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,22 +5302,22 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G139" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H139" t="n">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="I139" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5326,33 +5326,33 @@
         </is>
       </c>
       <c r="C140" t="n">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
         <v>45</v>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>45592</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>49</v>
-      </c>
       <c r="G140" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H140" t="n">
-        <v>608</v>
+        <v>394</v>
       </c>
       <c r="I140" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5361,33 +5361,33 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H141" t="n">
-        <v>717</v>
+        <v>678</v>
       </c>
       <c r="I141" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,33 +5396,33 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G142" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H142" t="n">
-        <v>720</v>
+        <v>669</v>
       </c>
       <c r="I142" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,33 +5431,33 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H143" t="n">
-        <v>256</v>
+        <v>807</v>
       </c>
       <c r="I143" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5466,33 +5466,33 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H144" t="n">
-        <v>519</v>
+        <v>810</v>
       </c>
       <c r="I144" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5501,33 +5501,33 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H145" t="n">
-        <v>720</v>
+        <v>284</v>
       </c>
       <c r="I145" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5536,103 +5536,103 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H146" t="n">
-        <v>620</v>
+        <v>519</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H147" t="n">
-        <v>487</v>
+        <v>810</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Micky van de Ven</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H148" t="n">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="I148" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5641,33 +5641,33 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G149" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H149" t="n">
-        <v>697</v>
+        <v>557</v>
       </c>
       <c r="I149" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5676,33 +5676,33 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H150" t="n">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="I150" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,22 +5722,22 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G151" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H151" t="n">
-        <v>586</v>
+        <v>787</v>
       </c>
       <c r="I151" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5746,33 +5746,33 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H152" t="n">
-        <v>517</v>
+        <v>683</v>
       </c>
       <c r="I152" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5792,22 +5792,22 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H153" t="n">
-        <v>271</v>
+        <v>631</v>
       </c>
       <c r="I153" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5816,33 +5816,33 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G154" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H154" t="n">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="I154" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,34 +5862,34 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G155" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H155" t="n">
-        <v>662</v>
+        <v>361</v>
       </c>
       <c r="I155" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,34 +5897,34 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H156" t="n">
-        <v>654</v>
+        <v>560</v>
       </c>
       <c r="I156" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H157" t="n">
-        <v>252</v>
+        <v>662</v>
       </c>
       <c r="I157" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5956,33 +5956,33 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H158" t="n">
-        <v>658</v>
+        <v>744</v>
       </c>
       <c r="I158" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>Hwang Hee-chan</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6002,22 +6002,22 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H159" t="n">
-        <v>719</v>
+        <v>252</v>
       </c>
       <c r="I159" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>José Malheiro de Sá</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6026,33 +6026,33 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H160" t="n">
-        <v>270</v>
+        <v>748</v>
       </c>
       <c r="I160" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Toti António Gomes</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,33 +6061,33 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H161" t="n">
-        <v>540</v>
+        <v>764</v>
       </c>
       <c r="I161" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6096,33 +6096,33 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H162" t="n">
-        <v>616</v>
+        <v>360</v>
       </c>
       <c r="I162" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jean-Ricner Bellegarde</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6131,26 +6131,131 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F163" t="n">
         <v>45</v>
       </c>
       <c r="G163" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H163" t="n">
+        <v>585</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Matheus Santos Carneiro Da Cunha</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>47</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>49</v>
+      </c>
+      <c r="G164" t="n">
+        <v>10</v>
+      </c>
+      <c r="H164" t="n">
+        <v>706</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Santiago Bueno</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>45</v>
+      </c>
+      <c r="G165" t="n">
+        <v>10</v>
+      </c>
+      <c r="H165" t="n">
+        <v>264</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jean-Ricner Bellegarde</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>22</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>40</v>
+      </c>
+      <c r="G166" t="n">
+        <v>10</v>
+      </c>
+      <c r="H166" t="n">
         <v>403</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I166" t="n">
         <v>2</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -592,7 +592,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Thomas Partey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,22 +612,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>253</v>
+        <v>882</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thomas Partey</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,33 +636,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Leandro Trossard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -671,33 +671,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>659</v>
+        <v>567</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leandro Trossard</t>
+          <t>Benjamin White</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -706,33 +706,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>497</v>
+        <v>604</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Benjamin White</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -741,33 +741,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>585</v>
+        <v>900</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -776,45 +776,45 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>810</v>
+        <v>762</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>672</v>
+        <v>436</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>Diego Carlos Santos Silva</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -846,33 +846,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diego Carlos Santos Silva</t>
+          <t>Lucas Digne</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,22 +892,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>348</v>
+        <v>768</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lucas Digne</t>
+          <t>Ezri Konsa Ngoyo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>678</v>
+        <v>731</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ezri Konsa Ngoyo</t>
+          <t>Emiliano Martínez Romero</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>641</v>
+        <v>900</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Emiliano Martínez Romero</t>
+          <t>John McGinn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -986,24 +986,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>810</v>
+        <v>506</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -1012,7 +1012,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>John McGinn</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1021,33 +1021,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>426</v>
+        <v>776</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>Pau Torres</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1056,68 +1056,68 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>686</v>
+        <v>900</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pau Torres</t>
+          <t>Ryan Christie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="n">
-        <v>810</v>
+        <v>625</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ryan Christie</t>
+          <t>Lewis Cook</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>560</v>
+        <v>893</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lewis Cook</t>
+          <t>Justin Kluivert</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>803</v>
+        <v>547</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Justin Kluivert</t>
+          <t>Dango Ouattara</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" t="n">
-        <v>470</v>
+        <v>412</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dango Ouattara</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="n">
-        <v>412</v>
+        <v>877</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1266,33 +1266,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
-        <v>787</v>
+        <v>706</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Adam Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,22 +1312,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
-        <v>616</v>
+        <v>521</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Adam Smith</t>
+          <t>Marcus Tavernier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1336,33 +1336,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" t="n">
-        <v>431</v>
+        <v>778</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Marcus Tavernier</t>
+          <t>Mark Travers</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1371,27 +1371,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>689</v>
+        <v>270</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="28">
@@ -1409,7 +1409,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I28" t="n">
         <v>2.3</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
-        <v>747</v>
+        <v>837</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
@@ -1467,42 +1467,42 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alex Scott</t>
+          <t>Kristoffer Ajer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
-        <v>258</v>
+        <v>637</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kristoffer Ajer</t>
+          <t>Mikkel Damsgaard</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1511,33 +1511,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31" t="n">
-        <v>637</v>
+        <v>699</v>
       </c>
       <c r="I31" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mikkel Damsgaard</t>
+          <t>Mark Flekken</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1546,33 +1546,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>628</v>
+        <v>900</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mark Flekken</t>
+          <t>Vitaly Janelt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1581,33 +1581,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" t="n">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vitaly Janelt</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="I34" t="n">
         <v>2.4</v>
@@ -1642,7 +1642,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mathias Jensen</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,22 +1662,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" t="n">
-        <v>250</v>
+        <v>895</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Christian Nørgaard</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="I36" t="n">
         <v>2.4</v>
@@ -1712,7 +1712,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Ethan Pinnock</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1721,33 +1721,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37" t="n">
-        <v>809</v>
+        <v>900</v>
       </c>
       <c r="I37" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Christian Nørgaard</t>
+          <t>Mads Roerslev Rasmussen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,33 +1756,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H38" t="n">
-        <v>603</v>
+        <v>444</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ethan Pinnock</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1791,33 +1791,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>810</v>
+        <v>475</v>
       </c>
       <c r="I39" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mads Roerslev Rasmussen</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,103 +1826,103 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H40" t="n">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="I40" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41" t="n">
-        <v>457</v>
+        <v>280</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42" t="n">
-        <v>404</v>
+        <v>720</v>
       </c>
       <c r="I42" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,22 +1942,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43" t="n">
-        <v>280</v>
+        <v>838</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bart Verbruggen</t>
+          <t>Igor Julio dos Santos de Paulo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,33 +1966,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H44" t="n">
-        <v>630</v>
+        <v>384</v>
       </c>
       <c r="I44" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,103 +2001,103 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H45" t="n">
-        <v>748</v>
+        <v>570</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Igor Julio dos Santos de Paulo</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>45</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H46" t="n">
-        <v>294</v>
+        <v>885</v>
       </c>
       <c r="I46" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47" t="n">
-        <v>570</v>
+        <v>900</v>
       </c>
       <c r="I47" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2106,33 +2106,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>795</v>
+        <v>647</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,19 +2155,19 @@
         <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>810</v>
+        <v>645</v>
       </c>
       <c r="I49" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,33 +2176,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>602</v>
+        <v>687</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H51" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2257,92 +2257,92 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H52" t="n">
-        <v>617</v>
+        <v>865</v>
       </c>
       <c r="I52" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>688</v>
+        <v>810</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H54" t="n">
-        <v>775</v>
+        <v>900</v>
       </c>
       <c r="I54" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Jefferson Lerma Solís</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2362,22 +2362,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>810</v>
+        <v>414</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2386,33 +2386,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
-        <v>810</v>
+        <v>662</v>
       </c>
       <c r="I56" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jefferson Lerma Solís</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2421,33 +2421,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H57" t="n">
-        <v>414</v>
+        <v>850</v>
       </c>
       <c r="I57" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2456,33 +2456,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H58" t="n">
-        <v>572</v>
+        <v>343</v>
       </c>
       <c r="I58" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H59" t="n">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="I59" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2537,22 +2537,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60" t="n">
-        <v>343</v>
+        <v>816</v>
       </c>
       <c r="I60" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,80 +2561,80 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>810</v>
+        <v>621</v>
       </c>
       <c r="I61" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H62" t="n">
-        <v>726</v>
+        <v>824</v>
       </c>
       <c r="I62" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2642,22 +2642,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H63" t="n">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="I63" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2666,33 +2666,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F64" t="n">
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H64" t="n">
-        <v>763</v>
+        <v>643</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2701,33 +2701,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H65" t="n">
-        <v>564</v>
+        <v>810</v>
       </c>
       <c r="I65" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>James Garner</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H66" t="n">
-        <v>251</v>
+        <v>887</v>
       </c>
       <c r="I66" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,33 +2771,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H67" t="n">
-        <v>553</v>
+        <v>900</v>
       </c>
       <c r="I67" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2820,19 +2820,19 @@
         <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H68" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,115 +2841,115 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H69" t="n">
-        <v>797</v>
+        <v>695</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F70" t="n">
         <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H70" t="n">
-        <v>810</v>
+        <v>857</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H71" t="n">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="I71" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2960,19 +2960,19 @@
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H72" t="n">
-        <v>605</v>
+        <v>390</v>
       </c>
       <c r="I72" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2981,33 +2981,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H73" t="n">
-        <v>767</v>
+        <v>900</v>
       </c>
       <c r="I73" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,33 +3016,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F74" t="n">
         <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H74" t="n">
-        <v>689</v>
+        <v>305</v>
       </c>
       <c r="I74" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3062,22 +3062,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H75" t="n">
-        <v>390</v>
+        <v>900</v>
       </c>
       <c r="I75" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,33 +3086,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H76" t="n">
-        <v>810</v>
+        <v>868</v>
       </c>
       <c r="I76" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3132,22 +3132,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H77" t="n">
-        <v>288</v>
+        <v>588</v>
       </c>
       <c r="I77" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H78" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I78" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,138 +3191,138 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H79" t="n">
-        <v>796</v>
+        <v>715</v>
       </c>
       <c r="I79" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H80" t="n">
-        <v>516</v>
+        <v>842</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F81" t="n">
         <v>48</v>
       </c>
       <c r="G81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H81" t="n">
-        <v>810</v>
+        <v>528</v>
       </c>
       <c r="I81" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>690</v>
+        <v>359</v>
       </c>
       <c r="I82" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3331,33 +3331,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H83" t="n">
-        <v>752</v>
+        <v>492</v>
       </c>
       <c r="I83" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3366,33 +3366,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H84" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="I84" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H85" t="n">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="I85" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Caoimhin Kelleher</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H86" t="n">
-        <v>492</v>
+        <v>360</v>
       </c>
       <c r="I86" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H87" t="n">
-        <v>299</v>
+        <v>794</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3517,22 +3517,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H88" t="n">
-        <v>319</v>
+        <v>556</v>
       </c>
       <c r="I88" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,33 +3541,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H89" t="n">
-        <v>270</v>
+        <v>690</v>
       </c>
       <c r="I89" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3587,22 +3587,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H90" t="n">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="I90" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3622,22 +3622,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H91" t="n">
-        <v>532</v>
+        <v>874</v>
       </c>
       <c r="I91" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3657,22 +3657,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H92" t="n">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="I92" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3692,22 +3692,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H93" t="n">
-        <v>665</v>
+        <v>900</v>
       </c>
       <c r="I93" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3727,104 +3727,104 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H94" t="n">
-        <v>784</v>
+        <v>900</v>
       </c>
       <c r="I94" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H95" t="n">
-        <v>654</v>
+        <v>781</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H96" t="n">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="I96" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,22 +3832,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H97" t="n">
-        <v>810</v>
+        <v>356</v>
       </c>
       <c r="I97" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,22 +3867,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H98" t="n">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="I98" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3902,22 +3902,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H99" t="n">
-        <v>726</v>
+        <v>370</v>
       </c>
       <c r="I99" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3937,22 +3937,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H100" t="n">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I100" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H101" t="n">
-        <v>726</v>
+        <v>899</v>
       </c>
       <c r="I101" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4007,22 +4007,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H102" t="n">
-        <v>280</v>
+        <v>788</v>
       </c>
       <c r="I102" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,33 +4031,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H103" t="n">
-        <v>343</v>
+        <v>682</v>
       </c>
       <c r="I103" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,33 +4066,33 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H104" t="n">
-        <v>809</v>
+        <v>377</v>
       </c>
       <c r="I104" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,33 +4101,33 @@
         </is>
       </c>
       <c r="C105" t="n">
+        <v>50</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
         <v>42</v>
       </c>
-      <c r="D105" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>45</v>
-      </c>
       <c r="G105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H105" t="n">
-        <v>698</v>
+        <v>852</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,115 +4136,115 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H106" t="n">
-        <v>665</v>
+        <v>403</v>
       </c>
       <c r="I106" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H107" t="n">
-        <v>287</v>
+        <v>388</v>
       </c>
       <c r="I107" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H108" t="n">
-        <v>762</v>
+        <v>839</v>
       </c>
       <c r="I108" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4252,22 +4252,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H109" t="n">
-        <v>398</v>
+        <v>545</v>
       </c>
       <c r="I109" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4276,33 +4276,33 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H110" t="n">
-        <v>371</v>
+        <v>900</v>
       </c>
       <c r="I110" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4322,22 +4322,22 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H111" t="n">
-        <v>749</v>
+        <v>427</v>
       </c>
       <c r="I111" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,22 +4357,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H112" t="n">
-        <v>455</v>
+        <v>679</v>
       </c>
       <c r="I112" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,33 +4381,33 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H113" t="n">
-        <v>810</v>
+        <v>571</v>
       </c>
       <c r="I113" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4416,33 +4416,33 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H114" t="n">
-        <v>427</v>
+        <v>796</v>
       </c>
       <c r="I114" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,10 +4451,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H115" t="n">
-        <v>589</v>
+        <v>700</v>
       </c>
       <c r="I115" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4486,33 +4486,33 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H116" t="n">
-        <v>571</v>
+        <v>900</v>
       </c>
       <c r="I116" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,138 +4521,138 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H117" t="n">
-        <v>706</v>
+        <v>340</v>
       </c>
       <c r="I117" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H118" t="n">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="I118" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H119" t="n">
-        <v>810</v>
+        <v>890</v>
       </c>
       <c r="I119" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F120" t="n">
         <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H120" t="n">
-        <v>257</v>
+        <v>900</v>
       </c>
       <c r="I120" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4661,33 +4661,33 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H121" t="n">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="I121" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4710,19 +4710,19 @@
         <v>45</v>
       </c>
       <c r="G122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H122" t="n">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="I122" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4731,33 +4731,33 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F123" t="n">
         <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H123" t="n">
-        <v>810</v>
+        <v>419</v>
       </c>
       <c r="I123" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F124" t="n">
         <v>40</v>
       </c>
       <c r="G124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H124" t="n">
-        <v>585</v>
+        <v>494</v>
       </c>
       <c r="I124" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,33 +4801,33 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H125" t="n">
-        <v>746</v>
+        <v>900</v>
       </c>
       <c r="I125" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,33 +4836,33 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H126" t="n">
-        <v>329</v>
+        <v>657</v>
       </c>
       <c r="I126" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,33 +4871,33 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H127" t="n">
-        <v>494</v>
+        <v>278</v>
       </c>
       <c r="I127" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4906,115 +4906,115 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H128" t="n">
-        <v>810</v>
+        <v>481</v>
       </c>
       <c r="I128" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F129" t="n">
         <v>43</v>
       </c>
       <c r="G129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H129" t="n">
-        <v>567</v>
+        <v>726</v>
       </c>
       <c r="I129" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H130" t="n">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,22 +5022,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H131" t="n">
-        <v>476</v>
+        <v>569</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5046,33 +5046,33 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H132" t="n">
-        <v>638</v>
+        <v>798</v>
       </c>
       <c r="I132" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5081,10 +5081,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5092,22 +5092,22 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H133" t="n">
-        <v>497</v>
+        <v>716</v>
       </c>
       <c r="I133" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5116,33 +5116,33 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F134" t="n">
         <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H134" t="n">
-        <v>507</v>
+        <v>900</v>
       </c>
       <c r="I134" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5151,45 +5151,45 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H135" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="I135" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5197,92 +5197,92 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H136" t="n">
-        <v>626</v>
+        <v>783</v>
       </c>
       <c r="I136" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F137" t="n">
         <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H137" t="n">
-        <v>810</v>
+        <v>449</v>
       </c>
       <c r="I137" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H138" t="n">
-        <v>810</v>
+        <v>768</v>
       </c>
       <c r="I138" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,22 +5302,22 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H139" t="n">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="I139" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5326,33 +5326,33 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H140" t="n">
-        <v>394</v>
+        <v>897</v>
       </c>
       <c r="I140" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5361,33 +5361,33 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H141" t="n">
-        <v>678</v>
+        <v>870</v>
       </c>
       <c r="I141" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,10 +5396,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5407,22 +5407,22 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H142" t="n">
-        <v>669</v>
+        <v>374</v>
       </c>
       <c r="I142" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,33 +5431,33 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H143" t="n">
-        <v>807</v>
+        <v>574</v>
       </c>
       <c r="I143" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5466,33 +5466,33 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F144" t="n">
         <v>48</v>
       </c>
       <c r="G144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H144" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I144" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Micky van de Ven</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5501,80 +5501,80 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H145" t="n">
-        <v>284</v>
+        <v>710</v>
       </c>
       <c r="I145" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H146" t="n">
-        <v>519</v>
+        <v>602</v>
       </c>
       <c r="I146" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5582,57 +5582,57 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H147" t="n">
-        <v>810</v>
+        <v>675</v>
       </c>
       <c r="I147" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H148" t="n">
-        <v>710</v>
+        <v>877</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5641,33 +5641,33 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H149" t="n">
-        <v>557</v>
+        <v>761</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5676,33 +5676,33 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H150" t="n">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="I150" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,22 +5722,22 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H151" t="n">
-        <v>787</v>
+        <v>562</v>
       </c>
       <c r="I151" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5746,33 +5746,33 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H152" t="n">
-        <v>683</v>
+        <v>407</v>
       </c>
       <c r="I152" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5781,33 +5781,33 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H153" t="n">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="I153" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5827,104 +5827,104 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H154" t="n">
-        <v>562</v>
+        <v>662</v>
       </c>
       <c r="I154" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H155" t="n">
-        <v>361</v>
+        <v>834</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H156" t="n">
-        <v>560</v>
+        <v>838</v>
       </c>
       <c r="I156" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H157" t="n">
-        <v>662</v>
+        <v>792</v>
       </c>
       <c r="I157" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5956,33 +5956,33 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H158" t="n">
-        <v>744</v>
+        <v>450</v>
       </c>
       <c r="I158" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5991,33 +5991,33 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H159" t="n">
-        <v>252</v>
+        <v>647</v>
       </c>
       <c r="I159" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6026,33 +6026,33 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H160" t="n">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="I160" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>Santiago Bueno</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,33 +6061,33 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H161" t="n">
-        <v>764</v>
+        <v>354</v>
       </c>
       <c r="I161" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>José Malheiro de Sá</t>
+          <t>Jean-Ricner Bellegarde</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6096,166 +6096,26 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H162" t="n">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="I162" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Toti António Gomes</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>6</v>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>45</v>
-      </c>
-      <c r="G163" t="n">
-        <v>10</v>
-      </c>
-      <c r="H163" t="n">
-        <v>585</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>47</v>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>49</v>
-      </c>
-      <c r="G164" t="n">
-        <v>10</v>
-      </c>
-      <c r="H164" t="n">
-        <v>706</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Santiago Bueno</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>4</v>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>45</v>
-      </c>
-      <c r="G165" t="n">
-        <v>10</v>
-      </c>
-      <c r="H165" t="n">
-        <v>264</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Jean-Ricner Bellegarde</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>22</v>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>40</v>
-      </c>
-      <c r="G166" t="n">
-        <v>10</v>
-      </c>
-      <c r="H166" t="n">
-        <v>403</v>
-      </c>
-      <c r="I166" t="n">
         <v>2</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>863</v>
+        <v>953</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -534,7 +534,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -569,7 +569,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -592,7 +592,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thomas Partey</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,22 +612,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>882</v>
+        <v>343</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Thomas Partey</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,33 +636,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>749</v>
+        <v>972</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Leandro Trossard</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -671,33 +671,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>567</v>
+        <v>839</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Benjamin White</t>
+          <t>Leandro Trossard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -706,33 +706,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Benjamin White</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -741,33 +741,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>900</v>
+        <v>694</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -776,45 +776,45 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>762</v>
+        <v>990</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>436</v>
+        <v>832</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Diego Carlos Santos Silva</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -846,33 +846,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lucas Digne</t>
+          <t>Diego Carlos Santos Silva</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,22 +892,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>768</v>
+        <v>468</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ezri Konsa Ngoyo</t>
+          <t>Lucas Digne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>731</v>
+        <v>841</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Emiliano Martínez Romero</t>
+          <t>Ezri Konsa Ngoyo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>900</v>
+        <v>821</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>John McGinn</t>
+          <t>Emiliano Martínez Romero</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -986,24 +986,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>506</v>
+        <v>990</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -1012,7 +1012,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>John McGinn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1021,33 +1021,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>776</v>
+        <v>551</v>
       </c>
       <c r="I17" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pau Torres</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1056,68 +1056,68 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ryan Christie</t>
+          <t>Pau Torres</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>625</v>
+        <v>990</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lewis Cook</t>
+          <t>Ryan Christie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>893</v>
+        <v>700</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Justin Kluivert</t>
+          <t>Lewis Cook</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>547</v>
+        <v>983</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dango Ouattara</t>
+          <t>Justin Kluivert</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>412</v>
+        <v>622</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Dango Ouattara</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>877</v>
+        <v>412</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1266,33 +1266,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>706</v>
+        <v>967</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Adam Smith</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,22 +1312,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>521</v>
+        <v>772</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marcus Tavernier</t>
+          <t>Adam Smith</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1336,33 +1336,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>778</v>
+        <v>604</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mark Travers</t>
+          <t>Marcus Tavernier</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1371,27 +1371,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>270</v>
+        <v>801</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I28" t="n">
         <v>2.3</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>837</v>
+        <v>927</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
         <v>637</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>699</v>
+        <v>789</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I32" t="n">
         <v>3.2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>814</v>
+        <v>904</v>
       </c>
       <c r="I33" t="n">
         <v>2.4</v>
@@ -1607,7 +1607,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Mathias Jensen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,19 +1630,19 @@
         <v>51</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>673</v>
+        <v>346</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,19 +1665,19 @@
         <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>895</v>
+        <v>763</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Christian Nørgaard</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>693</v>
+        <v>985</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ethan Pinnock</t>
+          <t>Christian Nørgaard</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1721,33 +1721,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" t="n">
-        <v>900</v>
+        <v>775</v>
       </c>
       <c r="I37" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mads Roerslev Rasmussen</t>
+          <t>Ethan Pinnock</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,19 +1770,19 @@
         <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>444</v>
+        <v>990</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>Mads Roerslev Rasmussen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1791,33 +1791,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,45 +1826,45 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" t="n">
-        <v>280</v>
+        <v>565</v>
       </c>
       <c r="I41" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bart Verbruggen</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1896,33 +1896,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>720</v>
+        <v>305</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1931,33 +1931,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" t="n">
-        <v>838</v>
+        <v>810</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Igor Julio dos Santos de Paulo</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,33 +1966,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>45</v>
       </c>
       <c r="G44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" t="n">
-        <v>384</v>
+        <v>928</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Igor Julio dos Santos de Paulo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,45 +2001,45 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>570</v>
+        <v>474</v>
       </c>
       <c r="I45" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,22 +2047,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>885</v>
+        <v>615</v>
       </c>
       <c r="I46" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2071,33 +2071,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H47" t="n">
-        <v>900</v>
+        <v>975</v>
       </c>
       <c r="I47" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,19 +2120,19 @@
         <v>52</v>
       </c>
       <c r="G48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
-        <v>647</v>
+        <v>990</v>
       </c>
       <c r="I48" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>645</v>
+        <v>737</v>
       </c>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,33 +2176,33 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
         <v>49</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>45606</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>44</v>
-      </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H50" t="n">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="I50" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="I51" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,45 +2246,45 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
         <v>865</v>
       </c>
       <c r="I52" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2292,22 +2292,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>810</v>
+        <v>955</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2316,33 +2316,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H54" t="n">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="I54" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jefferson Lerma Solís</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2351,33 +2351,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>414</v>
+        <v>990</v>
       </c>
       <c r="I55" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Jefferson Lerma Solís</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2386,33 +2386,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F56" t="n">
         <v>47</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>662</v>
+        <v>414</v>
       </c>
       <c r="I56" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2421,33 +2421,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>850</v>
+        <v>752</v>
       </c>
       <c r="I57" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2470,19 +2470,19 @@
         <v>61</v>
       </c>
       <c r="G58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>343</v>
+        <v>940</v>
       </c>
       <c r="I58" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>900</v>
+        <v>343</v>
       </c>
       <c r="I59" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,33 +2526,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H60" t="n">
-        <v>816</v>
+        <v>990</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,68 +2561,68 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F61" t="n">
         <v>48</v>
       </c>
       <c r="G61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H61" t="n">
-        <v>621</v>
+        <v>904</v>
       </c>
       <c r="I61" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H62" t="n">
-        <v>824</v>
+        <v>621</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2631,33 +2631,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F63" t="n">
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>564</v>
+        <v>898</v>
       </c>
       <c r="I63" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2677,22 +2677,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="I64" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2701,33 +2701,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F65" t="n">
         <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>810</v>
+        <v>733</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2736,33 +2736,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F66" t="n">
         <v>44</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H66" t="n">
-        <v>887</v>
+        <v>810</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,33 +2771,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" t="n">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,33 +2806,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F68" t="n">
         <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2855,54 +2855,54 @@
         <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H69" t="n">
-        <v>695</v>
+        <v>990</v>
       </c>
       <c r="I69" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H70" t="n">
-        <v>857</v>
+        <v>785</v>
       </c>
       <c r="I70" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2925,19 +2925,19 @@
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>753</v>
+        <v>945</v>
       </c>
       <c r="I71" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2946,33 +2946,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F72" t="n">
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72" t="n">
-        <v>390</v>
+        <v>835</v>
       </c>
       <c r="I72" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2981,33 +2981,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F73" t="n">
         <v>40</v>
       </c>
       <c r="G73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H73" t="n">
-        <v>900</v>
+        <v>390</v>
       </c>
       <c r="I73" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,33 +3016,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H74" t="n">
-        <v>305</v>
+        <v>990</v>
       </c>
       <c r="I74" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,33 +3051,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H75" t="n">
-        <v>900</v>
+        <v>320</v>
       </c>
       <c r="I75" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3100,19 +3100,19 @@
         <v>52</v>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>868</v>
+        <v>990</v>
       </c>
       <c r="I76" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,33 +3121,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H77" t="n">
-        <v>588</v>
+        <v>958</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,33 +3156,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F78" t="n">
         <v>48</v>
       </c>
       <c r="G78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H78" t="n">
-        <v>900</v>
+        <v>662</v>
       </c>
       <c r="I78" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,68 +3191,68 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H79" t="n">
-        <v>715</v>
+        <v>990</v>
       </c>
       <c r="I79" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F80" t="n">
         <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H80" t="n">
-        <v>842</v>
+        <v>716</v>
       </c>
       <c r="I80" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3261,33 +3261,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F81" t="n">
         <v>48</v>
       </c>
       <c r="G81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H81" t="n">
-        <v>528</v>
+        <v>866</v>
       </c>
       <c r="I81" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3296,33 +3296,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F82" t="n">
         <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H82" t="n">
-        <v>359</v>
+        <v>528</v>
       </c>
       <c r="I82" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3331,33 +3331,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F83" t="n">
         <v>43</v>
       </c>
       <c r="G83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H83" t="n">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="I83" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3366,33 +3366,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" t="n">
-        <v>389</v>
+        <v>492</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H85" t="n">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="I85" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F86" t="n">
         <v>53</v>
       </c>
       <c r="G86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H86" t="n">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="I86" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Caoimhin Kelleher</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F87" t="n">
         <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H87" t="n">
-        <v>794</v>
+        <v>450</v>
       </c>
       <c r="I87" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F88" t="n">
         <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H88" t="n">
-        <v>556</v>
+        <v>884</v>
       </c>
       <c r="I88" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3555,19 +3555,19 @@
         <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>690</v>
+        <v>646</v>
       </c>
       <c r="I89" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,24 +3576,24 @@
         </is>
       </c>
       <c r="C90" t="n">
+        <v>21</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
         <v>39</v>
       </c>
-      <c r="D90" s="2" t="n">
-        <v>45606</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>44</v>
-      </c>
       <c r="G90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>665</v>
+        <v>776</v>
       </c>
       <c r="I90" t="n">
         <v>3.3</v>
@@ -3602,7 +3602,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,33 +3611,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F91" t="n">
         <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H91" t="n">
-        <v>874</v>
+        <v>755</v>
       </c>
       <c r="I91" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3660,19 +3660,19 @@
         <v>46</v>
       </c>
       <c r="G92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H92" t="n">
-        <v>719</v>
+        <v>964</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,33 +3681,33 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H93" t="n">
-        <v>900</v>
+        <v>744</v>
       </c>
       <c r="I93" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,68 +3716,68 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H94" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I94" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>781</v>
+        <v>990</v>
       </c>
       <c r="I95" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3786,33 +3786,33 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H96" t="n">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="I96" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,22 +3832,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H97" t="n">
-        <v>356</v>
+        <v>834</v>
       </c>
       <c r="I97" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3859,30 +3859,30 @@
         <v>19</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F98" t="n">
         <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H98" t="n">
-        <v>726</v>
+        <v>372</v>
       </c>
       <c r="I98" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,33 +3891,33 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H99" t="n">
-        <v>370</v>
+        <v>726</v>
       </c>
       <c r="I99" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3940,19 +3940,19 @@
         <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H100" t="n">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="I100" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F101" t="n">
         <v>65</v>
       </c>
       <c r="G101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H101" t="n">
-        <v>899</v>
+        <v>343</v>
       </c>
       <c r="I101" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,33 +3996,33 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>45</v>
       </c>
       <c r="G102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H102" t="n">
-        <v>788</v>
+        <v>989</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,33 +4031,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F103" t="n">
         <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H103" t="n">
-        <v>682</v>
+        <v>878</v>
       </c>
       <c r="I103" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4077,22 +4077,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H104" t="n">
-        <v>377</v>
+        <v>772</v>
       </c>
       <c r="I104" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4112,22 +4112,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H105" t="n">
-        <v>852</v>
+        <v>467</v>
       </c>
       <c r="I105" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,45 +4136,45 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F106" t="n">
         <v>46</v>
       </c>
       <c r="G106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H106" t="n">
-        <v>403</v>
+        <v>942</v>
       </c>
       <c r="I106" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4182,22 +4182,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H107" t="n">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="I107" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4217,22 +4217,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H108" t="n">
-        <v>839</v>
+        <v>478</v>
       </c>
       <c r="I108" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4255,19 +4255,19 @@
         <v>53</v>
       </c>
       <c r="G109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H109" t="n">
-        <v>545</v>
+        <v>929</v>
       </c>
       <c r="I109" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4276,33 +4276,33 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F110" t="n">
         <v>68</v>
       </c>
       <c r="G110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H110" t="n">
-        <v>900</v>
+        <v>623</v>
       </c>
       <c r="I110" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4311,33 +4311,33 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F111" t="n">
         <v>53</v>
       </c>
       <c r="G111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H111" t="n">
-        <v>427</v>
+        <v>956</v>
       </c>
       <c r="I111" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4360,19 +4360,19 @@
         <v>63</v>
       </c>
       <c r="G112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H112" t="n">
-        <v>679</v>
+        <v>438</v>
       </c>
       <c r="I112" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4392,22 +4392,22 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H113" t="n">
-        <v>571</v>
+        <v>712</v>
       </c>
       <c r="I113" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4416,33 +4416,33 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H114" t="n">
-        <v>796</v>
+        <v>571</v>
       </c>
       <c r="I114" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,33 +4451,33 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H115" t="n">
-        <v>700</v>
+        <v>886</v>
       </c>
       <c r="I115" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4486,33 +4486,33 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H116" t="n">
-        <v>900</v>
+        <v>756</v>
       </c>
       <c r="I116" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,68 +4521,68 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F117" t="n">
         <v>45</v>
       </c>
       <c r="G117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H117" t="n">
-        <v>340</v>
+        <v>990</v>
       </c>
       <c r="I117" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H118" t="n">
-        <v>695</v>
+        <v>414</v>
       </c>
       <c r="I118" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4591,33 +4591,33 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H119" t="n">
-        <v>890</v>
+        <v>785</v>
       </c>
       <c r="I119" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4626,33 +4626,33 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F120" t="n">
         <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H120" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="I120" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4661,33 +4661,33 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F121" t="n">
         <v>40</v>
       </c>
       <c r="G121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H121" t="n">
-        <v>675</v>
+        <v>990</v>
       </c>
       <c r="I121" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4696,33 +4696,33 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F122" t="n">
         <v>45</v>
       </c>
       <c r="G122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H122" t="n">
-        <v>836</v>
+        <v>765</v>
       </c>
       <c r="I122" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4745,19 +4745,19 @@
         <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H123" t="n">
-        <v>419</v>
+        <v>926</v>
       </c>
       <c r="I123" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4769,7 +4769,7 @@
         <v>19</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4780,19 +4780,19 @@
         <v>40</v>
       </c>
       <c r="G124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H124" t="n">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="I124" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,33 +4801,33 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F125" t="n">
         <v>40</v>
       </c>
       <c r="G125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H125" t="n">
-        <v>900</v>
+        <v>494</v>
       </c>
       <c r="I125" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,33 +4836,33 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F126" t="n">
         <v>43</v>
       </c>
       <c r="G126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H126" t="n">
-        <v>657</v>
+        <v>990</v>
       </c>
       <c r="I126" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4882,16 +4882,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H127" t="n">
-        <v>278</v>
+        <v>747</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H128" t="n">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -4941,10 +4941,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4952,13 +4952,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H129" t="n">
-        <v>726</v>
+        <v>784</v>
       </c>
       <c r="I129" t="n">
         <v>3.8</v>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H130" t="n">
-        <v>559</v>
+        <v>646</v>
       </c>
       <c r="I130" t="n">
         <v>3.3</v>
@@ -5014,7 +5014,7 @@
         <v>21</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H131" t="n">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="I131" t="n">
         <v>3.8</v>
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5057,13 +5057,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H132" t="n">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="I132" t="n">
         <v>4.2</v>
@@ -5081,10 +5081,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5095,10 +5095,10 @@
         <v>45</v>
       </c>
       <c r="G133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H133" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="I133" t="n">
         <v>1.7</v>
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5130,10 +5130,10 @@
         <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H134" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I134" t="n">
         <v>1.8</v>
@@ -5151,24 +5151,24 @@
         </is>
       </c>
       <c r="C135" t="n">
+        <v>52</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
         <v>50</v>
       </c>
-      <c r="D135" s="2" t="n">
-        <v>45606</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>45</v>
-      </c>
       <c r="G135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H135" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I135" t="n">
         <v>2.1</v>
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H136" t="n">
-        <v>783</v>
+        <v>866</v>
       </c>
       <c r="I136" t="n">
         <v>3.7</v>
@@ -5224,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H137" t="n">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="I137" t="n">
         <v>1.4</v>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,13 +5267,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H138" t="n">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="I138" t="n">
         <v>3.6</v>
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H139" t="n">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="I139" t="n">
         <v>4.2</v>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H140" t="n">
-        <v>897</v>
+        <v>987</v>
       </c>
       <c r="I140" t="n">
         <v>3.9</v>
@@ -5364,7 +5364,7 @@
         <v>34</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5372,13 +5372,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H141" t="n">
-        <v>870</v>
+        <v>960</v>
       </c>
       <c r="I141" t="n">
         <v>3.2</v>
@@ -5396,10 +5396,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H142" t="n">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="I142" t="n">
         <v>2.5</v>
@@ -5431,24 +5431,24 @@
         </is>
       </c>
       <c r="C143" t="n">
+        <v>53</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
         <v>47</v>
       </c>
-      <c r="D143" s="2" t="n">
-        <v>45606</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>45</v>
-      </c>
       <c r="G143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H143" t="n">
-        <v>574</v>
+        <v>664</v>
       </c>
       <c r="I143" t="n">
         <v>6.1</v>
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,13 +5477,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H144" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I144" t="n">
         <v>2.9</v>
@@ -5504,7 +5504,7 @@
         <v>27</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>39</v>
       </c>
       <c r="G145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H145" t="n">
         <v>710</v>
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H146" t="n">
-        <v>602</v>
+        <v>668</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -5574,7 +5574,7 @@
         <v>15</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G147" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H147" t="n">
         <v>675</v>
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H148" t="n">
-        <v>877</v>
+        <v>967</v>
       </c>
       <c r="I148" t="n">
         <v>5.4</v>
@@ -5641,10 +5641,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H149" t="n">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="I149" t="n">
         <v>2.3</v>
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H150" t="n">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="I150" t="n">
         <v>3.2</v>
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>53</v>
       </c>
       <c r="G151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H151" t="n">
-        <v>562</v>
+        <v>652</v>
       </c>
       <c r="I151" t="n">
         <v>3.1</v>
@@ -5749,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H152" t="n">
         <v>407</v>
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5792,10 +5792,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H153" t="n">
         <v>650</v>
@@ -5819,7 +5819,7 @@
         <v>23</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H154" t="n">
         <v>662</v>
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H155" t="n">
-        <v>834</v>
+        <v>924</v>
       </c>
       <c r="I155" t="n">
         <v>2.3</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H156" t="n">
-        <v>838</v>
+        <v>928</v>
       </c>
       <c r="I156" t="n">
         <v>2.2</v>
@@ -5921,10 +5921,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H157" t="n">
-        <v>792</v>
+        <v>882</v>
       </c>
       <c r="I157" t="n">
         <v>2.7</v>
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H158" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="I158" t="n">
         <v>3.1</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6005,10 +6005,10 @@
         <v>45</v>
       </c>
       <c r="G159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H159" t="n">
-        <v>647</v>
+        <v>737</v>
       </c>
       <c r="I159" t="n">
         <v>2.3</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G160" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H160" t="n">
-        <v>796</v>
+        <v>885</v>
       </c>
       <c r="I160" t="n">
         <v>4.2</v>
@@ -6064,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G161" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H161" t="n">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="I161" t="n">
         <v>1.1</v>
@@ -6096,10 +6096,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6107,13 +6107,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H162" t="n">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>953</v>
+        <v>1043</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
         <v>990</v>
@@ -569,7 +569,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
         <v>678</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="I5" t="n">
         <v>5.3</v>
@@ -639,7 +639,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>972</v>
+        <v>1017</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>839</v>
+        <v>929</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
         <v>694</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
         <v>832</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>468</v>
+        <v>558</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>841</v>
+        <v>862</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
         <v>821</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I19" t="n">
         <v>2.9</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="n">
         <v>700</v>
@@ -1164,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>983</v>
+        <v>1073</v>
       </c>
       <c r="I21" t="n">
         <v>2.3</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="I23" t="n">
         <v>1.9</v>
@@ -1269,7 +1269,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>967</v>
+        <v>1057</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
-        <v>772</v>
+        <v>836</v>
       </c>
       <c r="I25" t="n">
         <v>3.3</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="n">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="I26" t="n">
         <v>2.9</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>801</v>
+        <v>891</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -1409,7 +1409,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I28" t="n">
         <v>2.3</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>927</v>
+        <v>1007</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
         <v>637</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" t="n">
-        <v>789</v>
+        <v>860</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I32" t="n">
         <v>3.2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>49</v>
       </c>
       <c r="G33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>904</v>
+        <v>989</v>
       </c>
       <c r="I33" t="n">
         <v>2.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>51</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="n">
-        <v>346</v>
+        <v>436</v>
       </c>
       <c r="I34" t="n">
         <v>3.1</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="I35" t="n">
         <v>2.4</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="n">
-        <v>985</v>
+        <v>1075</v>
       </c>
       <c r="I36" t="n">
         <v>5.1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="n">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="I37" t="n">
         <v>2.4</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I38" t="n">
         <v>2.7</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
         <v>444</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" t="n">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="I41" t="n">
         <v>3.9</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="n">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
         <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I43" t="n">
         <v>3.2</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>45</v>
       </c>
       <c r="G44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="n">
-        <v>928</v>
+        <v>1013</v>
       </c>
       <c r="I44" t="n">
         <v>2.7</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>474</v>
+        <v>564</v>
       </c>
       <c r="I45" t="n">
         <v>1.5</v>
@@ -2039,7 +2039,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>39</v>
       </c>
       <c r="G46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="n">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="I46" t="n">
         <v>1.3</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="n">
-        <v>975</v>
+        <v>1055</v>
       </c>
       <c r="I47" t="n">
         <v>2.4</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>52</v>
       </c>
       <c r="G48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I48" t="n">
         <v>2.8</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>47</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="I49" t="n">
         <v>2.1</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>49</v>
       </c>
       <c r="G50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="n">
         <v>726</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>52</v>
       </c>
       <c r="G51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="n">
-        <v>754</v>
+        <v>838</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>77</v>
       </c>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" t="n">
-        <v>865</v>
+        <v>955</v>
       </c>
       <c r="I52" t="n">
         <v>4.1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>955</v>
+        <v>1045</v>
       </c>
       <c r="I53" t="n">
         <v>7.2</v>
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
         <v>810</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
         <v>48</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I55" t="n">
         <v>2.6</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>47</v>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" t="n">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="I56" t="n">
         <v>2.3</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
         <v>57</v>
       </c>
       <c r="G57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="n">
-        <v>752</v>
+        <v>842</v>
       </c>
       <c r="I57" t="n">
         <v>4.7</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>61</v>
       </c>
       <c r="G58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" t="n">
-        <v>940</v>
+        <v>1030</v>
       </c>
       <c r="I58" t="n">
         <v>3.2</v>
@@ -2494,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2505,10 +2505,10 @@
         <v>52</v>
       </c>
       <c r="G59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I59" t="n">
         <v>2.4</v>
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2540,10 +2540,10 @@
         <v>49</v>
       </c>
       <c r="G60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I60" t="n">
         <v>2.7</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         <v>48</v>
       </c>
       <c r="G61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" t="n">
-        <v>904</v>
+        <v>994</v>
       </c>
       <c r="I61" t="n">
         <v>3.5</v>
@@ -2599,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>64</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="n">
         <v>621</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2645,10 +2645,10 @@
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" t="n">
-        <v>898</v>
+        <v>988</v>
       </c>
       <c r="I63" t="n">
         <v>3.2</v>
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2680,10 +2680,10 @@
         <v>55</v>
       </c>
       <c r="G64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="n">
-        <v>649</v>
+        <v>720</v>
       </c>
       <c r="I64" t="n">
         <v>3.6</v>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="n">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="I65" t="n">
         <v>2.9</v>
@@ -2739,7 +2739,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44</v>
       </c>
       <c r="G66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="n">
         <v>810</v>
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2785,10 +2785,10 @@
         <v>42</v>
       </c>
       <c r="G67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" t="n">
-        <v>887</v>
+        <v>977</v>
       </c>
       <c r="I67" t="n">
         <v>3.5</v>
@@ -2809,7 +2809,7 @@
         <v>52</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I68" t="n">
         <v>4</v>
@@ -2844,7 +2844,7 @@
         <v>37</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2855,10 +2855,10 @@
         <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I69" t="n">
         <v>3.1</v>
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         <v>64</v>
       </c>
       <c r="G70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" t="n">
-        <v>785</v>
+        <v>875</v>
       </c>
       <c r="I70" t="n">
         <v>2.5</v>
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="n">
-        <v>945</v>
+        <v>1035</v>
       </c>
       <c r="I71" t="n">
         <v>3.2</v>
@@ -2949,7 +2949,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="n">
-        <v>835</v>
+        <v>893</v>
       </c>
       <c r="I72" t="n">
         <v>3.4</v>
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" t="n">
         <v>390</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3030,10 +3030,10 @@
         <v>45</v>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I74" t="n">
         <v>3.5</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3065,10 +3065,10 @@
         <v>42</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" t="n">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I75" t="n">
         <v>3.7</v>
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3100,10 +3100,10 @@
         <v>52</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I76" t="n">
         <v>2.8</v>
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3135,10 +3135,10 @@
         <v>39</v>
       </c>
       <c r="G77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" t="n">
-        <v>958</v>
+        <v>1028</v>
       </c>
       <c r="I77" t="n">
         <v>1.9</v>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3170,10 +3170,10 @@
         <v>48</v>
       </c>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="n">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3205,10 +3205,10 @@
         <v>45</v>
       </c>
       <c r="G79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I79" t="n">
         <v>2.3</v>
@@ -3229,7 +3229,7 @@
         <v>39</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3240,10 +3240,10 @@
         <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="n">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="I80" t="n">
         <v>2.1</v>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>48</v>
       </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" t="n">
         <v>866</v>
@@ -3299,7 +3299,7 @@
         <v>35</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" t="n">
         <v>528</v>
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3345,10 +3345,10 @@
         <v>43</v>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H83" t="n">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="I83" t="n">
         <v>3.7</v>
@@ -3369,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="n">
         <v>492</v>
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3415,10 +3415,10 @@
         <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="n">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
         <v>53</v>
       </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="n">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="I86" t="n">
         <v>1.7</v>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3485,10 +3485,10 @@
         <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="I87" t="n">
         <v>3.4</v>
@@ -3509,7 +3509,7 @@
         <v>46</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3520,10 +3520,10 @@
         <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="n">
-        <v>884</v>
+        <v>974</v>
       </c>
       <c r="I88" t="n">
         <v>2.5</v>
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3555,10 +3555,10 @@
         <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="n">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="I89" t="n">
         <v>3.8</v>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3590,10 +3590,10 @@
         <v>39</v>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" t="n">
-        <v>776</v>
+        <v>804</v>
       </c>
       <c r="I90" t="n">
         <v>3.3</v>
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3625,10 +3625,10 @@
         <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" t="n">
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="I91" t="n">
         <v>3.3</v>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3660,10 +3660,10 @@
         <v>46</v>
       </c>
       <c r="G92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="n">
-        <v>964</v>
+        <v>1054</v>
       </c>
       <c r="I92" t="n">
         <v>6.6</v>
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3695,10 +3695,10 @@
         <v>50</v>
       </c>
       <c r="G93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H93" t="n">
-        <v>744</v>
+        <v>834</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3730,10 +3730,10 @@
         <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H94" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I94" t="n">
         <v>3.2</v>
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3765,10 +3765,10 @@
         <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I95" t="n">
         <v>1.7</v>
@@ -3789,7 +3789,7 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3797,13 +3797,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" t="n">
-        <v>781</v>
+        <v>871</v>
       </c>
       <c r="I96" t="n">
         <v>3.7</v>
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" t="n">
-        <v>834</v>
+        <v>924</v>
       </c>
       <c r="I97" t="n">
         <v>4.3</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="I98" t="n">
         <v>5.4</v>
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="n">
         <v>726</v>
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H100" t="n">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="I100" t="n">
         <v>6.6</v>
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" t="n">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="I101" t="n">
         <v>2.5</v>
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4007,13 +4007,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H102" t="n">
-        <v>989</v>
+        <v>1079</v>
       </c>
       <c r="I102" t="n">
         <v>7</v>
@@ -4034,7 +4034,7 @@
         <v>45</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H103" t="n">
         <v>878</v>
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H104" t="n">
-        <v>772</v>
+        <v>845</v>
       </c>
       <c r="I104" t="n">
         <v>3.2</v>
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4112,13 +4112,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H105" t="n">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="I105" t="n">
         <v>3.8</v>
@@ -4139,7 +4139,7 @@
         <v>50</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H106" t="n">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="I106" t="n">
         <v>4.4</v>
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H107" t="n">
         <v>403</v>
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4217,13 +4217,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H108" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
       <c r="I108" t="n">
         <v>2.6</v>
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H109" t="n">
-        <v>929</v>
+        <v>1019</v>
       </c>
       <c r="I109" t="n">
         <v>4.7</v>
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H110" t="n">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="I110" t="n">
         <v>2.3</v>
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H111" t="n">
-        <v>956</v>
+        <v>1046</v>
       </c>
       <c r="I111" t="n">
         <v>3.1</v>
@@ -4349,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H112" t="n">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="I112" t="n">
         <v>2.2</v>
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H113" t="n">
-        <v>712</v>
+        <v>797</v>
       </c>
       <c r="I113" t="n">
         <v>3.6</v>
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H114" t="n">
         <v>571</v>
@@ -4451,10 +4451,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H115" t="n">
         <v>886</v>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H116" t="n">
-        <v>756</v>
+        <v>823</v>
       </c>
       <c r="I116" t="n">
         <v>3.3</v>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4532,13 +4532,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H117" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I117" t="n">
         <v>3.5</v>
@@ -4559,7 +4559,7 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H118" t="n">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="I118" t="n">
         <v>3.7</v>
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H119" t="n">
-        <v>785</v>
+        <v>875</v>
       </c>
       <c r="I119" t="n">
         <v>2.1</v>
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H120" t="n">
-        <v>980</v>
+        <v>1063</v>
       </c>
       <c r="I120" t="n">
         <v>4.1</v>
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H121" t="n">
         <v>990</v>
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4710,10 +4710,10 @@
         <v>45</v>
       </c>
       <c r="G122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" t="n">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="I122" t="n">
         <v>5.7</v>
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4742,13 +4742,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H123" t="n">
-        <v>926</v>
+        <v>994</v>
       </c>
       <c r="I123" t="n">
         <v>2.2</v>
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4780,10 +4780,10 @@
         <v>40</v>
       </c>
       <c r="G124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H124" t="n">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="I124" t="n">
         <v>3.1</v>
@@ -4804,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H125" t="n">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="I125" t="n">
         <v>3.9</v>
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4850,10 +4850,10 @@
         <v>43</v>
       </c>
       <c r="G126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H126" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I126" t="n">
         <v>3.8</v>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4882,13 +4882,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H127" t="n">
-        <v>747</v>
+        <v>837</v>
       </c>
       <c r="I127" t="n">
         <v>3.4</v>
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128" t="n">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -4941,10 +4941,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4952,13 +4952,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H129" t="n">
-        <v>784</v>
+        <v>874</v>
       </c>
       <c r="I129" t="n">
         <v>3.8</v>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H130" t="n">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="I130" t="n">
         <v>3.3</v>
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131" t="n">
         <v>627</v>
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5060,10 +5060,10 @@
         <v>45</v>
       </c>
       <c r="G132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H132" t="n">
-        <v>888</v>
+        <v>915</v>
       </c>
       <c r="I132" t="n">
         <v>4.2</v>
@@ -5081,10 +5081,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5095,10 +5095,10 @@
         <v>45</v>
       </c>
       <c r="G133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H133" t="n">
-        <v>806</v>
+        <v>896</v>
       </c>
       <c r="I133" t="n">
         <v>1.7</v>
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5130,10 +5130,10 @@
         <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I134" t="n">
         <v>1.8</v>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5162,13 +5162,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H135" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I135" t="n">
         <v>2.1</v>
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5200,10 +5200,10 @@
         <v>45</v>
       </c>
       <c r="G136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H136" t="n">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="I136" t="n">
         <v>3.7</v>
@@ -5224,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44</v>
       </c>
       <c r="G137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H137" t="n">
         <v>532</v>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,13 +5267,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H138" t="n">
-        <v>858</v>
+        <v>948</v>
       </c>
       <c r="I138" t="n">
         <v>3.6</v>
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H139" t="n">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="I139" t="n">
         <v>4.2</v>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G140" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="n">
-        <v>987</v>
+        <v>1077</v>
       </c>
       <c r="I140" t="n">
         <v>3.9</v>
@@ -5364,7 +5364,7 @@
         <v>34</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G141" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H141" t="n">
         <v>960</v>
@@ -5396,10 +5396,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H142" t="n">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="I142" t="n">
         <v>2.5</v>
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H143" t="n">
-        <v>664</v>
+        <v>726</v>
       </c>
       <c r="I143" t="n">
         <v>6.1</v>
@@ -5469,7 +5469,7 @@
         <v>37</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,13 +5477,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H144" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I144" t="n">
         <v>2.9</v>
@@ -5504,7 +5504,7 @@
         <v>27</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H145" t="n">
         <v>710</v>
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H146" t="n">
-        <v>668</v>
+        <v>742</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -5574,7 +5574,7 @@
         <v>15</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H147" t="n">
         <v>675</v>
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5620,10 +5620,10 @@
         <v>45</v>
       </c>
       <c r="G148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H148" t="n">
-        <v>967</v>
+        <v>1057</v>
       </c>
       <c r="I148" t="n">
         <v>5.4</v>
@@ -5641,10 +5641,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H149" t="n">
-        <v>851</v>
+        <v>925</v>
       </c>
       <c r="I149" t="n">
         <v>2.3</v>
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5690,10 +5690,10 @@
         <v>53</v>
       </c>
       <c r="G150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H150" t="n">
-        <v>811</v>
+        <v>901</v>
       </c>
       <c r="I150" t="n">
         <v>3.2</v>
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H151" t="n">
-        <v>652</v>
+        <v>742</v>
       </c>
       <c r="I151" t="n">
         <v>3.1</v>
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H152" t="n">
         <v>407</v>
@@ -5784,7 +5784,7 @@
         <v>17</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5795,10 +5795,10 @@
         <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H153" t="n">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="I153" t="n">
         <v>2.1</v>
@@ -5819,7 +5819,7 @@
         <v>23</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H154" t="n">
         <v>662</v>
@@ -5854,7 +5854,7 @@
         <v>38</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G155" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H155" t="n">
-        <v>924</v>
+        <v>1014</v>
       </c>
       <c r="I155" t="n">
         <v>2.3</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H156" t="n">
-        <v>928</v>
+        <v>1018</v>
       </c>
       <c r="I156" t="n">
         <v>2.2</v>
@@ -5921,10 +5921,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H157" t="n">
-        <v>882</v>
+        <v>972</v>
       </c>
       <c r="I157" t="n">
         <v>2.7</v>
@@ -5959,7 +5959,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H158" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I158" t="n">
         <v>3.1</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6002,13 +6002,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H159" t="n">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="I159" t="n">
         <v>2.3</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6040,10 +6040,10 @@
         <v>45</v>
       </c>
       <c r="G160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H160" t="n">
-        <v>885</v>
+        <v>975</v>
       </c>
       <c r="I160" t="n">
         <v>4.2</v>
@@ -6064,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G161" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H161" t="n">
         <v>444</v>
@@ -6096,10 +6096,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6107,13 +6107,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H162" t="n">
-        <v>475</v>
+        <v>561</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -499,7 +499,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1043</v>
+        <v>1088</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
         <v>678</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="I5" t="n">
         <v>5.3</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
         <v>1017</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>929</v>
+        <v>1019</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
         <v>694</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>832</v>
+        <v>922</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
         <v>558</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>862</v>
+        <v>952</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>821</v>
+        <v>911</v>
       </c>
       <c r="I15" t="n">
         <v>2.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>1080</v>
+        <v>1125</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>930</v>
+        <v>1013</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -1094,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I19" t="n">
         <v>2.9</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="I20" t="n">
         <v>2.4</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
         <v>1073</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>696</v>
+        <v>772</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="I23" t="n">
         <v>1.9</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="n">
         <v>1057</v>
@@ -1304,7 +1304,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="n">
-        <v>836</v>
+        <v>917</v>
       </c>
       <c r="I25" t="n">
         <v>3.3</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="I26" t="n">
         <v>2.9</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>891</v>
+        <v>981</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I28" t="n">
         <v>2.3</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>1007</v>
+        <v>1097</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
         <v>637</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="n">
-        <v>860</v>
+        <v>929</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I32" t="n">
         <v>3.2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>49</v>
       </c>
       <c r="G33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="n">
-        <v>989</v>
+        <v>1037</v>
       </c>
       <c r="I33" t="n">
         <v>2.4</v>
@@ -1619,7 +1619,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>51</v>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="n">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="I34" t="n">
         <v>3.1</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="n">
-        <v>853</v>
+        <v>943</v>
       </c>
       <c r="I35" t="n">
         <v>2.4</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="n">
-        <v>1075</v>
+        <v>1165</v>
       </c>
       <c r="I36" t="n">
         <v>5.1</v>
@@ -1724,7 +1724,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="n">
-        <v>815</v>
+        <v>884</v>
       </c>
       <c r="I37" t="n">
         <v>2.4</v>
@@ -1759,7 +1759,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I38" t="n">
         <v>2.7</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="I39" t="n">
         <v>2.2</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="n">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="I41" t="n">
         <v>3.9</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="n">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
         <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I43" t="n">
         <v>3.2</v>
@@ -1969,7 +1969,7 @@
         <v>68</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>45</v>
       </c>
       <c r="G44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="n">
-        <v>1013</v>
+        <v>1091</v>
       </c>
       <c r="I44" t="n">
         <v>2.7</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="n">
-        <v>564</v>
+        <v>654</v>
       </c>
       <c r="I45" t="n">
         <v>1.5</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="n">
         <v>673</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>1055</v>
+        <v>1145</v>
       </c>
       <c r="I47" t="n">
         <v>2.4</v>
@@ -2109,7 +2109,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>52</v>
       </c>
       <c r="G48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I48" t="n">
         <v>2.8</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>47</v>
       </c>
       <c r="G49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="n">
-        <v>827</v>
+        <v>917</v>
       </c>
       <c r="I49" t="n">
         <v>2.1</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>49</v>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="n">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="I50" t="n">
         <v>2.7</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>52</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="n">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>
@@ -2249,7 +2249,7 @@
         <v>78</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>77</v>
       </c>
       <c r="G52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="I52" t="n">
         <v>4.1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="n">
-        <v>1045</v>
+        <v>1130</v>
       </c>
       <c r="I53" t="n">
         <v>7.2</v>
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2330,10 +2330,10 @@
         <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="n">
-        <v>810</v>
+        <v>874</v>
       </c>
       <c r="I54" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
         <v>48</v>
       </c>
       <c r="G55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I55" t="n">
         <v>2.6</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>47</v>
       </c>
       <c r="G56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="n">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="I56" t="n">
         <v>2.3</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
         <v>57</v>
       </c>
       <c r="G57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="n">
-        <v>842</v>
+        <v>932</v>
       </c>
       <c r="I57" t="n">
         <v>4.7</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>61</v>
       </c>
       <c r="G58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="n">
-        <v>1030</v>
+        <v>1120</v>
       </c>
       <c r="I58" t="n">
         <v>3.2</v>
@@ -2482,7 +2482,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="n">
-        <v>344</v>
+        <v>1170</v>
       </c>
       <c r="I59" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,33 +2526,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="n">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="I60" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,62 +2561,62 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="n">
-        <v>994</v>
+        <v>621</v>
       </c>
       <c r="I61" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="n">
-        <v>621</v>
+        <v>366</v>
       </c>
       <c r="I62" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="63">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2645,10 +2645,10 @@
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="n">
-        <v>988</v>
+        <v>1011</v>
       </c>
       <c r="I63" t="n">
         <v>3.2</v>
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2680,10 +2680,10 @@
         <v>55</v>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I64" t="n">
         <v>3.6</v>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="n">
-        <v>823</v>
+        <v>889</v>
       </c>
       <c r="I65" t="n">
         <v>2.9</v>
@@ -2739,7 +2739,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44</v>
       </c>
       <c r="G66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="n">
         <v>810</v>
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2785,10 +2785,10 @@
         <v>42</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="n">
-        <v>977</v>
+        <v>1067</v>
       </c>
       <c r="I67" t="n">
         <v>3.5</v>
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I68" t="n">
         <v>4</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2855,10 +2855,10 @@
         <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="n">
-        <v>1080</v>
+        <v>1161</v>
       </c>
       <c r="I69" t="n">
         <v>3.1</v>
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         <v>64</v>
       </c>
       <c r="G70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="n">
-        <v>875</v>
+        <v>947</v>
       </c>
       <c r="I70" t="n">
         <v>2.5</v>
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="n">
-        <v>1035</v>
+        <v>1120</v>
       </c>
       <c r="I71" t="n">
         <v>3.2</v>
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="n">
         <v>893</v>
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2995,10 +2995,10 @@
         <v>40</v>
       </c>
       <c r="G73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="I73" t="n">
         <v>2.4</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3030,10 +3030,10 @@
         <v>45</v>
       </c>
       <c r="G74" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I74" t="n">
         <v>3.5</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3065,10 +3065,10 @@
         <v>42</v>
       </c>
       <c r="G75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="n">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="I75" t="n">
         <v>3.7</v>
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3100,10 +3100,10 @@
         <v>52</v>
       </c>
       <c r="G76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I76" t="n">
         <v>2.8</v>
@@ -3124,7 +3124,7 @@
         <v>31</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3135,10 +3135,10 @@
         <v>39</v>
       </c>
       <c r="G77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="n">
-        <v>1028</v>
+        <v>1118</v>
       </c>
       <c r="I77" t="n">
         <v>1.9</v>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3170,10 +3170,10 @@
         <v>48</v>
       </c>
       <c r="G78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="n">
-        <v>732</v>
+        <v>809</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3205,10 +3205,10 @@
         <v>45</v>
       </c>
       <c r="G79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I79" t="n">
         <v>2.3</v>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="n">
         <v>735</v>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         <v>48</v>
       </c>
       <c r="G81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="n">
-        <v>866</v>
+        <v>938</v>
       </c>
       <c r="I81" t="n">
         <v>4.4</v>
@@ -3299,7 +3299,7 @@
         <v>35</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="n">
         <v>528</v>
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3345,10 +3345,10 @@
         <v>43</v>
       </c>
       <c r="G83" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="n">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="I83" t="n">
         <v>3.7</v>
@@ -3369,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="n">
         <v>492</v>
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3415,10 +3415,10 @@
         <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="n">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
         <v>53</v>
       </c>
       <c r="G86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="I86" t="n">
         <v>1.7</v>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3485,10 +3485,10 @@
         <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I87" t="n">
         <v>3.4</v>
@@ -3509,7 +3509,7 @@
         <v>46</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="n">
         <v>974</v>
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3555,10 +3555,10 @@
         <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="n">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="I89" t="n">
         <v>3.8</v>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3590,10 +3590,10 @@
         <v>39</v>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="n">
-        <v>804</v>
+        <v>894</v>
       </c>
       <c r="I90" t="n">
         <v>3.3</v>
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3625,10 +3625,10 @@
         <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="n">
-        <v>845</v>
+        <v>935</v>
       </c>
       <c r="I91" t="n">
         <v>3.3</v>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3660,10 +3660,10 @@
         <v>46</v>
       </c>
       <c r="G92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="n">
-        <v>1054</v>
+        <v>1137</v>
       </c>
       <c r="I92" t="n">
         <v>6.6</v>
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3695,10 +3695,10 @@
         <v>50</v>
       </c>
       <c r="G93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="n">
-        <v>834</v>
+        <v>924</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3730,10 +3730,10 @@
         <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I94" t="n">
         <v>3.2</v>
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3765,10 +3765,10 @@
         <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I95" t="n">
         <v>1.7</v>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3797,13 +3797,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="n">
-        <v>871</v>
+        <v>961</v>
       </c>
       <c r="I96" t="n">
         <v>3.7</v>
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G97" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="n">
-        <v>924</v>
+        <v>1014</v>
       </c>
       <c r="I97" t="n">
         <v>4.3</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="n">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="I98" t="n">
         <v>5.4</v>
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="n">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="I99" t="n">
         <v>2.9</v>
@@ -3929,7 +3929,7 @@
         <v>19</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="n">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="I100" t="n">
         <v>6.6</v>
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G101" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="I101" t="n">
         <v>2.5</v>
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4007,13 +4007,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="n">
-        <v>1079</v>
+        <v>1169</v>
       </c>
       <c r="I102" t="n">
         <v>7</v>
@@ -4034,7 +4034,7 @@
         <v>45</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="n">
         <v>878</v>
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="n">
-        <v>845</v>
+        <v>923</v>
       </c>
       <c r="I104" t="n">
         <v>3.2</v>
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4112,13 +4112,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="n">
-        <v>557</v>
+        <v>647</v>
       </c>
       <c r="I105" t="n">
         <v>3.8</v>
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="n">
         <v>1032</v>
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G107" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="n">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="I107" t="n">
         <v>3.4</v>
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4217,13 +4217,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="n">
-        <v>568</v>
+        <v>658</v>
       </c>
       <c r="I108" t="n">
         <v>2.6</v>
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="n">
-        <v>1019</v>
+        <v>1084</v>
       </c>
       <c r="I109" t="n">
         <v>4.7</v>
@@ -4279,7 +4279,7 @@
         <v>29</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="n">
-        <v>678</v>
+        <v>743</v>
       </c>
       <c r="I110" t="n">
         <v>2.3</v>
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="n">
-        <v>1046</v>
+        <v>1136</v>
       </c>
       <c r="I111" t="n">
         <v>3.1</v>
@@ -4349,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="n">
         <v>505</v>
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="n">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="I113" t="n">
         <v>3.6</v>
@@ -4419,7 +4419,7 @@
         <v>15</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="n">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="I114" t="n">
         <v>3.2</v>
@@ -4454,7 +4454,7 @@
         <v>34</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="n">
-        <v>886</v>
+        <v>976</v>
       </c>
       <c r="I115" t="n">
         <v>1.4</v>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="n">
-        <v>823</v>
+        <v>913</v>
       </c>
       <c r="I116" t="n">
         <v>3.3</v>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4532,13 +4532,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I117" t="n">
         <v>3.5</v>
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="n">
         <v>436</v>
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="n">
-        <v>875</v>
+        <v>965</v>
       </c>
       <c r="I119" t="n">
         <v>2.1</v>
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="n">
-        <v>1063</v>
+        <v>1153</v>
       </c>
       <c r="I120" t="n">
         <v>4.1</v>
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4675,10 +4675,10 @@
         <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I121" t="n">
         <v>2.9</v>
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="I122" t="n">
         <v>5.7</v>
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4745,10 +4745,10 @@
         <v>40</v>
       </c>
       <c r="G123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="n">
-        <v>994</v>
+        <v>1084</v>
       </c>
       <c r="I123" t="n">
         <v>2.2</v>
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G124" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="n">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="I124" t="n">
         <v>3.1</v>
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43</v>
       </c>
       <c r="G125" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="n">
         <v>515</v>
@@ -4839,7 +4839,7 @@
         <v>47</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4847,13 +4847,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I126" t="n">
         <v>3.8</v>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4882,13 +4882,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G127" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="n">
-        <v>837</v>
+        <v>927</v>
       </c>
       <c r="I127" t="n">
         <v>3.4</v>
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G128" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="n">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -4944,7 +4944,7 @@
         <v>43</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4952,13 +4952,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="n">
-        <v>874</v>
+        <v>961</v>
       </c>
       <c r="I129" t="n">
         <v>3.8</v>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="n">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="I130" t="n">
         <v>3.3</v>
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G131" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="n">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="I131" t="n">
         <v>3.8</v>
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5060,10 +5060,10 @@
         <v>45</v>
       </c>
       <c r="G132" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="n">
-        <v>915</v>
+        <v>1005</v>
       </c>
       <c r="I132" t="n">
         <v>4.2</v>
@@ -5081,10 +5081,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5095,10 +5095,10 @@
         <v>45</v>
       </c>
       <c r="G133" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="n">
-        <v>896</v>
+        <v>986</v>
       </c>
       <c r="I133" t="n">
         <v>1.7</v>
@@ -5119,7 +5119,7 @@
         <v>52</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I134" t="n">
         <v>1.8</v>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5165,10 +5165,10 @@
         <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I135" t="n">
         <v>2.1</v>
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="n">
-        <v>893</v>
+        <v>983</v>
       </c>
       <c r="I136" t="n">
         <v>3.7</v>
@@ -5224,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5232,10 +5232,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="n">
         <v>532</v>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,13 +5267,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G138" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="n">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="I138" t="n">
         <v>3.6</v>
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G139" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="n">
-        <v>771</v>
+        <v>855</v>
       </c>
       <c r="I139" t="n">
         <v>4.2</v>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G140" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="n">
-        <v>1077</v>
+        <v>1167</v>
       </c>
       <c r="I140" t="n">
         <v>3.9</v>
@@ -5364,7 +5364,7 @@
         <v>34</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G141" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="n">
         <v>960</v>
@@ -5396,10 +5396,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G142" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="n">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="I142" t="n">
         <v>2.5</v>
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G143" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="n">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="I143" t="n">
         <v>6.1</v>
@@ -5469,7 +5469,7 @@
         <v>37</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,10 +5477,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G144" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="n">
         <v>1080</v>
@@ -5504,7 +5504,7 @@
         <v>27</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G145" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="n">
         <v>710</v>
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G146" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="n">
-        <v>742</v>
+        <v>806</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -5574,7 +5574,7 @@
         <v>15</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>45</v>
       </c>
       <c r="G147" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="n">
         <v>675</v>
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G148" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="n">
-        <v>1057</v>
+        <v>1147</v>
       </c>
       <c r="I148" t="n">
         <v>5.4</v>
@@ -5641,10 +5641,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G149" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="n">
-        <v>925</v>
+        <v>989</v>
       </c>
       <c r="I149" t="n">
         <v>2.3</v>
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="n">
-        <v>901</v>
+        <v>977</v>
       </c>
       <c r="I150" t="n">
         <v>3.2</v>
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="n">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="I151" t="n">
         <v>3.1</v>
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G152" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="n">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="I152" t="n">
         <v>2</v>
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="n">
         <v>683</v>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G154" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="n">
         <v>662</v>
@@ -5854,7 +5854,7 @@
         <v>38</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G155" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="n">
-        <v>1014</v>
+        <v>1104</v>
       </c>
       <c r="I155" t="n">
         <v>2.3</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G156" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="n">
-        <v>1018</v>
+        <v>1108</v>
       </c>
       <c r="I156" t="n">
         <v>2.2</v>
@@ -5921,10 +5921,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="n">
-        <v>972</v>
+        <v>1062</v>
       </c>
       <c r="I157" t="n">
         <v>2.7</v>
@@ -5959,7 +5959,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G158" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I158" t="n">
         <v>3.1</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6002,13 +6002,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G159" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="n">
-        <v>827</v>
+        <v>890</v>
       </c>
       <c r="I159" t="n">
         <v>2.3</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="n">
-        <v>975</v>
+        <v>1065</v>
       </c>
       <c r="I160" t="n">
         <v>4.2</v>
@@ -6064,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G161" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="n">
         <v>444</v>
@@ -6099,7 +6099,7 @@
         <v>29</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6107,13 +6107,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G162" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="n">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>1088</v>
+        <v>1178</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>1080</v>
+        <v>1333</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>678</v>
+        <v>851</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>497</v>
+        <v>725</v>
       </c>
       <c r="I5" t="n">
         <v>5.3</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>1017</v>
+        <v>1218</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>1019</v>
+        <v>1289</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>760</v>
+        <v>854</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
         <v>694</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>1170</v>
+        <v>1440</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>922</v>
+        <v>1163</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>605</v>
+        <v>727</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>558</v>
+        <v>738</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>952</v>
+        <v>1163</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ezri Konsa Ngoyo</t>
+          <t>Jhon Durán</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>911</v>
+        <v>478</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Emiliano Martínez Romero</t>
+          <t>Ezri Konsa Ngoyo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -986,33 +986,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>John McGinn</t>
+          <t>Emiliano Martínez Romero</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1021,24 +1021,24 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>709</v>
+        <v>1395</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1047,7 +1047,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>John McGinn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1056,33 +1056,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>1013</v>
+        <v>976</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pau Torres</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1091,68 +1091,68 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>1170</v>
+        <v>1125</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ryan Christie</t>
+          <t>Pau Torres</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>790</v>
+        <v>1350</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lewis Cook</t>
+          <t>Ryan Christie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>1073</v>
+        <v>1041</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Justin Kluivert</t>
+          <t>Lewis Cook</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>772</v>
+        <v>1266</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dango Ouattara</t>
+          <t>Justin Kluivert</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>463</v>
+        <v>976</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Dango Ouattara</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
-        <v>1057</v>
+        <v>606</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1301,33 +1301,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
-        <v>917</v>
+        <v>1298</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Adam Smith</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" t="n">
-        <v>768</v>
+        <v>917</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Marcus Tavernier</t>
+          <t>Adam Smith</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1371,33 +1371,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H27" t="n">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Illia Zabarnyi</t>
+          <t>Marcus Tavernier</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1406,33 +1406,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H28" t="n">
-        <v>1170</v>
+        <v>1138</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Milos Kerkez</t>
+          <t>Illia Zabarnyi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1441,45 +1441,45 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>46</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>63</v>
-      </c>
       <c r="G29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H29" t="n">
-        <v>1097</v>
+        <v>1440</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kristoffer Ajer</t>
+          <t>Milos Kerkez</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,22 +1487,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30" t="n">
-        <v>637</v>
+        <v>1367</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mikkel Damsgaard</t>
+          <t>Kristoffer Ajer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1511,33 +1511,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H31" t="n">
-        <v>929</v>
+        <v>651</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mark Flekken</t>
+          <t>Mikkel Damsgaard</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1546,33 +1546,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H32" t="n">
-        <v>1170</v>
+        <v>1098</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Vitaly Janelt</t>
+          <t>Mark Flekken</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1581,33 +1581,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H33" t="n">
-        <v>1037</v>
+        <v>1440</v>
       </c>
       <c r="I33" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mathias Jensen</t>
+          <t>Vitaly Janelt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G34" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" t="n">
-        <v>477</v>
+        <v>1154</v>
       </c>
       <c r="I34" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Mathias Jensen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,22 +1662,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H35" t="n">
-        <v>943</v>
+        <v>477</v>
       </c>
       <c r="I35" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H36" t="n">
-        <v>1165</v>
+        <v>1197</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Christian Nørgaard</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" t="n">
-        <v>884</v>
+        <v>1435</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ethan Pinnock</t>
+          <t>Christian Nørgaard</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,33 +1756,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" t="n">
-        <v>1170</v>
+        <v>1064</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mads Roerslev Rasmussen</t>
+          <t>Ethan Pinnock</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,22 +1802,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" t="n">
-        <v>451</v>
+        <v>1440</v>
       </c>
       <c r="I39" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>Mads Roerslev Rasmussen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,33 +1826,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" t="n">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1861,45 +1861,45 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H41" t="n">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>439</v>
+        <v>957</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bart Verbruggen</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1931,33 +1931,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H43" t="n">
-        <v>990</v>
+        <v>678</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,33 +1966,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H44" t="n">
-        <v>1091</v>
+        <v>1260</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Igor Julio dos Santos de Paulo</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,33 +2001,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H45" t="n">
-        <v>654</v>
+        <v>1111</v>
       </c>
       <c r="I45" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Igor Julio dos Santos de Paulo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,45 +2036,45 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H46" t="n">
-        <v>673</v>
+        <v>745</v>
       </c>
       <c r="I46" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,22 +2082,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H47" t="n">
-        <v>1145</v>
+        <v>895</v>
       </c>
       <c r="I47" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2106,33 +2106,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H48" t="n">
-        <v>1170</v>
+        <v>1415</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H49" t="n">
-        <v>917</v>
+        <v>1350</v>
       </c>
       <c r="I49" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H50" t="n">
-        <v>730</v>
+        <v>1175</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G51" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
-        <v>857</v>
+        <v>955</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,33 +2246,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H52" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I52" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2281,45 +2281,45 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H53" t="n">
-        <v>1130</v>
+        <v>1182</v>
       </c>
       <c r="I53" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2327,22 +2327,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H54" t="n">
-        <v>874</v>
+        <v>1388</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2351,33 +2351,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G55" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H55" t="n">
-        <v>1170</v>
+        <v>1079</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jefferson Lerma Solís</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2386,33 +2386,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G56" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H56" t="n">
-        <v>530</v>
+        <v>1440</v>
       </c>
       <c r="I56" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Jefferson Lerma Solís</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2421,33 +2421,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G57" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H57" t="n">
-        <v>932</v>
+        <v>755</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2456,33 +2456,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F58" t="n">
         <v>61</v>
       </c>
       <c r="G58" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H58" t="n">
-        <v>1120</v>
+        <v>1171</v>
       </c>
       <c r="I58" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H59" t="n">
-        <v>1170</v>
+        <v>1384</v>
       </c>
       <c r="I59" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,33 +2526,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G60" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>1084</v>
+        <v>1440</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,68 +2561,68 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G61" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H61" t="n">
-        <v>621</v>
+        <v>1354</v>
       </c>
       <c r="I61" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G62" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H62" t="n">
-        <v>366</v>
+        <v>621</v>
       </c>
       <c r="I62" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2631,33 +2631,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G63" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H63" t="n">
-        <v>1011</v>
+        <v>546</v>
       </c>
       <c r="I63" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2666,33 +2666,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H64" t="n">
-        <v>810</v>
+        <v>1158</v>
       </c>
       <c r="I64" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2715,19 +2715,19 @@
         <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H65" t="n">
-        <v>889</v>
+        <v>982</v>
       </c>
       <c r="I65" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2739,30 +2739,30 @@
         <v>32</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G66" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H66" t="n">
-        <v>810</v>
+        <v>1069</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,33 +2771,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H67" t="n">
-        <v>1067</v>
+        <v>810</v>
       </c>
       <c r="I67" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,33 +2806,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H68" t="n">
-        <v>1170</v>
+        <v>1140</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,33 +2841,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F69" t="n">
         <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H69" t="n">
-        <v>1161</v>
+        <v>1350</v>
       </c>
       <c r="I69" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2890,54 +2890,54 @@
         <v>64</v>
       </c>
       <c r="G70" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H70" t="n">
-        <v>947</v>
+        <v>1341</v>
       </c>
       <c r="I70" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H71" t="n">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="I71" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2960,19 +2960,19 @@
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H72" t="n">
-        <v>893</v>
+        <v>1390</v>
       </c>
       <c r="I72" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2981,33 +2981,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F73" t="n">
         <v>40</v>
       </c>
       <c r="G73" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H73" t="n">
-        <v>480</v>
+        <v>1010</v>
       </c>
       <c r="I73" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,33 +3016,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H74" t="n">
-        <v>1170</v>
+        <v>750</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,33 +3051,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H75" t="n">
-        <v>351</v>
+        <v>1440</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,33 +3086,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G76" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H76" t="n">
-        <v>1170</v>
+        <v>463</v>
       </c>
       <c r="I76" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3132,22 +3132,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G77" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H77" t="n">
-        <v>1118</v>
+        <v>1440</v>
       </c>
       <c r="I77" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,33 +3156,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G78" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H78" t="n">
-        <v>809</v>
+        <v>1262</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,33 +3191,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H79" t="n">
-        <v>1170</v>
+        <v>964</v>
       </c>
       <c r="I79" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3226,68 +3226,68 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F80" t="n">
         <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H80" t="n">
-        <v>735</v>
+        <v>1350</v>
       </c>
       <c r="I80" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G81" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H81" t="n">
-        <v>938</v>
+        <v>816</v>
       </c>
       <c r="I81" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3296,33 +3296,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G82" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H82" t="n">
-        <v>528</v>
+        <v>1039</v>
       </c>
       <c r="I82" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3331,33 +3331,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G83" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H83" t="n">
-        <v>529</v>
+        <v>618</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3366,33 +3366,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G84" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H84" t="n">
-        <v>492</v>
+        <v>639</v>
       </c>
       <c r="I84" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F85" t="n">
         <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H85" t="n">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F86" t="n">
         <v>53</v>
       </c>
       <c r="G86" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H86" t="n">
-        <v>474</v>
+        <v>682</v>
       </c>
       <c r="I86" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H87" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="I87" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Caoimhin Kelleher</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G88" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H88" t="n">
-        <v>974</v>
+        <v>720</v>
       </c>
       <c r="I88" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,33 +3541,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G89" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H89" t="n">
-        <v>764</v>
+        <v>974</v>
       </c>
       <c r="I89" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3587,22 +3587,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G90" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H90" t="n">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="I90" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,24 +3611,24 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F91" t="n">
         <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H91" t="n">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="I91" t="n">
         <v>3.3</v>
@@ -3637,7 +3637,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,33 +3646,33 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G92" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H92" t="n">
-        <v>1137</v>
+        <v>1041</v>
       </c>
       <c r="I92" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3692,22 +3692,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G93" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H93" t="n">
-        <v>924</v>
+        <v>1317</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,33 +3716,33 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G94" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H94" t="n">
-        <v>1170</v>
+        <v>1025</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3751,68 +3751,68 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G95" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H95" t="n">
-        <v>1170</v>
+        <v>1350</v>
       </c>
       <c r="I95" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H96" t="n">
-        <v>961</v>
+        <v>1326</v>
       </c>
       <c r="I96" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3821,33 +3821,33 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H97" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I97" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,22 +3867,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G98" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H98" t="n">
-        <v>399</v>
+        <v>1284</v>
       </c>
       <c r="I98" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,33 +3891,33 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G99" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H99" t="n">
-        <v>816</v>
+        <v>624</v>
       </c>
       <c r="I99" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,33 +3926,33 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F100" t="n">
         <v>45</v>
       </c>
       <c r="G100" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H100" t="n">
-        <v>628</v>
+        <v>1086</v>
       </c>
       <c r="I100" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3972,22 +3972,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G101" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H101" t="n">
-        <v>370</v>
+        <v>718</v>
       </c>
       <c r="I101" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,33 +3996,33 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G102" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H102" t="n">
-        <v>1169</v>
+        <v>476</v>
       </c>
       <c r="I102" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,33 +4031,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G103" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H103" t="n">
-        <v>878</v>
+        <v>1439</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,33 +4066,33 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G104" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H104" t="n">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="I104" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4112,22 +4112,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G105" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H105" t="n">
-        <v>647</v>
+        <v>1022</v>
       </c>
       <c r="I105" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4150,19 +4150,19 @@
         <v>48</v>
       </c>
       <c r="G106" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H106" t="n">
-        <v>1032</v>
+        <v>872</v>
       </c>
       <c r="I106" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Matheus Luiz Nunes</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4185,66 +4185,66 @@
         <v>44</v>
       </c>
       <c r="G107" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H107" t="n">
-        <v>436</v>
+        <v>527</v>
       </c>
       <c r="I107" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G108" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H108" t="n">
-        <v>658</v>
+        <v>1302</v>
       </c>
       <c r="I108" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4252,22 +4252,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G109" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H109" t="n">
-        <v>1084</v>
+        <v>612</v>
       </c>
       <c r="I109" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,22 +4287,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G110" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H110" t="n">
-        <v>743</v>
+        <v>883</v>
       </c>
       <c r="I110" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4311,33 +4311,33 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F111" t="n">
         <v>70</v>
       </c>
       <c r="G111" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H111" t="n">
-        <v>1136</v>
+        <v>1339</v>
       </c>
       <c r="I111" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4360,19 +4360,19 @@
         <v>72</v>
       </c>
       <c r="G112" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H112" t="n">
-        <v>505</v>
+        <v>743</v>
       </c>
       <c r="I112" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,33 +4381,33 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F113" t="n">
         <v>55</v>
       </c>
       <c r="G113" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H113" t="n">
-        <v>821</v>
+        <v>1406</v>
       </c>
       <c r="I113" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G114" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H114" t="n">
-        <v>650</v>
+        <v>505</v>
       </c>
       <c r="I114" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,33 +4451,33 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G115" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H115" t="n">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="I115" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H116" t="n">
-        <v>913</v>
+        <v>816</v>
       </c>
       <c r="I116" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,33 +4521,33 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F117" t="n">
         <v>49</v>
       </c>
       <c r="G117" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H117" t="n">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="I117" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4556,103 +4556,103 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G118" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H118" t="n">
-        <v>436</v>
+        <v>975</v>
       </c>
       <c r="I118" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F119" t="n">
         <v>45</v>
       </c>
       <c r="G119" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H119" t="n">
-        <v>965</v>
+        <v>1440</v>
       </c>
       <c r="I119" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C120" t="n">
+        <v>34</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
         <v>40</v>
       </c>
-      <c r="D120" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>45</v>
-      </c>
       <c r="G120" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H120" t="n">
-        <v>1153</v>
+        <v>681</v>
       </c>
       <c r="I120" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G121" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H121" t="n">
-        <v>1080</v>
+        <v>1227</v>
       </c>
       <c r="I121" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4696,33 +4696,33 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F122" t="n">
         <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H122" t="n">
-        <v>876</v>
+        <v>1396</v>
       </c>
       <c r="I122" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4731,33 +4731,33 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H123" t="n">
-        <v>1084</v>
+        <v>1350</v>
       </c>
       <c r="I123" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G124" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H124" t="n">
-        <v>580</v>
+        <v>1128</v>
       </c>
       <c r="I124" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G125" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H125" t="n">
-        <v>515</v>
+        <v>1320</v>
       </c>
       <c r="I125" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,33 +4836,33 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F126" t="n">
         <v>47</v>
       </c>
       <c r="G126" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H126" t="n">
-        <v>1170</v>
+        <v>681</v>
       </c>
       <c r="I126" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,33 +4871,33 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F127" t="n">
         <v>53</v>
       </c>
       <c r="G127" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H127" t="n">
-        <v>927</v>
+        <v>710</v>
       </c>
       <c r="I127" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4906,80 +4906,80 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G128" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H128" t="n">
-        <v>604</v>
+        <v>1350</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G129" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H129" t="n">
-        <v>961</v>
+        <v>1197</v>
       </c>
       <c r="I129" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G130" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H130" t="n">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="I130" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G131" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H131" t="n">
-        <v>704</v>
+        <v>1140</v>
       </c>
       <c r="I131" t="n">
         <v>3.8</v>
@@ -5037,7 +5037,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5046,33 +5046,33 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G132" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H132" t="n">
-        <v>1005</v>
+        <v>817</v>
       </c>
       <c r="I132" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5081,10 +5081,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5095,19 +5095,19 @@
         <v>45</v>
       </c>
       <c r="G133" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H133" t="n">
-        <v>986</v>
+        <v>934</v>
       </c>
       <c r="I133" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5116,33 +5116,33 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H134" t="n">
-        <v>1170</v>
+        <v>1234</v>
       </c>
       <c r="I134" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5151,103 +5151,103 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F135" t="n">
         <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H135" t="n">
-        <v>1170</v>
+        <v>1188</v>
       </c>
       <c r="I135" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G136" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H136" t="n">
-        <v>983</v>
+        <v>1417</v>
       </c>
       <c r="I136" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H137" t="n">
-        <v>532</v>
+        <v>1440</v>
       </c>
       <c r="I137" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,22 +5267,22 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G138" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H138" t="n">
-        <v>970</v>
+        <v>1170</v>
       </c>
       <c r="I138" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,22 +5302,22 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G139" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H139" t="n">
-        <v>855</v>
+        <v>532</v>
       </c>
       <c r="I139" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5326,33 +5326,33 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G140" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H140" t="n">
-        <v>1167</v>
+        <v>1228</v>
       </c>
       <c r="I140" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5361,33 +5361,33 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G141" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H141" t="n">
-        <v>960</v>
+        <v>1021</v>
       </c>
       <c r="I141" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,33 +5396,33 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G142" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H142" t="n">
-        <v>612</v>
+        <v>1347</v>
       </c>
       <c r="I142" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,33 +5431,33 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G143" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H143" t="n">
-        <v>816</v>
+        <v>974</v>
       </c>
       <c r="I143" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5466,33 +5466,33 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G144" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H144" t="n">
-        <v>1080</v>
+        <v>848</v>
       </c>
       <c r="I144" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5501,103 +5501,103 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G145" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H145" t="n">
-        <v>710</v>
+        <v>984</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G146" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H146" t="n">
-        <v>806</v>
+        <v>1080</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Micky van de Ven</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G147" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H147" t="n">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="I147" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5606,33 +5606,33 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G148" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H148" t="n">
-        <v>1147</v>
+        <v>834</v>
       </c>
       <c r="I148" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5641,33 +5641,33 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G149" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H149" t="n">
-        <v>989</v>
+        <v>675</v>
       </c>
       <c r="I149" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5690,19 +5690,19 @@
         <v>49</v>
       </c>
       <c r="G150" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H150" t="n">
-        <v>977</v>
+        <v>1417</v>
       </c>
       <c r="I150" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5711,33 +5711,33 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F151" t="n">
         <v>50</v>
       </c>
       <c r="G151" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H151" t="n">
-        <v>832</v>
+        <v>1104</v>
       </c>
       <c r="I151" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5760,19 +5760,19 @@
         <v>44</v>
       </c>
       <c r="G152" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H152" t="n">
-        <v>452</v>
+        <v>1121</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5781,33 +5781,33 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F153" t="n">
         <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H153" t="n">
-        <v>683</v>
+        <v>1073</v>
       </c>
       <c r="I153" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5830,31 +5830,31 @@
         <v>40</v>
       </c>
       <c r="G154" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H154" t="n">
-        <v>662</v>
+        <v>703</v>
       </c>
       <c r="I154" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,34 +5862,34 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G155" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H155" t="n">
-        <v>1104</v>
+        <v>953</v>
       </c>
       <c r="I155" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,22 +5897,22 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G156" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H156" t="n">
-        <v>1108</v>
+        <v>900</v>
       </c>
       <c r="I156" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5921,33 +5921,33 @@
         </is>
       </c>
       <c r="C157" t="n">
+        <v>40</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
         <v>43</v>
       </c>
-      <c r="D157" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>44</v>
-      </c>
       <c r="G157" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H157" t="n">
-        <v>1062</v>
+        <v>1369</v>
       </c>
       <c r="I157" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>José Malheiro de Sá</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5956,33 +5956,33 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F158" t="n">
         <v>45</v>
       </c>
       <c r="G158" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H158" t="n">
-        <v>720</v>
+        <v>1268</v>
       </c>
       <c r="I158" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Toti António Gomes</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5991,33 +5991,33 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G159" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H159" t="n">
-        <v>890</v>
+        <v>1332</v>
       </c>
       <c r="I159" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6026,33 +6026,33 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G160" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H160" t="n">
-        <v>1065</v>
+        <v>810</v>
       </c>
       <c r="I160" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Santiago Bueno</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6075,47 +6075,152 @@
         <v>40</v>
       </c>
       <c r="G161" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H161" t="n">
-        <v>444</v>
+        <v>1083</v>
       </c>
       <c r="I161" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>Matheus Santos Carneiro Da Cunha</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>98</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>45</v>
+      </c>
+      <c r="G162" t="n">
+        <v>17</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1335</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Matt Doherty</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>20</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>38</v>
+      </c>
+      <c r="G163" t="n">
+        <v>17</v>
+      </c>
+      <c r="H163" t="n">
+        <v>441</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Santiago Bueno</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>18</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>84</v>
+      </c>
+      <c r="G164" t="n">
+        <v>17</v>
+      </c>
+      <c r="H164" t="n">
+        <v>700</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
           <t>Jean-Ricner Bellegarde</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Wolves</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>29</v>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
-        <v>38</v>
-      </c>
-      <c r="G162" t="n">
-        <v>14</v>
-      </c>
-      <c r="H162" t="n">
-        <v>624</v>
-      </c>
-      <c r="I162" t="n">
+      <c r="C165" t="n">
+        <v>33</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>75</v>
+      </c>
+      <c r="G165" t="n">
+        <v>17</v>
+      </c>
+      <c r="H165" t="n">
+        <v>723</v>
+      </c>
+      <c r="I165" t="n">
         <v>2</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>1178</v>
+        <v>1268</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>1333</v>
+        <v>1390</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>851</v>
+        <v>941</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="I5" t="n">
         <v>5.3</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>1218</v>
+        <v>1308</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>1289</v>
+        <v>1379</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>854</v>
+        <v>920</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
         <v>694</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>1163</v>
+        <v>1195</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
         <v>727</v>
@@ -884,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
         <v>738</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>1163</v>
+        <v>1253</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="I15" t="n">
         <v>2.2</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>1181</v>
+        <v>1271</v>
       </c>
       <c r="I16" t="n">
         <v>2.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>1395</v>
+        <v>1485</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>976</v>
+        <v>1066</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="I19" t="n">
         <v>6.2</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I20" t="n">
         <v>2.9</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>1041</v>
+        <v>1131</v>
       </c>
       <c r="I21" t="n">
         <v>2.4</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>52</v>
       </c>
       <c r="G22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>1266</v>
+        <v>1311</v>
       </c>
       <c r="I22" t="n">
         <v>2.3</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>976</v>
+        <v>1053</v>
       </c>
       <c r="I23" t="n">
         <v>3.1</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H24" t="n">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="I24" t="n">
         <v>1.9</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>1298</v>
+        <v>1386</v>
       </c>
       <c r="I25" t="n">
         <v>3.2</v>
@@ -1339,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" t="n">
         <v>917</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" t="n">
-        <v>987</v>
+        <v>1032</v>
       </c>
       <c r="I27" t="n">
         <v>2.9</v>
@@ -1409,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" t="n">
         <v>1138</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>46</v>
       </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I29" t="n">
         <v>2.3</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>63</v>
       </c>
       <c r="G30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30" t="n">
-        <v>1367</v>
+        <v>1457</v>
       </c>
       <c r="I30" t="n">
         <v>2.1</v>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H31" t="n">
-        <v>651</v>
+        <v>717</v>
       </c>
       <c r="I31" t="n">
         <v>2.4</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H32" t="n">
-        <v>1098</v>
+        <v>1188</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H33" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>49</v>
       </c>
       <c r="G34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H34" t="n">
-        <v>1154</v>
+        <v>1220</v>
       </c>
       <c r="I34" t="n">
         <v>2.4</v>
@@ -1654,7 +1654,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>51</v>
       </c>
       <c r="G35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H35" t="n">
         <v>477</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>47</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" t="n">
-        <v>1197</v>
+        <v>1287</v>
       </c>
       <c r="I36" t="n">
         <v>2.4</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H37" t="n">
-        <v>1435</v>
+        <v>1525</v>
       </c>
       <c r="I37" t="n">
         <v>5.1</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H38" t="n">
-        <v>1064</v>
+        <v>1154</v>
       </c>
       <c r="I38" t="n">
         <v>2.4</v>
@@ -1794,7 +1794,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H39" t="n">
         <v>1440</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>45</v>
       </c>
       <c r="G40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H40" t="n">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="I40" t="n">
         <v>2.2</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H41" t="n">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>43</v>
       </c>
       <c r="G42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H42" t="n">
-        <v>957</v>
+        <v>1047</v>
       </c>
       <c r="I42" t="n">
         <v>3.9</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" t="n">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="I43" t="n">
         <v>3.4</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H44" t="n">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="I44" t="n">
         <v>3.2</v>
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H45" t="n">
         <v>1111</v>
@@ -2039,7 +2039,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H46" t="n">
         <v>745</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H47" t="n">
-        <v>895</v>
+        <v>985</v>
       </c>
       <c r="I47" t="n">
         <v>1.3</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>1415</v>
+        <v>1505</v>
       </c>
       <c r="I48" t="n">
         <v>2.4</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H49" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I49" t="n">
         <v>2.8</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50" t="n">
         <v>1175</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" t="n">
-        <v>955</v>
+        <v>1045</v>
       </c>
       <c r="I51" t="n">
         <v>2.7</v>
@@ -2249,7 +2249,7 @@
         <v>76</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H52" t="n">
-        <v>1022</v>
+        <v>1036</v>
       </c>
       <c r="I52" t="n">
         <v>3.3</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H53" t="n">
-        <v>1182</v>
+        <v>1257</v>
       </c>
       <c r="I53" t="n">
         <v>4.1</v>
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H54" t="n">
-        <v>1388</v>
+        <v>1478</v>
       </c>
       <c r="I54" t="n">
         <v>7.2</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H55" t="n">
         <v>1079</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I56" t="n">
         <v>2.6</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2432,13 +2432,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G57" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H57" t="n">
-        <v>755</v>
+        <v>822</v>
       </c>
       <c r="I57" t="n">
         <v>2.3</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>1171</v>
+        <v>1251</v>
       </c>
       <c r="I58" t="n">
         <v>4.7</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H59" t="n">
-        <v>1384</v>
+        <v>1474</v>
       </c>
       <c r="I59" t="n">
         <v>3.2</v>
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I60" t="n">
         <v>2.7</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H61" t="n">
         <v>1354</v>
@@ -2599,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H62" t="n">
         <v>621</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2642,13 +2642,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H63" t="n">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="I63" t="n">
         <v>3.5</v>
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H64" t="n">
-        <v>1158</v>
+        <v>1230</v>
       </c>
       <c r="I64" t="n">
         <v>3.2</v>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H65" t="n">
-        <v>982</v>
+        <v>1072</v>
       </c>
       <c r="I65" t="n">
         <v>3.6</v>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H66" t="n">
-        <v>1069</v>
+        <v>1159</v>
       </c>
       <c r="I66" t="n">
         <v>2.9</v>
@@ -2774,7 +2774,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H67" t="n">
         <v>810</v>
@@ -2809,7 +2809,7 @@
         <v>65</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H68" t="n">
         <v>1140</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2852,13 +2852,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I69" t="n">
         <v>4</v>
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H70" t="n">
-        <v>1341</v>
+        <v>1431</v>
       </c>
       <c r="I70" t="n">
         <v>3.1</v>
@@ -2914,7 +2914,7 @@
         <v>67</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H71" t="n">
-        <v>1127</v>
+        <v>1199</v>
       </c>
       <c r="I71" t="n">
         <v>2.5</v>
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H72" t="n">
-        <v>1390</v>
+        <v>1480</v>
       </c>
       <c r="I72" t="n">
         <v>3.2</v>
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G73" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H73" t="n">
         <v>1010</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3030,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74" t="n">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="I74" t="n">
         <v>2.4</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3062,13 +3062,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H75" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I75" t="n">
         <v>3.5</v>
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H76" t="n">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="I76" t="n">
         <v>3.7</v>
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H77" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I77" t="n">
         <v>2.8</v>
@@ -3159,7 +3159,7 @@
         <v>37</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3167,10 +3167,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H78" t="n">
         <v>1262</v>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G79" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H79" t="n">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3240,10 +3240,10 @@
         <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H80" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I80" t="n">
         <v>2.3</v>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H81" t="n">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="I81" t="n">
         <v>2.1</v>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G82" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H82" t="n">
-        <v>1039</v>
+        <v>1129</v>
       </c>
       <c r="I82" t="n">
         <v>4.4</v>
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H83" t="n">
-        <v>618</v>
+        <v>708</v>
       </c>
       <c r="I83" t="n">
         <v>3.8</v>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H84" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I84" t="n">
         <v>3.7</v>
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85" t="n">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="I85" t="n">
         <v>5.2</v>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" t="n">
-        <v>682</v>
+        <v>749</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3482,13 +3482,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H87" t="n">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="I87" t="n">
         <v>1.7</v>
@@ -3509,7 +3509,7 @@
         <v>37</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H88" t="n">
         <v>720</v>
@@ -3544,7 +3544,7 @@
         <v>46</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3552,10 +3552,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H89" t="n">
         <v>974</v>
@@ -3579,7 +3579,7 @@
         <v>86</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3587,13 +3587,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H90" t="n">
-        <v>877</v>
+        <v>963</v>
       </c>
       <c r="I90" t="n">
         <v>3.8</v>
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H91" t="n">
-        <v>984</v>
+        <v>1051</v>
       </c>
       <c r="I91" t="n">
         <v>3.3</v>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G92" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H92" t="n">
-        <v>1041</v>
+        <v>1131</v>
       </c>
       <c r="I92" t="n">
         <v>3.3</v>
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3692,13 +3692,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G93" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H93" t="n">
-        <v>1317</v>
+        <v>1403</v>
       </c>
       <c r="I93" t="n">
         <v>6.6</v>
@@ -3719,7 +3719,7 @@
         <v>60</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H94" t="n">
-        <v>1025</v>
+        <v>1115</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3765,10 +3765,10 @@
         <v>48</v>
       </c>
       <c r="G95" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H95" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I95" t="n">
         <v>3.2</v>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3797,13 +3797,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G96" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H96" t="n">
-        <v>1326</v>
+        <v>1416</v>
       </c>
       <c r="I96" t="n">
         <v>1.7</v>
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G97" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H97" t="n">
-        <v>1006</v>
+        <v>1096</v>
       </c>
       <c r="I97" t="n">
         <v>3.7</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G98" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H98" t="n">
-        <v>1284</v>
+        <v>1374</v>
       </c>
       <c r="I98" t="n">
         <v>4.3</v>
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G99" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H99" t="n">
         <v>624</v>
@@ -3929,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H100" t="n">
         <v>1086</v>
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H101" t="n">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="I101" t="n">
         <v>6.6</v>
@@ -3999,7 +3999,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4007,13 +4007,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H102" t="n">
-        <v>476</v>
+        <v>566</v>
       </c>
       <c r="I102" t="n">
         <v>2.5</v>
@@ -4034,7 +4034,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H103" t="n">
-        <v>1439</v>
+        <v>1529</v>
       </c>
       <c r="I103" t="n">
         <v>7</v>
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H104" t="n">
-        <v>900</v>
+        <v>983</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4112,13 +4112,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H105" t="n">
-        <v>1022</v>
+        <v>1112</v>
       </c>
       <c r="I105" t="n">
         <v>3.2</v>
@@ -4139,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G106" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H106" t="n">
-        <v>872</v>
+        <v>917</v>
       </c>
       <c r="I106" t="n">
         <v>3.8</v>
@@ -4174,7 +4174,7 @@
         <v>28</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H107" t="n">
         <v>527</v>
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4217,13 +4217,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G108" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H108" t="n">
-        <v>1302</v>
+        <v>1392</v>
       </c>
       <c r="I108" t="n">
         <v>4.4</v>
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H109" t="n">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="I109" t="n">
         <v>3.4</v>
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G110" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H110" t="n">
-        <v>883</v>
+        <v>973</v>
       </c>
       <c r="I110" t="n">
         <v>2.6</v>
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H111" t="n">
-        <v>1339</v>
+        <v>1429</v>
       </c>
       <c r="I111" t="n">
         <v>4.7</v>
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H112" t="n">
         <v>743</v>
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G113" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H113" t="n">
-        <v>1406</v>
+        <v>1496</v>
       </c>
       <c r="I113" t="n">
         <v>3.1</v>
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G114" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H114" t="n">
         <v>505</v>
@@ -4451,10 +4451,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H115" t="n">
-        <v>937</v>
+        <v>972</v>
       </c>
       <c r="I115" t="n">
         <v>3.6</v>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G116" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H116" t="n">
-        <v>816</v>
+        <v>906</v>
       </c>
       <c r="I116" t="n">
         <v>3.2</v>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4532,13 +4532,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H117" t="n">
-        <v>1156</v>
+        <v>1246</v>
       </c>
       <c r="I117" t="n">
         <v>1.4</v>
@@ -4559,7 +4559,7 @@
         <v>54</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H118" t="n">
         <v>975</v>
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H119" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I119" t="n">
         <v>3.5</v>
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H120" t="n">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="I120" t="n">
         <v>3.7</v>
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H121" t="n">
-        <v>1227</v>
+        <v>1317</v>
       </c>
       <c r="I121" t="n">
         <v>2.1</v>
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G122" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H122" t="n">
-        <v>1396</v>
+        <v>1475</v>
       </c>
       <c r="I122" t="n">
         <v>4.1</v>
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4745,10 +4745,10 @@
         <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H123" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I123" t="n">
         <v>2.9</v>
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4780,10 +4780,10 @@
         <v>45</v>
       </c>
       <c r="G124" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H124" t="n">
-        <v>1128</v>
+        <v>1200</v>
       </c>
       <c r="I124" t="n">
         <v>5.7</v>
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4812,10 +4812,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G125" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H125" t="n">
         <v>1320</v>
@@ -4839,7 +4839,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4847,13 +4847,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G126" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H126" t="n">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="I126" t="n">
         <v>3.1</v>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4882,13 +4882,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G127" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H127" t="n">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="I127" t="n">
         <v>3.9</v>
@@ -4909,7 +4909,7 @@
         <v>48</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G128" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H128" t="n">
         <v>1350</v>
@@ -4941,24 +4941,24 @@
         </is>
       </c>
       <c r="C129" t="n">
+        <v>50</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
         <v>44</v>
       </c>
-      <c r="D129" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>48</v>
-      </c>
       <c r="G129" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H129" t="n">
-        <v>1197</v>
+        <v>1287</v>
       </c>
       <c r="I129" t="n">
         <v>3.4</v>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G130" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H130" t="n">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G131" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H131" t="n">
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="I131" t="n">
         <v>3.8</v>
@@ -5046,24 +5046,24 @@
         </is>
       </c>
       <c r="C132" t="n">
+        <v>56</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
         <v>45</v>
       </c>
-      <c r="D132" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>57</v>
-      </c>
       <c r="G132" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H132" t="n">
-        <v>817</v>
+        <v>880</v>
       </c>
       <c r="I132" t="n">
         <v>3.3</v>
@@ -5081,10 +5081,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G133" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H133" t="n">
-        <v>934</v>
+        <v>1008</v>
       </c>
       <c r="I133" t="n">
         <v>3.8</v>
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G134" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H134" t="n">
-        <v>1234</v>
+        <v>1324</v>
       </c>
       <c r="I134" t="n">
         <v>4.2</v>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5162,13 +5162,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H135" t="n">
-        <v>1188</v>
+        <v>1214</v>
       </c>
       <c r="I135" t="n">
         <v>1.7</v>
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G136" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H136" t="n">
-        <v>1417</v>
+        <v>1507</v>
       </c>
       <c r="I136" t="n">
         <v>1.8</v>
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H137" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I137" t="n">
         <v>2.1</v>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,13 +5267,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G138" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H138" t="n">
-        <v>1170</v>
+        <v>1202</v>
       </c>
       <c r="I138" t="n">
         <v>3.7</v>
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,10 +5302,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G139" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H139" t="n">
         <v>532</v>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G140" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H140" t="n">
-        <v>1228</v>
+        <v>1318</v>
       </c>
       <c r="I140" t="n">
         <v>3.6</v>
@@ -5364,7 +5364,7 @@
         <v>97</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5372,13 +5372,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H141" t="n">
-        <v>1021</v>
+        <v>1078</v>
       </c>
       <c r="I141" t="n">
         <v>4.2</v>
@@ -5396,10 +5396,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H142" t="n">
-        <v>1347</v>
+        <v>1437</v>
       </c>
       <c r="I142" t="n">
         <v>3.9</v>
@@ -5434,7 +5434,7 @@
         <v>35</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G143" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H143" t="n">
         <v>974</v>
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,13 +5477,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H144" t="n">
-        <v>848</v>
+        <v>905</v>
       </c>
       <c r="I144" t="n">
         <v>2.5</v>
@@ -5501,10 +5501,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G145" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H145" t="n">
-        <v>984</v>
+        <v>1065</v>
       </c>
       <c r="I145" t="n">
         <v>6.1</v>
@@ -5539,7 +5539,7 @@
         <v>37</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G146" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H146" t="n">
         <v>1080</v>
@@ -5574,7 +5574,7 @@
         <v>28</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G147" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H147" t="n">
         <v>788</v>
@@ -5609,7 +5609,7 @@
         <v>42</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G148" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H148" t="n">
         <v>834</v>
@@ -5641,10 +5641,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G149" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H149" t="n">
         <v>675</v>
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H150" t="n">
-        <v>1417</v>
+        <v>1507</v>
       </c>
       <c r="I150" t="n">
         <v>5.4</v>
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,13 +5722,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H151" t="n">
-        <v>1104</v>
+        <v>1174</v>
       </c>
       <c r="I151" t="n">
         <v>2.3</v>
@@ -5749,7 +5749,7 @@
         <v>50</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5760,10 +5760,10 @@
         <v>44</v>
       </c>
       <c r="G152" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H152" t="n">
-        <v>1121</v>
+        <v>1191</v>
       </c>
       <c r="I152" t="n">
         <v>3.2</v>
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5795,10 +5795,10 @@
         <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H153" t="n">
-        <v>1073</v>
+        <v>1163</v>
       </c>
       <c r="I153" t="n">
         <v>3.1</v>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G154" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H154" t="n">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G155" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H155" t="n">
-        <v>953</v>
+        <v>998</v>
       </c>
       <c r="I155" t="n">
         <v>2.1</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G156" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H156" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I156" t="n">
         <v>4.2</v>
@@ -5921,10 +5921,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G157" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H157" t="n">
         <v>1369</v>
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5970,10 +5970,10 @@
         <v>45</v>
       </c>
       <c r="G158" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H158" t="n">
-        <v>1268</v>
+        <v>1356</v>
       </c>
       <c r="I158" t="n">
         <v>2.2</v>
@@ -5994,7 +5994,7 @@
         <v>46</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6002,10 +6002,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G159" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H159" t="n">
         <v>1332</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G160" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H160" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I160" t="n">
         <v>3.1</v>
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G161" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H161" t="n">
-        <v>1083</v>
+        <v>1173</v>
       </c>
       <c r="I161" t="n">
         <v>2.3</v>
@@ -6096,10 +6096,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6107,13 +6107,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G162" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H162" t="n">
-        <v>1335</v>
+        <v>1425</v>
       </c>
       <c r="I162" t="n">
         <v>4.2</v>
@@ -6131,10 +6131,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6142,13 +6142,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G163" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H163" t="n">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="I163" t="n">
         <v>1.4</v>
@@ -6166,10 +6166,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G164" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H164" t="n">
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="I164" t="n">
         <v>1.1</v>
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6212,13 +6212,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G165" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H165" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1268</v>
+        <v>1358</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -534,7 +534,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>1390</v>
+        <v>1480</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>941</v>
+        <v>1031</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>815</v>
+        <v>905</v>
       </c>
       <c r="I5" t="n">
         <v>5.3</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>1379</v>
+        <v>1469</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
-        <v>920</v>
+        <v>1010</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
         <v>694</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1530</v>
+        <v>1620</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>1195</v>
+        <v>1281</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
         <v>738</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>1253</v>
+        <v>1343</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -954,7 +954,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="I15" t="n">
         <v>2.2</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>1271</v>
+        <v>1361</v>
       </c>
       <c r="I16" t="n">
         <v>2.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>1485</v>
+        <v>1575</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>1066</v>
+        <v>1145</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
-        <v>1135</v>
+        <v>1180</v>
       </c>
       <c r="I19" t="n">
         <v>6.2</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I20" t="n">
         <v>2.9</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>1131</v>
+        <v>1221</v>
       </c>
       <c r="I21" t="n">
         <v>2.4</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>52</v>
       </c>
       <c r="G22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" t="n">
-        <v>1311</v>
+        <v>1401</v>
       </c>
       <c r="I22" t="n">
         <v>2.3</v>
@@ -1234,7 +1234,7 @@
         <v>75</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>1053</v>
+        <v>1124</v>
       </c>
       <c r="I23" t="n">
         <v>3.1</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="I24" t="n">
         <v>1.9</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="n">
-        <v>1386</v>
+        <v>1476</v>
       </c>
       <c r="I25" t="n">
         <v>3.2</v>
@@ -1339,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
         <v>917</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" t="n">
         <v>1032</v>
@@ -1409,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28" t="n">
         <v>1138</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>46</v>
       </c>
       <c r="G29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" t="n">
-        <v>1530</v>
+        <v>1620</v>
       </c>
       <c r="I29" t="n">
         <v>2.3</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>63</v>
       </c>
       <c r="G30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>1457</v>
+        <v>1547</v>
       </c>
       <c r="I30" t="n">
         <v>2.1</v>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" t="n">
         <v>717</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
-        <v>1188</v>
+        <v>1278</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
-        <v>1530</v>
+        <v>1565</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>49</v>
       </c>
       <c r="G34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" t="n">
-        <v>1220</v>
+        <v>1310</v>
       </c>
       <c r="I34" t="n">
         <v>2.4</v>
@@ -1642,7 +1642,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mathias Jensen</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,22 +1662,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
-        <v>477</v>
+        <v>1377</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" t="n">
-        <v>1287</v>
+        <v>1615</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Christian Nørgaard</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
-        <v>1525</v>
+        <v>1225</v>
       </c>
       <c r="I37" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Christian Nørgaard</t>
+          <t>Ethan Pinnock</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,33 +1756,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" t="n">
-        <v>1154</v>
+        <v>1440</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ethan Pinnock</t>
+          <t>Mads Roerslev Rasmussen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,22 +1802,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" t="n">
-        <v>1440</v>
+        <v>654</v>
       </c>
       <c r="I39" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mads Roerslev Rasmussen</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,33 +1826,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" t="n">
-        <v>564</v>
+        <v>839</v>
       </c>
       <c r="I40" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1861,45 +1861,45 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" t="n">
-        <v>749</v>
+        <v>1137</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>1047</v>
+        <v>858</v>
       </c>
       <c r="I42" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1931,33 +1931,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>768</v>
+        <v>1440</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bart Verbruggen</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,33 +1966,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" t="n">
-        <v>1350</v>
+        <v>1111</v>
       </c>
       <c r="I44" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Igor Julio dos Santos de Paulo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,33 +2001,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" t="n">
-        <v>1111</v>
+        <v>745</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Igor Julio dos Santos de Paulo</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,45 +2036,45 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H46" t="n">
-        <v>745</v>
+        <v>1075</v>
       </c>
       <c r="I46" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,22 +2082,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47" t="n">
-        <v>985</v>
+        <v>1595</v>
       </c>
       <c r="I47" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2106,33 +2106,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>1505</v>
+        <v>1530</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="n">
-        <v>1440</v>
+        <v>1265</v>
       </c>
       <c r="I49" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" t="n">
-        <v>1175</v>
+        <v>1135</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" t="n">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,33 +2246,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" t="n">
-        <v>1036</v>
+        <v>1329</v>
       </c>
       <c r="I52" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2281,45 +2281,45 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" t="n">
-        <v>1257</v>
+        <v>1568</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2327,22 +2327,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H54" t="n">
-        <v>1478</v>
+        <v>1166</v>
       </c>
       <c r="I54" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2351,33 +2351,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" t="n">
-        <v>1079</v>
+        <v>1620</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>Jefferson Lerma Solís</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2386,33 +2386,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H56" t="n">
-        <v>1530</v>
+        <v>912</v>
       </c>
       <c r="I56" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jefferson Lerma Solís</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2421,33 +2421,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H57" t="n">
-        <v>822</v>
+        <v>1332</v>
       </c>
       <c r="I57" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2459,30 +2459,30 @@
         <v>57</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G58" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H58" t="n">
-        <v>1251</v>
+        <v>1564</v>
       </c>
       <c r="I58" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" t="n">
-        <v>1474</v>
+        <v>1620</v>
       </c>
       <c r="I59" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,33 +2526,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H60" t="n">
-        <v>1530</v>
+        <v>1444</v>
       </c>
       <c r="I60" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,68 +2561,68 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H61" t="n">
-        <v>1354</v>
+        <v>621</v>
       </c>
       <c r="I61" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F62" t="n">
         <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" t="n">
-        <v>621</v>
+        <v>726</v>
       </c>
       <c r="I62" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2631,33 +2631,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H63" t="n">
-        <v>636</v>
+        <v>1299</v>
       </c>
       <c r="I63" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2666,33 +2666,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
-        <v>1230</v>
+        <v>1162</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2704,7 +2704,7 @@
         <v>35</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G65" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" t="n">
-        <v>1072</v>
+        <v>1249</v>
       </c>
       <c r="I65" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2736,33 +2736,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>1159</v>
+        <v>810</v>
       </c>
       <c r="I66" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,33 +2771,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H67" t="n">
-        <v>810</v>
+        <v>1140</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,33 +2806,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
-        <v>1140</v>
+        <v>1530</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,33 +2841,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H69" t="n">
-        <v>1440</v>
+        <v>1521</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2887,57 +2887,57 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H70" t="n">
-        <v>1431</v>
+        <v>1199</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F71" t="n">
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H71" t="n">
-        <v>1199</v>
+        <v>1570</v>
       </c>
       <c r="I71" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2957,22 +2957,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H72" t="n">
-        <v>1480</v>
+        <v>1082</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2981,33 +2981,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>1010</v>
+        <v>930</v>
       </c>
       <c r="I73" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,33 +3016,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H74" t="n">
-        <v>840</v>
+        <v>1620</v>
       </c>
       <c r="I74" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,33 +3051,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G75" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
-        <v>1530</v>
+        <v>540</v>
       </c>
       <c r="I75" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,33 +3086,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G76" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
-        <v>524</v>
+        <v>1620</v>
       </c>
       <c r="I76" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3132,22 +3132,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H77" t="n">
-        <v>1530</v>
+        <v>1262</v>
       </c>
       <c r="I77" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,33 +3156,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H78" t="n">
-        <v>1262</v>
+        <v>1065</v>
       </c>
       <c r="I78" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,33 +3191,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F79" t="n">
         <v>39</v>
       </c>
       <c r="G79" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H79" t="n">
-        <v>992</v>
+        <v>1530</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3226,68 +3226,68 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F80" t="n">
         <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H80" t="n">
-        <v>1440</v>
+        <v>910</v>
       </c>
       <c r="I80" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H81" t="n">
-        <v>844</v>
+        <v>1219</v>
       </c>
       <c r="I81" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3296,33 +3296,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G82" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H82" t="n">
-        <v>1129</v>
+        <v>798</v>
       </c>
       <c r="I82" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3331,33 +3331,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G83" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H83" t="n">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="I83" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3366,33 +3366,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G84" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>642</v>
+        <v>537</v>
       </c>
       <c r="I84" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G85" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H85" t="n">
-        <v>525</v>
+        <v>839</v>
       </c>
       <c r="I85" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H86" t="n">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Caoimhin Kelleher</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H87" t="n">
-        <v>655</v>
+        <v>720</v>
       </c>
       <c r="I87" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H88" t="n">
-        <v>720</v>
+        <v>974</v>
       </c>
       <c r="I88" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,33 +3541,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H89" t="n">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="I89" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3587,22 +3587,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H90" t="n">
-        <v>963</v>
+        <v>1141</v>
       </c>
       <c r="I90" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,24 +3611,24 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F91" t="n">
         <v>46</v>
       </c>
       <c r="G91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H91" t="n">
-        <v>1051</v>
+        <v>1216</v>
       </c>
       <c r="I91" t="n">
         <v>3.3</v>
@@ -3637,7 +3637,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,33 +3646,33 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H92" t="n">
-        <v>1131</v>
+        <v>1493</v>
       </c>
       <c r="I92" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3692,22 +3692,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G93" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H93" t="n">
-        <v>1403</v>
+        <v>1127</v>
       </c>
       <c r="I93" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,33 +3716,33 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H94" t="n">
-        <v>1115</v>
+        <v>1530</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3751,68 +3751,68 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G95" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H95" t="n">
-        <v>1440</v>
+        <v>1502</v>
       </c>
       <c r="I95" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H96" t="n">
-        <v>1416</v>
+        <v>1186</v>
       </c>
       <c r="I96" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3821,33 +3821,33 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G97" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H97" t="n">
-        <v>1096</v>
+        <v>1464</v>
       </c>
       <c r="I97" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,22 +3867,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G98" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H98" t="n">
-        <v>1374</v>
+        <v>639</v>
       </c>
       <c r="I98" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,33 +3891,33 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G99" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H99" t="n">
-        <v>624</v>
+        <v>1086</v>
       </c>
       <c r="I99" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,33 +3926,33 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H100" t="n">
-        <v>1086</v>
+        <v>898</v>
       </c>
       <c r="I100" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3972,22 +3972,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H101" t="n">
-        <v>808</v>
+        <v>566</v>
       </c>
       <c r="I101" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,33 +3996,33 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G102" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H102" t="n">
-        <v>566</v>
+        <v>1619</v>
       </c>
       <c r="I102" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,33 +4031,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H103" t="n">
-        <v>1529</v>
+        <v>1067</v>
       </c>
       <c r="I103" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,33 +4066,33 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H104" t="n">
-        <v>983</v>
+        <v>1202</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4112,22 +4112,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G105" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H105" t="n">
-        <v>1112</v>
+        <v>917</v>
       </c>
       <c r="I105" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Matheus Luiz Nunes</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,33 +4136,33 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G106" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H106" t="n">
-        <v>917</v>
+        <v>527</v>
       </c>
       <c r="I106" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Matheus Luiz Nunes</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4171,33 +4171,33 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G107" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H107" t="n">
-        <v>527</v>
+        <v>1482</v>
       </c>
       <c r="I107" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4206,45 +4206,45 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G108" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H108" t="n">
-        <v>1392</v>
+        <v>692</v>
       </c>
       <c r="I108" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4252,22 +4252,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G109" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H109" t="n">
-        <v>618</v>
+        <v>1051</v>
       </c>
       <c r="I109" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,22 +4287,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G110" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H110" t="n">
-        <v>973</v>
+        <v>1475</v>
       </c>
       <c r="I110" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4322,22 +4322,22 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G111" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H111" t="n">
-        <v>1429</v>
+        <v>770</v>
       </c>
       <c r="I111" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4346,33 +4346,33 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G112" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H112" t="n">
-        <v>743</v>
+        <v>1586</v>
       </c>
       <c r="I112" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,33 +4381,33 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G113" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H113" t="n">
-        <v>1496</v>
+        <v>532</v>
       </c>
       <c r="I113" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H114" t="n">
-        <v>505</v>
+        <v>983</v>
       </c>
       <c r="I114" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,10 +4451,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G115" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H115" t="n">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I115" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4486,33 +4486,33 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G116" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H116" t="n">
-        <v>906</v>
+        <v>1336</v>
       </c>
       <c r="I116" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,33 +4521,33 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H117" t="n">
-        <v>1246</v>
+        <v>975</v>
       </c>
       <c r="I117" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4556,33 +4556,33 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G118" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H118" t="n">
-        <v>975</v>
+        <v>1620</v>
       </c>
       <c r="I118" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4591,68 +4591,68 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G119" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H119" t="n">
-        <v>1530</v>
+        <v>795</v>
       </c>
       <c r="I119" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F120" t="n">
         <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H120" t="n">
-        <v>717</v>
+        <v>1407</v>
       </c>
       <c r="I120" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4661,33 +4661,33 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F121" t="n">
         <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H121" t="n">
-        <v>1317</v>
+        <v>1565</v>
       </c>
       <c r="I121" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4696,33 +4696,33 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H122" t="n">
-        <v>1475</v>
+        <v>1530</v>
       </c>
       <c r="I122" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4731,33 +4731,33 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G123" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H123" t="n">
-        <v>1440</v>
+        <v>1290</v>
       </c>
       <c r="I123" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G124" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H124" t="n">
-        <v>1200</v>
+        <v>1410</v>
       </c>
       <c r="I124" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G125" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H125" t="n">
-        <v>1320</v>
+        <v>707</v>
       </c>
       <c r="I125" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4847,22 +4847,22 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G126" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H126" t="n">
-        <v>707</v>
+        <v>850</v>
       </c>
       <c r="I126" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,33 +4871,33 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G127" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H127" t="n">
-        <v>773</v>
+        <v>1350</v>
       </c>
       <c r="I127" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4906,33 +4906,33 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G128" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H128" t="n">
-        <v>1350</v>
+        <v>1377</v>
       </c>
       <c r="I128" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4941,45 +4941,45 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G129" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H129" t="n">
-        <v>1287</v>
+        <v>756</v>
       </c>
       <c r="I129" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G130" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H130" t="n">
-        <v>744</v>
+        <v>1316</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,22 +5022,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G131" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H131" t="n">
-        <v>1230</v>
+        <v>953</v>
       </c>
       <c r="I131" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5057,22 +5057,22 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H132" t="n">
-        <v>880</v>
+        <v>1089</v>
       </c>
       <c r="I132" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5081,33 +5081,33 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H133" t="n">
-        <v>1008</v>
+        <v>1410</v>
       </c>
       <c r="I133" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5116,33 +5116,33 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H134" t="n">
-        <v>1324</v>
+        <v>1304</v>
       </c>
       <c r="I134" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5151,33 +5151,33 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H135" t="n">
-        <v>1214</v>
+        <v>1597</v>
       </c>
       <c r="I135" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5186,68 +5186,68 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G136" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H136" t="n">
-        <v>1507</v>
+        <v>1620</v>
       </c>
       <c r="I136" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H137" t="n">
-        <v>1530</v>
+        <v>1292</v>
       </c>
       <c r="I137" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,22 +5267,22 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H138" t="n">
-        <v>1202</v>
+        <v>595</v>
       </c>
       <c r="I138" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,22 +5302,22 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G139" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H139" t="n">
-        <v>532</v>
+        <v>1408</v>
       </c>
       <c r="I139" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5337,22 +5337,22 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G140" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H140" t="n">
-        <v>1318</v>
+        <v>1104</v>
       </c>
       <c r="I140" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5361,33 +5361,33 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H141" t="n">
-        <v>1078</v>
+        <v>1446</v>
       </c>
       <c r="I141" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,10 +5396,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5407,22 +5407,22 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G142" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H142" t="n">
-        <v>1437</v>
+        <v>974</v>
       </c>
       <c r="I142" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,33 +5431,33 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G143" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H143" t="n">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="I143" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,22 +5477,22 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G144" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H144" t="n">
-        <v>905</v>
+        <v>1145</v>
       </c>
       <c r="I144" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5501,33 +5501,33 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H145" t="n">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="I145" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Micky van de Ven</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5536,59 +5536,59 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H146" t="n">
-        <v>1080</v>
+        <v>788</v>
       </c>
       <c r="I146" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G147" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H147" t="n">
-        <v>788</v>
+        <v>834</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -5597,7 +5597,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5606,33 +5606,33 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H148" t="n">
-        <v>834</v>
+        <v>729</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5641,33 +5641,33 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G149" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H149" t="n">
-        <v>675</v>
+        <v>1597</v>
       </c>
       <c r="I149" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5676,33 +5676,33 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G150" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H150" t="n">
-        <v>1507</v>
+        <v>1261</v>
       </c>
       <c r="I150" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5711,33 +5711,33 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G151" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H151" t="n">
-        <v>1174</v>
+        <v>1191</v>
       </c>
       <c r="I151" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5757,22 +5757,22 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G152" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H152" t="n">
-        <v>1191</v>
+        <v>1253</v>
       </c>
       <c r="I152" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5792,22 +5792,22 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G153" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H153" t="n">
-        <v>1163</v>
+        <v>837</v>
       </c>
       <c r="I153" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5816,33 +5816,33 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G154" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H154" t="n">
-        <v>792</v>
+        <v>1088</v>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5851,68 +5851,68 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G155" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H155" t="n">
-        <v>998</v>
+        <v>1080</v>
       </c>
       <c r="I155" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G156" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H156" t="n">
-        <v>990</v>
+        <v>1455</v>
       </c>
       <c r="I156" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5921,33 +5921,33 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H157" t="n">
-        <v>1369</v>
+        <v>1428</v>
       </c>
       <c r="I157" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5970,19 +5970,19 @@
         <v>45</v>
       </c>
       <c r="G158" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H158" t="n">
-        <v>1356</v>
+        <v>1332</v>
       </c>
       <c r="I158" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5991,33 +5991,33 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F159" t="n">
         <v>45</v>
       </c>
       <c r="G159" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H159" t="n">
-        <v>1332</v>
+        <v>990</v>
       </c>
       <c r="I159" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>José Malheiro de Sá</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6026,33 +6026,33 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H160" t="n">
-        <v>900</v>
+        <v>1263</v>
       </c>
       <c r="I160" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Toti António Gomes</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,33 +6061,33 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G161" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H161" t="n">
-        <v>1173</v>
+        <v>1515</v>
       </c>
       <c r="I161" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Matt Doherty</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6096,33 +6096,33 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G162" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H162" t="n">
-        <v>1425</v>
+        <v>621</v>
       </c>
       <c r="I162" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Matt Doherty</t>
+          <t>Santiago Bueno</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6131,10 +6131,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6142,22 +6142,22 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G163" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H163" t="n">
-        <v>531</v>
+        <v>880</v>
       </c>
       <c r="I163" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Santiago Bueno</t>
+          <t>Jean-Ricner Bellegarde</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6166,61 +6166,26 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G164" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H164" t="n">
-        <v>790</v>
+        <v>725</v>
       </c>
       <c r="I164" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Jean-Ricner Bellegarde</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>34</v>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>45653</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>79</v>
-      </c>
-      <c r="G165" t="n">
-        <v>18</v>
-      </c>
-      <c r="H165" t="n">
-        <v>724</v>
-      </c>
-      <c r="I165" t="n">
         <v>2</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>1358</v>
+        <v>1448</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -534,7 +534,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
         <v>1480</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>1031</v>
+        <v>1121</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>905</v>
+        <v>992</v>
       </c>
       <c r="I5" t="n">
         <v>5.3</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>1311</v>
+        <v>1401</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>1469</v>
+        <v>1559</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
         <v>694</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>1620</v>
+        <v>1710</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>748</v>
+        <v>824</v>
       </c>
       <c r="I12" t="n">
         <v>4.2</v>
@@ -884,7 +884,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>1343</v>
+        <v>1425</v>
       </c>
       <c r="I14" t="n">
         <v>2.6</v>
@@ -954,7 +954,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
         <v>588</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>1361</v>
+        <v>1451</v>
       </c>
       <c r="I16" t="n">
         <v>2.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>1575</v>
+        <v>1665</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>1145</v>
+        <v>1235</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>1180</v>
+        <v>1270</v>
       </c>
       <c r="I19" t="n">
         <v>6.2</v>
@@ -1129,7 +1129,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>1530</v>
+        <v>1549</v>
       </c>
       <c r="I20" t="n">
         <v>2.9</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>1221</v>
+        <v>1311</v>
       </c>
       <c r="I21" t="n">
         <v>2.4</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>52</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>1401</v>
+        <v>1491</v>
       </c>
       <c r="I22" t="n">
         <v>2.3</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
         <v>1124</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="I24" t="n">
         <v>1.9</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" t="n">
-        <v>1476</v>
+        <v>1566</v>
       </c>
       <c r="I25" t="n">
         <v>3.2</v>
@@ -1339,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
         <v>917</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
         <v>1032</v>
@@ -1409,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" t="n">
         <v>1138</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>46</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>1620</v>
+        <v>1710</v>
       </c>
       <c r="I29" t="n">
         <v>2.3</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>63</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>1547</v>
+        <v>1637</v>
       </c>
       <c r="I30" t="n">
         <v>2.1</v>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
         <v>717</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" t="n">
-        <v>1278</v>
+        <v>1352</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H33" t="n">
-        <v>1565</v>
+        <v>1655</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>49</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>1310</v>
+        <v>1400</v>
       </c>
       <c r="I34" t="n">
         <v>2.4</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>1377</v>
+        <v>1467</v>
       </c>
       <c r="I35" t="n">
         <v>2.4</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>1615</v>
+        <v>1705</v>
       </c>
       <c r="I36" t="n">
         <v>5.1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>1225</v>
+        <v>1299</v>
       </c>
       <c r="I37" t="n">
         <v>2.4</v>
@@ -1759,7 +1759,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
         <v>1440</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>654</v>
+        <v>744</v>
       </c>
       <c r="I39" t="n">
         <v>2.2</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" t="n">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" t="n">
-        <v>1137</v>
+        <v>1211</v>
       </c>
       <c r="I41" t="n">
         <v>3.9</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>858</v>
+        <v>948</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
         <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I43" t="n">
         <v>3.2</v>
@@ -1969,7 +1969,7 @@
         <v>69</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" t="n">
         <v>1111</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="I45" t="n">
         <v>1.5</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>43</v>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" t="n">
-        <v>1075</v>
+        <v>1160</v>
       </c>
       <c r="I46" t="n">
         <v>1.3</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>48</v>
       </c>
       <c r="G47" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>1595</v>
+        <v>1685</v>
       </c>
       <c r="I47" t="n">
         <v>2.4</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>47</v>
       </c>
       <c r="G48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>1530</v>
+        <v>1620</v>
       </c>
       <c r="I48" t="n">
         <v>2.8</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>68</v>
       </c>
       <c r="G49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H49" t="n">
-        <v>1265</v>
+        <v>1355</v>
       </c>
       <c r="I49" t="n">
         <v>2.1</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>1135</v>
+        <v>1148</v>
       </c>
       <c r="I50" t="n">
         <v>2.7</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>39</v>
       </c>
       <c r="G51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>1036</v>
+        <v>1112</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>45</v>
       </c>
       <c r="G52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>1329</v>
+        <v>1364</v>
       </c>
       <c r="I52" t="n">
         <v>4.1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         <v>49</v>
       </c>
       <c r="G53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H53" t="n">
-        <v>1568</v>
+        <v>1658</v>
       </c>
       <c r="I53" t="n">
         <v>7.2</v>
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2330,10 +2330,10 @@
         <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H54" t="n">
-        <v>1166</v>
+        <v>1251</v>
       </c>
       <c r="I54" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>47</v>
       </c>
       <c r="G55" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H55" t="n">
         <v>1620</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>61</v>
       </c>
       <c r="G56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H56" t="n">
-        <v>912</v>
+        <v>1002</v>
       </c>
       <c r="I56" t="n">
         <v>2.3</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
         <v>52</v>
       </c>
       <c r="G57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H57" t="n">
-        <v>1332</v>
+        <v>1422</v>
       </c>
       <c r="I57" t="n">
         <v>4.7</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>45</v>
       </c>
       <c r="G58" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H58" t="n">
-        <v>1564</v>
+        <v>1654</v>
       </c>
       <c r="I58" t="n">
         <v>3.2</v>
@@ -2482,7 +2482,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H59" t="n">
-        <v>1620</v>
+        <v>533</v>
       </c>
       <c r="I59" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,33 +2526,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H60" t="n">
-        <v>1444</v>
+        <v>1710</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,68 +2561,68 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G61" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H61" t="n">
-        <v>621</v>
+        <v>1534</v>
       </c>
       <c r="I61" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F62" t="n">
         <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H62" t="n">
-        <v>726</v>
+        <v>621</v>
       </c>
       <c r="I62" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2631,33 +2631,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H63" t="n">
-        <v>1299</v>
+        <v>816</v>
       </c>
       <c r="I63" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2666,33 +2666,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G64" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H64" t="n">
-        <v>1162</v>
+        <v>1321</v>
       </c>
       <c r="I64" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G65" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H65" t="n">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="I65" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2736,33 +2736,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G66" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H66" t="n">
-        <v>810</v>
+        <v>1316</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,33 +2771,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H67" t="n">
-        <v>1140</v>
+        <v>810</v>
       </c>
       <c r="I67" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,33 +2806,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H68" t="n">
-        <v>1530</v>
+        <v>1140</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,33 +2841,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H69" t="n">
-        <v>1521</v>
+        <v>1620</v>
       </c>
       <c r="I69" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2887,57 +2887,57 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H70" t="n">
-        <v>1199</v>
+        <v>1611</v>
       </c>
       <c r="I70" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F71" t="n">
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H71" t="n">
-        <v>1570</v>
+        <v>1266</v>
       </c>
       <c r="I71" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2957,22 +2957,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H72" t="n">
-        <v>1082</v>
+        <v>1660</v>
       </c>
       <c r="I72" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2981,33 +2981,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G73" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H73" t="n">
-        <v>930</v>
+        <v>1149</v>
       </c>
       <c r="I73" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,33 +3016,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>1620</v>
+        <v>1020</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,33 +3051,33 @@
         </is>
       </c>
       <c r="C75" t="n">
+        <v>61</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
         <v>42</v>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>52</v>
-      </c>
       <c r="G75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H75" t="n">
-        <v>540</v>
+        <v>1710</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,33 +3086,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G76" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H76" t="n">
-        <v>1620</v>
+        <v>562</v>
       </c>
       <c r="I76" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3132,22 +3132,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>1262</v>
+        <v>1710</v>
       </c>
       <c r="I77" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,33 +3156,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H78" t="n">
-        <v>1065</v>
+        <v>1262</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Harry Wilson</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,33 +3191,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H79" t="n">
-        <v>1530</v>
+        <v>513</v>
       </c>
       <c r="I79" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3226,45 +3226,45 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F80" t="n">
         <v>39</v>
       </c>
       <c r="G80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H80" t="n">
-        <v>910</v>
+        <v>1132</v>
       </c>
       <c r="I80" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3272,57 +3272,57 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>1219</v>
+        <v>1620</v>
       </c>
       <c r="I81" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>798</v>
+        <v>922</v>
       </c>
       <c r="I82" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3331,33 +3331,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G83" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>719</v>
+        <v>1309</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3366,33 +3366,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
-        <v>537</v>
+        <v>888</v>
       </c>
       <c r="I84" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3412,22 +3412,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H85" t="n">
-        <v>839</v>
+        <v>719</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3447,22 +3447,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G86" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H86" t="n">
-        <v>732</v>
+        <v>569</v>
       </c>
       <c r="I86" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F87" t="n">
         <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>720</v>
+        <v>896</v>
       </c>
       <c r="I87" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Joe Gomez</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3517,22 +3517,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H88" t="n">
-        <v>974</v>
+        <v>517</v>
       </c>
       <c r="I88" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3552,22 +3552,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H89" t="n">
-        <v>963</v>
+        <v>805</v>
       </c>
       <c r="I89" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Caoimhin Kelleher</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,33 +3576,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G90" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H90" t="n">
-        <v>1141</v>
+        <v>720</v>
       </c>
       <c r="I90" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3622,22 +3622,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G91" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H91" t="n">
-        <v>1216</v>
+        <v>974</v>
       </c>
       <c r="I91" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3657,22 +3657,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H92" t="n">
-        <v>1493</v>
+        <v>1053</v>
       </c>
       <c r="I92" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3692,22 +3692,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G93" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H93" t="n">
-        <v>1127</v>
+        <v>1231</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H94" t="n">
-        <v>1530</v>
+        <v>1289</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3762,104 +3762,104 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H95" t="n">
-        <v>1502</v>
+        <v>1583</v>
       </c>
       <c r="I95" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G96" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H96" t="n">
-        <v>1186</v>
+        <v>1127</v>
       </c>
       <c r="I96" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H97" t="n">
-        <v>1464</v>
+        <v>1620</v>
       </c>
       <c r="I97" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,22 +3867,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H98" t="n">
-        <v>639</v>
+        <v>1558</v>
       </c>
       <c r="I98" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3902,22 +3902,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G99" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H99" t="n">
-        <v>1086</v>
+        <v>1276</v>
       </c>
       <c r="I99" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3937,22 +3937,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" t="n">
-        <v>898</v>
+        <v>1554</v>
       </c>
       <c r="I100" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3972,22 +3972,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H101" t="n">
-        <v>566</v>
+        <v>729</v>
       </c>
       <c r="I101" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,33 +3996,33 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H102" t="n">
-        <v>1619</v>
+        <v>1086</v>
       </c>
       <c r="I102" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,10 +4031,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G103" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H103" t="n">
-        <v>1067</v>
+        <v>963</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,33 +4066,33 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G104" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H104" t="n">
-        <v>1202</v>
+        <v>566</v>
       </c>
       <c r="I104" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,33 +4101,33 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H105" t="n">
-        <v>917</v>
+        <v>1709</v>
       </c>
       <c r="I105" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Matheus Luiz Nunes</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4147,22 +4147,22 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G106" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H106" t="n">
-        <v>527</v>
+        <v>1157</v>
       </c>
       <c r="I106" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4182,22 +4182,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H107" t="n">
-        <v>1482</v>
+        <v>1292</v>
       </c>
       <c r="I107" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Stefan Ortega Moreno</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4206,80 +4206,80 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G108" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H108" t="n">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="I108" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H109" t="n">
-        <v>1051</v>
+        <v>937</v>
       </c>
       <c r="I109" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Matheus Luiz Nunes</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4287,92 +4287,92 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H110" t="n">
-        <v>1475</v>
+        <v>527</v>
       </c>
       <c r="I110" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G111" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H111" t="n">
-        <v>770</v>
+        <v>1572</v>
       </c>
       <c r="I111" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G112" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H112" t="n">
-        <v>1586</v>
+        <v>692</v>
       </c>
       <c r="I112" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4392,22 +4392,22 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G113" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H113" t="n">
-        <v>532</v>
+        <v>1141</v>
       </c>
       <c r="I113" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G114" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H114" t="n">
-        <v>983</v>
+        <v>1475</v>
       </c>
       <c r="I114" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,10 +4451,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G115" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H115" t="n">
-        <v>968</v>
+        <v>833</v>
       </c>
       <c r="I115" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H116" t="n">
-        <v>1336</v>
+        <v>1676</v>
       </c>
       <c r="I116" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G117" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H117" t="n">
-        <v>975</v>
+        <v>622</v>
       </c>
       <c r="I117" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4556,33 +4556,33 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H118" t="n">
-        <v>1620</v>
+        <v>1009</v>
       </c>
       <c r="I118" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4591,45 +4591,45 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G119" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H119" t="n">
-        <v>795</v>
+        <v>1025</v>
       </c>
       <c r="I119" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4640,31 +4640,31 @@
         <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H120" t="n">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="I120" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4672,69 +4672,69 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G121" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H121" t="n">
-        <v>1565</v>
+        <v>975</v>
       </c>
       <c r="I121" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G122" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H122" t="n">
-        <v>1530</v>
+        <v>1710</v>
       </c>
       <c r="I122" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4742,22 +4742,22 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G123" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H123" t="n">
-        <v>1290</v>
+        <v>885</v>
       </c>
       <c r="I123" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G124" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H124" t="n">
-        <v>1410</v>
+        <v>1497</v>
       </c>
       <c r="I124" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G125" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H125" t="n">
-        <v>707</v>
+        <v>1655</v>
       </c>
       <c r="I125" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,33 +4836,33 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G126" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H126" t="n">
-        <v>850</v>
+        <v>1620</v>
       </c>
       <c r="I126" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,33 +4871,33 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G127" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H127" t="n">
-        <v>1350</v>
+        <v>1380</v>
       </c>
       <c r="I127" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4906,33 +4906,33 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G128" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H128" t="n">
-        <v>1377</v>
+        <v>1500</v>
       </c>
       <c r="I128" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Sean Longstaff</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4941,10 +4941,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4952,34 +4952,34 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G129" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H129" t="n">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,127 +4987,127 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G130" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H130" t="n">
-        <v>1316</v>
+        <v>934</v>
       </c>
       <c r="I130" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G131" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H131" t="n">
-        <v>953</v>
+        <v>1350</v>
       </c>
       <c r="I131" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G132" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H132" t="n">
-        <v>1089</v>
+        <v>1467</v>
       </c>
       <c r="I132" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G133" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H133" t="n">
-        <v>1410</v>
+        <v>761</v>
       </c>
       <c r="I133" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5130,19 +5130,19 @@
         <v>45</v>
       </c>
       <c r="G134" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H134" t="n">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="I134" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5154,30 +5154,30 @@
         <v>68</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G135" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H135" t="n">
-        <v>1597</v>
+        <v>1043</v>
       </c>
       <c r="I135" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5186,80 +5186,80 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G136" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H136" t="n">
-        <v>1620</v>
+        <v>1164</v>
       </c>
       <c r="I136" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H137" t="n">
-        <v>1292</v>
+        <v>1485</v>
       </c>
       <c r="I137" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,92 +5267,92 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H138" t="n">
-        <v>595</v>
+        <v>1304</v>
       </c>
       <c r="I138" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H139" t="n">
-        <v>1408</v>
+        <v>1597</v>
       </c>
       <c r="I139" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G140" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H140" t="n">
-        <v>1104</v>
+        <v>1710</v>
       </c>
       <c r="I140" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5361,33 +5361,33 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G141" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H141" t="n">
-        <v>1446</v>
+        <v>1355</v>
       </c>
       <c r="I141" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,33 +5396,33 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G142" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H142" t="n">
-        <v>974</v>
+        <v>685</v>
       </c>
       <c r="I142" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5442,22 +5442,22 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G143" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H143" t="n">
-        <v>968</v>
+        <v>1498</v>
       </c>
       <c r="I143" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,22 +5477,22 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G144" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H144" t="n">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="I144" t="n">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5501,33 +5501,33 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G145" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H145" t="n">
-        <v>1080</v>
+        <v>1536</v>
       </c>
       <c r="I145" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5547,139 +5547,139 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G146" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H146" t="n">
-        <v>788</v>
+        <v>974</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G147" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H147" t="n">
-        <v>834</v>
+        <v>994</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G148" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H148" t="n">
-        <v>729</v>
+        <v>1208</v>
       </c>
       <c r="I148" t="n">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G149" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H149" t="n">
-        <v>1597</v>
+        <v>1080</v>
       </c>
       <c r="I149" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Micky van de Ven</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5690,19 +5690,19 @@
         <v>44</v>
       </c>
       <c r="G150" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H150" t="n">
-        <v>1261</v>
+        <v>788</v>
       </c>
       <c r="I150" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5711,33 +5711,33 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G151" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H151" t="n">
-        <v>1191</v>
+        <v>834</v>
       </c>
       <c r="I151" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5746,33 +5746,33 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G152" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H152" t="n">
-        <v>1253</v>
+        <v>819</v>
       </c>
       <c r="I152" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5792,22 +5792,22 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G153" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H153" t="n">
-        <v>837</v>
+        <v>1656</v>
       </c>
       <c r="I153" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5827,22 +5827,22 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G154" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H154" t="n">
-        <v>1088</v>
+        <v>1351</v>
       </c>
       <c r="I154" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5862,69 +5862,69 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G155" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H155" t="n">
-        <v>1080</v>
+        <v>1281</v>
       </c>
       <c r="I155" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G156" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H156" t="n">
-        <v>1455</v>
+        <v>1253</v>
       </c>
       <c r="I156" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,92 +5932,92 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G157" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H157" t="n">
-        <v>1428</v>
+        <v>882</v>
       </c>
       <c r="I157" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G158" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H158" t="n">
-        <v>1332</v>
+        <v>1178</v>
       </c>
       <c r="I158" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>José Malheiro de Sá</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G159" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H159" t="n">
-        <v>990</v>
+        <v>1160</v>
       </c>
       <c r="I159" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Toti António Gomes</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G160" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H160" t="n">
-        <v>1263</v>
+        <v>1545</v>
       </c>
       <c r="I160" t="n">
         <v>2.3</v>
@@ -6052,7 +6052,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,33 +6061,33 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G161" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H161" t="n">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="I161" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Matt Doherty</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6096,33 +6096,33 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G162" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H162" t="n">
-        <v>621</v>
+        <v>1332</v>
       </c>
       <c r="I162" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Santiago Bueno</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6131,33 +6131,33 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G163" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H163" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="I163" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Jean-Ricner Bellegarde</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6169,23 +6169,163 @@
         <v>34</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F164" t="n">
+        <v>45</v>
+      </c>
+      <c r="G164" t="n">
+        <v>20</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1263</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Matheus Santos Carneiro Da Cunha</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>111</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>84</v>
+      </c>
+      <c r="G165" t="n">
+        <v>20</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1560</v>
+      </c>
+      <c r="I165" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Matt Doherty</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>28</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>57</v>
+      </c>
+      <c r="G166" t="n">
+        <v>20</v>
+      </c>
+      <c r="H166" t="n">
+        <v>711</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Santiago Bueno</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>26</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>47</v>
+      </c>
+      <c r="G167" t="n">
+        <v>20</v>
+      </c>
+      <c r="H167" t="n">
+        <v>970</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jean-Ricner Bellegarde</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>35</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
         <v>48</v>
       </c>
-      <c r="G164" t="n">
-        <v>19</v>
-      </c>
-      <c r="H164" t="n">
-        <v>725</v>
-      </c>
-      <c r="I164" t="n">
+      <c r="G168" t="n">
+        <v>20</v>
+      </c>
+      <c r="H168" t="n">
+        <v>770</v>
+      </c>
+      <c r="I168" t="n">
         <v>2</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>1448</v>
+        <v>1538</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
         <v>1480</v>
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gabriel Martinelli Silva</t>
+          <t>Gabriel Fernando de Jesus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,33 +566,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>1121</v>
+        <v>600</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Gabriel Martinelli Silva</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,22 +612,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>992</v>
+        <v>1166</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thomas Partey</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>1401</v>
+        <v>1018</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Thomas Partey</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -671,33 +671,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>1559</v>
+        <v>1491</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leandro Trossard</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -706,33 +706,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1022</v>
+        <v>1649</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Benjamin White</t>
+          <t>Leandro Trossard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -741,33 +741,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>694</v>
+        <v>1112</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Benjamin White</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -776,33 +776,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>1710</v>
+        <v>694</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -811,45 +811,45 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>1293</v>
+        <v>1800</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,22 +857,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>824</v>
+        <v>1383</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diego Carlos Santos Silva</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -881,33 +881,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>828</v>
+        <v>914</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lucas Digne</t>
+          <t>Diego Carlos Santos Silva</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>1425</v>
+        <v>828</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jhon Durán</t>
+          <t>Lucas Digne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>588</v>
+        <v>1500</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ezri Konsa Ngoyo</t>
+          <t>Jhon Durán</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -986,33 +986,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" t="n">
-        <v>1451</v>
+        <v>588</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Emiliano Martínez Romero</t>
+          <t>Ezri Konsa Ngoyo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1021,33 +1021,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>1665</v>
+        <v>1541</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>John McGinn</t>
+          <t>Emiliano Martínez Romero</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1056,24 +1056,24 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" t="n">
-        <v>1235</v>
+        <v>1755</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
@@ -1082,7 +1082,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>John McGinn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1091,33 +1091,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" t="n">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pau Torres</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1126,68 +1126,68 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" t="n">
-        <v>1549</v>
+        <v>1360</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ryan Christie</t>
+          <t>Pau Torres</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" t="n">
-        <v>1311</v>
+        <v>1549</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lewis Cook</t>
+          <t>Ryan Christie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1199,7 +1199,7 @@
         <v>51</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>1491</v>
+        <v>1401</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Justin Kluivert</t>
+          <t>Lewis Cook</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>1124</v>
+        <v>1581</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dango Ouattara</t>
+          <t>Justin Kluivert</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>806</v>
+        <v>1193</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Dango Ouattara</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,22 +1312,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" t="n">
-        <v>1566</v>
+        <v>875</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1336,33 +1336,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>917</v>
+        <v>1656</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Adam Smith</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,22 +1382,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" t="n">
-        <v>1032</v>
+        <v>917</v>
       </c>
       <c r="I27" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Marcus Tavernier</t>
+          <t>Adam Smith</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1406,33 +1406,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>1138</v>
+        <v>1032</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Illia Zabarnyi</t>
+          <t>Marcus Tavernier</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1441,33 +1441,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>1710</v>
+        <v>1138</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Milos Kerkez</t>
+          <t>Illia Zabarnyi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,34 +1487,34 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
-        <v>1637</v>
+        <v>1800</v>
       </c>
       <c r="I30" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kristoffer Ajer</t>
+          <t>Milos Kerkez</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31" t="n">
-        <v>717</v>
+        <v>1727</v>
       </c>
       <c r="I31" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mikkel Damsgaard</t>
+          <t>Kristoffer Ajer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1546,33 +1546,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>1352</v>
+        <v>717</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mark Flekken</t>
+          <t>Mikkel Damsgaard</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1581,33 +1581,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33" t="n">
-        <v>1655</v>
+        <v>1442</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vitaly Janelt</t>
+          <t>Mark Flekken</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1616,33 +1616,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34" t="n">
-        <v>1400</v>
+        <v>1745</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Vitaly Janelt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35" t="n">
-        <v>1467</v>
+        <v>1419</v>
       </c>
       <c r="I35" t="n">
         <v>2.4</v>
@@ -1677,7 +1677,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Mathias Jensen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H36" t="n">
-        <v>1705</v>
+        <v>562</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Christian Nørgaard</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H37" t="n">
-        <v>1299</v>
+        <v>1557</v>
       </c>
       <c r="I37" t="n">
         <v>2.4</v>
@@ -1747,7 +1747,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ethan Pinnock</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,33 +1756,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>1440</v>
+        <v>1795</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mads Roerslev Rasmussen</t>
+          <t>Christian Nørgaard</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1791,33 +1791,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" t="n">
-        <v>744</v>
+        <v>1379</v>
       </c>
       <c r="I39" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>Ethan Pinnock</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,33 +1826,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" t="n">
-        <v>854</v>
+        <v>1440</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>Mads Roerslev Rasmussen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1861,103 +1861,103 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" t="n">
-        <v>1211</v>
+        <v>834</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H42" t="n">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bart Verbruggen</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" t="n">
-        <v>1530</v>
+        <v>1301</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,22 +1977,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44" t="n">
-        <v>1111</v>
+        <v>1038</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Igor Julio dos Santos de Paulo</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,33 +2001,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>835</v>
+        <v>1620</v>
       </c>
       <c r="I45" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,103 +2036,103 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46" t="n">
-        <v>1160</v>
+        <v>1111</v>
       </c>
       <c r="I46" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Igor Julio dos Santos de Paulo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>1685</v>
+        <v>900</v>
       </c>
       <c r="I47" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
-        <v>1620</v>
+        <v>1250</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,33 +2141,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49" t="n">
-        <v>1355</v>
+        <v>1775</v>
       </c>
       <c r="I49" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
-        <v>1148</v>
+        <v>1710</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H51" t="n">
-        <v>1112</v>
+        <v>1445</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,33 +2246,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" t="n">
-        <v>1364</v>
+        <v>1238</v>
       </c>
       <c r="I52" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2292,92 +2292,92 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H53" t="n">
-        <v>1658</v>
+        <v>1116</v>
       </c>
       <c r="I53" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H54" t="n">
-        <v>1251</v>
+        <v>1444</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H55" t="n">
-        <v>1620</v>
+        <v>1748</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jefferson Lerma Solís</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2397,22 +2397,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H56" t="n">
-        <v>1002</v>
+        <v>1337</v>
       </c>
       <c r="I56" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2421,33 +2421,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H57" t="n">
-        <v>1422</v>
+        <v>1710</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Jefferson Lerma Solís</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2456,33 +2456,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H58" t="n">
-        <v>1654</v>
+        <v>1092</v>
       </c>
       <c r="I58" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H59" t="n">
-        <v>533</v>
+        <v>1512</v>
       </c>
       <c r="I59" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,33 +2526,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" t="n">
-        <v>1710</v>
+        <v>1744</v>
       </c>
       <c r="I60" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2572,22 +2572,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H61" t="n">
-        <v>1534</v>
+        <v>623</v>
       </c>
       <c r="I61" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2596,45 +2596,45 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H62" t="n">
-        <v>621</v>
+        <v>1800</v>
       </c>
       <c r="I62" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2645,10 +2645,10 @@
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H63" t="n">
-        <v>816</v>
+        <v>1624</v>
       </c>
       <c r="I63" t="n">
         <v>3.5</v>
@@ -2657,42 +2657,42 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H64" t="n">
-        <v>1321</v>
+        <v>621</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2701,33 +2701,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H65" t="n">
-        <v>1252</v>
+        <v>906</v>
       </c>
       <c r="I65" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2736,33 +2736,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H66" t="n">
-        <v>1316</v>
+        <v>1379</v>
       </c>
       <c r="I66" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,33 +2771,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H67" t="n">
-        <v>810</v>
+        <v>1342</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2817,22 +2817,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H68" t="n">
-        <v>1140</v>
+        <v>1396</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,33 +2841,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H69" t="n">
-        <v>1620</v>
+        <v>810</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2876,33 +2876,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F70" t="n">
         <v>45</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H70" t="n">
-        <v>1611</v>
+        <v>1140</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2911,103 +2911,103 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H71" t="n">
-        <v>1266</v>
+        <v>1710</v>
       </c>
       <c r="I71" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H72" t="n">
-        <v>1660</v>
+        <v>1701</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H73" t="n">
-        <v>1149</v>
+        <v>1356</v>
       </c>
       <c r="I73" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,33 +3016,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H74" t="n">
-        <v>1020</v>
+        <v>1722</v>
       </c>
       <c r="I74" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,33 +3051,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H75" t="n">
-        <v>1710</v>
+        <v>1176</v>
       </c>
       <c r="I75" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,33 +3086,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H76" t="n">
-        <v>562</v>
+        <v>1065</v>
       </c>
       <c r="I76" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,33 +3121,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H77" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I77" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,33 +3156,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H78" t="n">
-        <v>1262</v>
+        <v>589</v>
       </c>
       <c r="I78" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Harry Wilson</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,33 +3191,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H79" t="n">
-        <v>513</v>
+        <v>1800</v>
       </c>
       <c r="I79" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3226,33 +3226,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H80" t="n">
-        <v>1132</v>
+        <v>1262</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Harry Wilson</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3261,33 +3261,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F81" t="n">
         <v>39</v>
       </c>
       <c r="G81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H81" t="n">
-        <v>1620</v>
+        <v>603</v>
       </c>
       <c r="I81" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3296,45 +3296,45 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F82" t="n">
         <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H82" t="n">
-        <v>922</v>
+        <v>1222</v>
       </c>
       <c r="I82" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3342,57 +3342,57 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G83" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H83" t="n">
-        <v>1309</v>
+        <v>1710</v>
       </c>
       <c r="I83" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H84" t="n">
-        <v>888</v>
+        <v>933</v>
       </c>
       <c r="I84" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H85" t="n">
-        <v>719</v>
+        <v>1394</v>
       </c>
       <c r="I85" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>569</v>
+        <v>978</v>
       </c>
       <c r="I86" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3482,22 +3482,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H87" t="n">
-        <v>896</v>
+        <v>749</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Joe Gomez</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H88" t="n">
-        <v>517</v>
+        <v>598</v>
       </c>
       <c r="I88" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,33 +3541,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H89" t="n">
-        <v>805</v>
+        <v>981</v>
       </c>
       <c r="I89" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,33 +3576,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F90" t="n">
         <v>39</v>
       </c>
       <c r="G90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H90" t="n">
-        <v>720</v>
+        <v>865</v>
       </c>
       <c r="I90" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Caoimhin Kelleher</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,33 +3611,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F91" t="n">
         <v>44</v>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H91" t="n">
-        <v>974</v>
+        <v>720</v>
       </c>
       <c r="I91" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,33 +3646,33 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F92" t="n">
         <v>55</v>
       </c>
       <c r="G92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H92" t="n">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="I92" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3695,19 +3695,19 @@
         <v>46</v>
       </c>
       <c r="G93" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H93" t="n">
-        <v>1231</v>
+        <v>1112</v>
       </c>
       <c r="I93" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,24 +3716,24 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H94" t="n">
-        <v>1289</v>
+        <v>1321</v>
       </c>
       <c r="I94" t="n">
         <v>3.3</v>
@@ -3742,7 +3742,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3751,33 +3751,33 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F95" t="n">
         <v>51</v>
       </c>
       <c r="G95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H95" t="n">
-        <v>1583</v>
+        <v>1379</v>
       </c>
       <c r="I95" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3800,19 +3800,19 @@
         <v>44</v>
       </c>
       <c r="G96" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H96" t="n">
-        <v>1127</v>
+        <v>1673</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3821,33 +3821,33 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G97" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H97" t="n">
-        <v>1620</v>
+        <v>1127</v>
       </c>
       <c r="I97" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3856,68 +3856,68 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H98" t="n">
-        <v>1558</v>
+        <v>1710</v>
       </c>
       <c r="I98" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G99" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H99" t="n">
-        <v>1276</v>
+        <v>1648</v>
       </c>
       <c r="I99" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,33 +3926,33 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H100" t="n">
-        <v>1554</v>
+        <v>1366</v>
       </c>
       <c r="I100" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3972,22 +3972,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G101" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H101" t="n">
-        <v>729</v>
+        <v>1644</v>
       </c>
       <c r="I101" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,33 +3996,33 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>44</v>
       </c>
       <c r="G102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H102" t="n">
-        <v>1086</v>
+        <v>819</v>
       </c>
       <c r="I102" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,33 +4031,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H103" t="n">
-        <v>963</v>
+        <v>1086</v>
       </c>
       <c r="I103" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4080,19 +4080,19 @@
         <v>54</v>
       </c>
       <c r="G104" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H104" t="n">
-        <v>566</v>
+        <v>1053</v>
       </c>
       <c r="I104" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,33 +4101,33 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F105" t="n">
         <v>42</v>
       </c>
       <c r="G105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H105" t="n">
-        <v>1709</v>
+        <v>572</v>
       </c>
       <c r="I105" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,33 +4136,33 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F106" t="n">
         <v>46</v>
       </c>
       <c r="G106" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H106" t="n">
-        <v>1157</v>
+        <v>1792</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4171,33 +4171,33 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F107" t="n">
         <v>49</v>
       </c>
       <c r="G107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H107" t="n">
-        <v>1292</v>
+        <v>1217</v>
       </c>
       <c r="I107" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Stefan Ortega Moreno</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4206,33 +4206,33 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F108" t="n">
         <v>48</v>
       </c>
       <c r="G108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H108" t="n">
-        <v>540</v>
+        <v>1382</v>
       </c>
       <c r="I108" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Stefan Ortega Moreno</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4241,33 +4241,33 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H109" t="n">
-        <v>937</v>
+        <v>630</v>
       </c>
       <c r="I109" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Matheus Luiz Nunes</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4276,27 +4276,27 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F110" t="n">
         <v>43</v>
       </c>
       <c r="G110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H110" t="n">
-        <v>527</v>
+        <v>966</v>
       </c>
       <c r="I110" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="111">
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G111" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H111" t="n">
-        <v>1572</v>
+        <v>1662</v>
       </c>
       <c r="I111" t="n">
         <v>4.4</v>
@@ -4349,7 +4349,7 @@
         <v>46</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G112" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H112" t="n">
         <v>692</v>
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H113" t="n">
-        <v>1141</v>
+        <v>1231</v>
       </c>
       <c r="I113" t="n">
         <v>2.6</v>
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H114" t="n">
-        <v>1475</v>
+        <v>1565</v>
       </c>
       <c r="I114" t="n">
         <v>4.7</v>
@@ -4454,7 +4454,7 @@
         <v>32</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H115" t="n">
         <v>833</v>
@@ -4489,7 +4489,7 @@
         <v>54</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G116" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H116" t="n">
-        <v>1676</v>
+        <v>1766</v>
       </c>
       <c r="I116" t="n">
         <v>3.1</v>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G117" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H117" t="n">
         <v>622</v>
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G118" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H118" t="n">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="I118" t="n">
         <v>3.6</v>
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H119" t="n">
-        <v>1025</v>
+        <v>1096</v>
       </c>
       <c r="I119" t="n">
         <v>3.2</v>
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G120" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H120" t="n">
-        <v>1400</v>
+        <v>1490</v>
       </c>
       <c r="I120" t="n">
         <v>1.4</v>
@@ -4664,7 +4664,7 @@
         <v>54</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H121" t="n">
         <v>975</v>
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G122" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H122" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I122" t="n">
         <v>3.5</v>
@@ -4731,24 +4731,24 @@
         </is>
       </c>
       <c r="C123" t="n">
+        <v>41</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
         <v>40</v>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>47</v>
-      </c>
       <c r="G123" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H123" t="n">
-        <v>885</v>
+        <v>971</v>
       </c>
       <c r="I123" t="n">
         <v>3.7</v>
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G124" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H124" t="n">
-        <v>1497</v>
+        <v>1587</v>
       </c>
       <c r="I124" t="n">
         <v>2.1</v>
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G125" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H125" t="n">
-        <v>1655</v>
+        <v>1745</v>
       </c>
       <c r="I125" t="n">
         <v>4.1</v>
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4850,10 +4850,10 @@
         <v>40</v>
       </c>
       <c r="G126" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H126" t="n">
-        <v>1620</v>
+        <v>1710</v>
       </c>
       <c r="I126" t="n">
         <v>2.9</v>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4885,10 +4885,10 @@
         <v>40</v>
       </c>
       <c r="G127" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H127" t="n">
-        <v>1380</v>
+        <v>1465</v>
       </c>
       <c r="I127" t="n">
         <v>5.7</v>
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G128" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H128" t="n">
-        <v>1500</v>
+        <v>1590</v>
       </c>
       <c r="I128" t="n">
         <v>2.2</v>
@@ -4944,7 +4944,7 @@
         <v>26</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4952,13 +4952,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G129" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H129" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I129" t="n">
         <v>3.1</v>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G130" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H130" t="n">
-        <v>934</v>
+        <v>1019</v>
       </c>
       <c r="I130" t="n">
         <v>3.9</v>
@@ -5014,7 +5014,7 @@
         <v>48</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H131" t="n">
         <v>1350</v>
@@ -5049,7 +5049,7 @@
         <v>55</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5057,10 +5057,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G132" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H132" t="n">
         <v>1467</v>
@@ -5084,7 +5084,7 @@
         <v>65</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H133" t="n">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G134" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H134" t="n">
-        <v>1316</v>
+        <v>1406</v>
       </c>
       <c r="I134" t="n">
         <v>3.8</v>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5162,13 +5162,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G135" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H135" t="n">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="I135" t="n">
         <v>3.3</v>
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G136" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H136" t="n">
-        <v>1164</v>
+        <v>1251</v>
       </c>
       <c r="I136" t="n">
         <v>3.8</v>
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5235,10 +5235,10 @@
         <v>45</v>
       </c>
       <c r="G137" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H137" t="n">
-        <v>1485</v>
+        <v>1572</v>
       </c>
       <c r="I137" t="n">
         <v>4.2</v>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,13 +5267,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G138" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H138" t="n">
-        <v>1304</v>
+        <v>1324</v>
       </c>
       <c r="I138" t="n">
         <v>1.7</v>
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G139" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H139" t="n">
-        <v>1597</v>
+        <v>1687</v>
       </c>
       <c r="I139" t="n">
         <v>1.8</v>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G140" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H140" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I140" t="n">
         <v>2.1</v>
@@ -5361,10 +5361,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5372,13 +5372,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G141" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H141" t="n">
-        <v>1355</v>
+        <v>1445</v>
       </c>
       <c r="I141" t="n">
         <v>3.7</v>
@@ -5399,7 +5399,7 @@
         <v>27</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G142" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H142" t="n">
         <v>685</v>
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G143" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H143" t="n">
-        <v>1498</v>
+        <v>1588</v>
       </c>
       <c r="I143" t="n">
         <v>3.6</v>
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,13 +5477,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H144" t="n">
-        <v>1130</v>
+        <v>1158</v>
       </c>
       <c r="I144" t="n">
         <v>4.2</v>
@@ -5501,10 +5501,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G145" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H145" t="n">
-        <v>1536</v>
+        <v>1626</v>
       </c>
       <c r="I145" t="n">
         <v>3.9</v>
@@ -5539,7 +5539,7 @@
         <v>35</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G146" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H146" t="n">
         <v>974</v>
@@ -5574,7 +5574,7 @@
         <v>40</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G147" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H147" t="n">
-        <v>994</v>
+        <v>1055</v>
       </c>
       <c r="I147" t="n">
         <v>2.5</v>
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G148" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H148" t="n">
-        <v>1208</v>
+        <v>1236</v>
       </c>
       <c r="I148" t="n">
         <v>6.1</v>
@@ -5644,7 +5644,7 @@
         <v>37</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45</v>
       </c>
       <c r="G149" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H149" t="n">
         <v>1080</v>
@@ -5679,7 +5679,7 @@
         <v>28</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5687,10 +5687,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H150" t="n">
         <v>788</v>
@@ -5714,7 +5714,7 @@
         <v>42</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5722,10 +5722,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H151" t="n">
         <v>834</v>
@@ -5749,7 +5749,7 @@
         <v>19</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G152" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H152" t="n">
-        <v>819</v>
+        <v>909</v>
       </c>
       <c r="I152" t="n">
         <v>3.7</v>
@@ -5784,7 +5784,7 @@
         <v>90</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5792,10 +5792,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G153" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H153" t="n">
         <v>1656</v>
@@ -5807,7 +5807,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Vladimír Coufal</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5830,19 +5830,19 @@
         <v>44</v>
       </c>
       <c r="G154" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H154" t="n">
-        <v>1351</v>
+        <v>568</v>
       </c>
       <c r="I154" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5851,33 +5851,33 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F155" t="n">
         <v>44</v>
       </c>
       <c r="G155" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H155" t="n">
-        <v>1281</v>
+        <v>1351</v>
       </c>
       <c r="I155" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,22 +5897,22 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G156" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H156" t="n">
-        <v>1253</v>
+        <v>1371</v>
       </c>
       <c r="I156" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5921,10 +5921,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5935,19 +5935,19 @@
         <v>43</v>
       </c>
       <c r="G157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H157" t="n">
-        <v>882</v>
+        <v>1343</v>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5956,33 +5956,33 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F158" t="n">
         <v>74</v>
       </c>
       <c r="G158" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H158" t="n">
-        <v>1178</v>
+        <v>968</v>
       </c>
       <c r="I158" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5991,68 +5991,68 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G159" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H159" t="n">
-        <v>1160</v>
+        <v>1215</v>
       </c>
       <c r="I159" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H160" t="n">
-        <v>1545</v>
+        <v>1231</v>
       </c>
       <c r="I160" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,33 +6061,33 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G161" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H161" t="n">
-        <v>1518</v>
+        <v>1635</v>
       </c>
       <c r="I161" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6096,10 +6096,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6110,19 +6110,19 @@
         <v>45</v>
       </c>
       <c r="G162" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H162" t="n">
-        <v>1332</v>
+        <v>1608</v>
       </c>
       <c r="I162" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>José Malheiro de Sá</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6131,33 +6131,33 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F163" t="n">
         <v>45</v>
       </c>
       <c r="G163" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H163" t="n">
-        <v>1080</v>
+        <v>1363</v>
       </c>
       <c r="I163" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Toti António Gomes</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6166,33 +6166,33 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G164" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H164" t="n">
-        <v>1263</v>
+        <v>1170</v>
       </c>
       <c r="I164" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6201,33 +6201,33 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F165" t="n">
         <v>84</v>
       </c>
       <c r="G165" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H165" t="n">
-        <v>1560</v>
+        <v>1263</v>
       </c>
       <c r="I165" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Matt Doherty</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6236,33 +6236,33 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G166" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H166" t="n">
-        <v>711</v>
+        <v>1560</v>
       </c>
       <c r="I166" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Santiago Bueno</t>
+          <t>Matt Doherty</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6271,10 +6271,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6282,50 +6282,85 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G167" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H167" t="n">
-        <v>970</v>
+        <v>801</v>
       </c>
       <c r="I167" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>Santiago Bueno</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>27</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>79</v>
+      </c>
+      <c r="G168" t="n">
+        <v>21</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1060</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
           <t>Jean-Ricner Bellegarde</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Wolves</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>35</v>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>48</v>
-      </c>
-      <c r="G168" t="n">
-        <v>20</v>
-      </c>
-      <c r="H168" t="n">
-        <v>770</v>
-      </c>
-      <c r="I168" t="n">
+      <c r="C169" t="n">
+        <v>36</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>71</v>
+      </c>
+      <c r="G169" t="n">
+        <v>21</v>
+      </c>
+      <c r="H169" t="n">
+        <v>801</v>
+      </c>
+      <c r="I169" t="n">
         <v>2</v>
       </c>
     </row>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>1538</v>
+        <v>2363</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>1480</v>
+        <v>1853</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gabriel Fernando de Jesus</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,27 +566,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>600</v>
+        <v>1027</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>77</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>1166</v>
+        <v>2214</v>
       </c>
       <c r="I5" t="n">
         <v>3.4</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>1018</v>
+        <v>2306</v>
       </c>
       <c r="I6" t="n">
         <v>5.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>1491</v>
+        <v>2703</v>
       </c>
       <c r="I7" t="n">
         <v>1.7</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>86</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>1649</v>
+        <v>3039</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>1112</v>
+        <v>2519</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>694</v>
+        <v>1105</v>
       </c>
       <c r="I10" t="n">
         <v>4.9</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>88</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>1800</v>
+        <v>3330</v>
       </c>
       <c r="I11" t="n">
         <v>4.2</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>1383</v>
+        <v>2733</v>
       </c>
       <c r="I12" t="n">
         <v>4.3</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H13" t="n">
-        <v>914</v>
+        <v>1132</v>
       </c>
       <c r="I13" t="n">
         <v>4.2</v>
@@ -907,7 +907,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Diego Carlos Santos Silva</t>
+          <t>Lucas Digne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>828</v>
+        <v>2348</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lucas Digne</t>
+          <t>Ezri Konsa Ngoyo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H15" t="n">
-        <v>1500</v>
+        <v>2846</v>
       </c>
       <c r="I15" t="n">
         <v>2.6</v>
@@ -977,7 +977,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jhon Durán</t>
+          <t>Emiliano Martínez Romero</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -986,33 +986,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H16" t="n">
-        <v>588</v>
+        <v>3150</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ezri Konsa Ngoyo</t>
+          <t>John McGinn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1021,33 +1021,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H17" t="n">
-        <v>1541</v>
+        <v>2156</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Emiliano Martínez Romero</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1056,33 +1056,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H18" t="n">
-        <v>1755</v>
+        <v>2503</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>John McGinn</t>
+          <t>Pau Torres</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1091,103 +1091,103 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H19" t="n">
-        <v>1253</v>
+        <v>1929</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>Ryan Christie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>1360</v>
+        <v>2114</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pau Torres</t>
+          <t>Lewis Cook</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H21" t="n">
-        <v>1549</v>
+        <v>2976</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ryan Christie</t>
+          <t>Justin Kluivert</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>1401</v>
+        <v>2249</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lewis Cook</t>
+          <t>Dango Ouattara</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H23" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Justin Kluivert</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H24" t="n">
-        <v>1193</v>
+        <v>3112</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dango Ouattara</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1301,33 +1301,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H25" t="n">
-        <v>875</v>
+        <v>1026</v>
       </c>
       <c r="I25" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Adam Smith</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1336,33 +1336,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H26" t="n">
-        <v>1656</v>
+        <v>1496</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Marcus Tavernier</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1371,33 +1371,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H27" t="n">
-        <v>917</v>
+        <v>1842</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Adam Smith</t>
+          <t>Illia Zabarnyi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H28" t="n">
-        <v>1032</v>
+        <v>3019</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Marcus Tavernier</t>
+          <t>Milos Kerkez</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1441,33 +1441,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G29" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H29" t="n">
-        <v>1138</v>
+        <v>3246</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Illia Zabarnyi</t>
+          <t>Tyler Adams</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1476,45 +1476,45 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>1800</v>
+        <v>1869</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Milos Kerkez</t>
+          <t>Kristoffer Ajer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H31" t="n">
-        <v>1727</v>
+        <v>1429</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kristoffer Ajer</t>
+          <t>Mikkel Damsgaard</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1546,33 +1546,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H32" t="n">
-        <v>717</v>
+        <v>2832</v>
       </c>
       <c r="I32" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mikkel Damsgaard</t>
+          <t>Mark Flekken</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1581,33 +1581,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H33" t="n">
-        <v>1442</v>
+        <v>3185</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mark Flekken</t>
+          <t>Vitaly Janelt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1616,33 +1616,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G34" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H34" t="n">
-        <v>1745</v>
+        <v>2251</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vitaly Janelt</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G35" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H35" t="n">
-        <v>1419</v>
+        <v>3002</v>
       </c>
       <c r="I35" t="n">
         <v>2.4</v>
@@ -1677,7 +1677,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mathias Jensen</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G36" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H36" t="n">
-        <v>562</v>
+        <v>3325</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Christian Nørgaard</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>1557</v>
+        <v>2730</v>
       </c>
       <c r="I37" t="n">
         <v>2.4</v>
@@ -1747,7 +1747,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Ethan Pinnock</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,33 +1756,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H38" t="n">
-        <v>1795</v>
+        <v>1912</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Christian Nørgaard</t>
+          <t>Mads Roerslev Rasmussen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1791,33 +1791,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G39" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>1379</v>
+        <v>1100</v>
       </c>
       <c r="I39" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ethan Pinnock</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,33 +1826,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H40" t="n">
-        <v>1440</v>
+        <v>2202</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mads Roerslev Rasmussen</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1861,45 +1861,45 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G41" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H41" t="n">
-        <v>834</v>
+        <v>2831</v>
       </c>
       <c r="I41" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>Simon Adingra</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1907,34 +1907,34 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H42" t="n">
-        <v>934</v>
+        <v>1036</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,22 +1942,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H43" t="n">
-        <v>1301</v>
+        <v>1946</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,33 +1966,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H44" t="n">
-        <v>1038</v>
+        <v>3150</v>
       </c>
       <c r="I44" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bart Verbruggen</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,33 +2001,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H45" t="n">
-        <v>1620</v>
+        <v>2109</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,103 +2036,103 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H46" t="n">
-        <v>1111</v>
+        <v>2570</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Igor Julio dos Santos de Paulo</t>
+          <t>Moisés Caicedo Corozo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G47" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H47" t="n">
-        <v>900</v>
+        <v>3261</v>
       </c>
       <c r="I47" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G48" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H48" t="n">
-        <v>1250</v>
+        <v>3060</v>
       </c>
       <c r="I48" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Moisés Caicedo Corozo</t>
+          <t>Marc Cucurella Saseta</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,33 +2141,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G49" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H49" t="n">
-        <v>1775</v>
+        <v>2898</v>
       </c>
       <c r="I49" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Malo Gusto</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H50" t="n">
-        <v>1710</v>
+        <v>1841</v>
       </c>
       <c r="I50" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Marc Cucurella Saseta</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,33 +2211,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G51" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H51" t="n">
-        <v>1445</v>
+        <v>1943</v>
       </c>
       <c r="I51" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Malo Gusto</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2246,33 +2246,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H52" t="n">
-        <v>1238</v>
+        <v>2220</v>
       </c>
       <c r="I52" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2292,92 +2292,92 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H53" t="n">
-        <v>1116</v>
+        <v>3103</v>
       </c>
       <c r="I53" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G54" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H54" t="n">
-        <v>1444</v>
+        <v>2527</v>
       </c>
       <c r="I54" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G55" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H55" t="n">
-        <v>1748</v>
+        <v>3059</v>
       </c>
       <c r="I55" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Jefferson Lerma Solís</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2397,22 +2397,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G56" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H56" t="n">
-        <v>1337</v>
+        <v>2180</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2421,33 +2421,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G57" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H57" t="n">
-        <v>1710</v>
+        <v>2581</v>
       </c>
       <c r="I57" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jefferson Lerma Solís</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2456,33 +2456,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G58" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H58" t="n">
-        <v>1092</v>
+        <v>3000</v>
       </c>
       <c r="I58" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G59" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H59" t="n">
-        <v>1512</v>
+        <v>1831</v>
       </c>
       <c r="I59" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Dean Henderson</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2526,33 +2526,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G60" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H60" t="n">
-        <v>1744</v>
+        <v>3330</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2572,22 +2572,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H61" t="n">
-        <v>623</v>
+        <v>3139</v>
       </c>
       <c r="I61" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dean Henderson</t>
+          <t>Adam Wharton</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2596,45 +2596,45 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G62" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H62" t="n">
-        <v>1800</v>
+        <v>1314</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2642,13 +2642,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G63" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H63" t="n">
-        <v>1624</v>
+        <v>2509</v>
       </c>
       <c r="I63" t="n">
         <v>3.5</v>
@@ -2657,42 +2657,42 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Adam Wharton</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G64" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H64" t="n">
-        <v>621</v>
+        <v>1600</v>
       </c>
       <c r="I64" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2701,33 +2701,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F65" t="n">
         <v>43</v>
       </c>
       <c r="G65" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H65" t="n">
-        <v>906</v>
+        <v>2549</v>
       </c>
       <c r="I65" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>James Garner</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2736,33 +2736,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H66" t="n">
-        <v>1379</v>
+        <v>1500</v>
       </c>
       <c r="I66" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Idrissa Gueye</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2782,22 +2782,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G67" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H67" t="n">
-        <v>1342</v>
+        <v>2973</v>
       </c>
       <c r="I67" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Idrissa Gueye</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2817,22 +2817,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G68" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H68" t="n">
-        <v>1396</v>
+        <v>1352</v>
       </c>
       <c r="I68" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2841,33 +2841,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H69" t="n">
-        <v>810</v>
+        <v>3330</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2876,33 +2876,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H70" t="n">
-        <v>1140</v>
+        <v>2922</v>
       </c>
       <c r="I70" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Ashley Young</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2911,33 +2911,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F71" t="n">
         <v>45</v>
       </c>
       <c r="G71" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H71" t="n">
-        <v>1710</v>
+        <v>1774</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Norberto Bercique Gomes Betuncal</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2946,68 +2946,68 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G72" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H72" t="n">
-        <v>1701</v>
+        <v>1434</v>
       </c>
       <c r="I72" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G73" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H73" t="n">
-        <v>1356</v>
+        <v>2952</v>
       </c>
       <c r="I73" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Andreas Hoelgebaum Pereira</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3027,22 +3027,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G74" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H74" t="n">
-        <v>1722</v>
+        <v>1944</v>
       </c>
       <c r="I74" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Andreas Hoelgebaum Pereira</t>
+          <t>Issa Diop</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3051,33 +3051,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G75" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H75" t="n">
-        <v>1176</v>
+        <v>1334</v>
       </c>
       <c r="I75" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Issa Diop</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,33 +3086,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G76" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H76" t="n">
-        <v>1065</v>
+        <v>3330</v>
       </c>
       <c r="I76" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Antonee Robinson</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3121,33 +3121,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H77" t="n">
-        <v>1800</v>
+        <v>3076</v>
       </c>
       <c r="I77" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Kenny Tete</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3156,33 +3156,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F78" t="n">
         <v>39</v>
       </c>
       <c r="G78" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H78" t="n">
-        <v>589</v>
+        <v>1683</v>
       </c>
       <c r="I78" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Antonee Robinson</t>
+          <t>Harry Wilson</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3191,33 +3191,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G79" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H79" t="n">
-        <v>1800</v>
+        <v>1088</v>
       </c>
       <c r="I79" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kenny Tete</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3226,33 +3226,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G80" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H80" t="n">
-        <v>1262</v>
+        <v>2396</v>
       </c>
       <c r="I80" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Harry Wilson</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3261,33 +3261,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G81" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H81" t="n">
-        <v>603</v>
+        <v>3074</v>
       </c>
       <c r="I81" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3296,33 +3296,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G82" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H82" t="n">
-        <v>1222</v>
+        <v>1683</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Timothy Castagne</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3342,57 +3342,57 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G83" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H83" t="n">
-        <v>1710</v>
+        <v>1642</v>
       </c>
       <c r="I83" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G84" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H84" t="n">
-        <v>933</v>
+        <v>2317</v>
       </c>
       <c r="I84" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3401,33 +3401,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H85" t="n">
-        <v>1394</v>
+        <v>2418</v>
       </c>
       <c r="I85" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3436,33 +3436,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G86" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H86" t="n">
-        <v>978</v>
+        <v>1084</v>
       </c>
       <c r="I86" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3471,33 +3471,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G87" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H87" t="n">
-        <v>749</v>
+        <v>1154</v>
       </c>
       <c r="I87" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3506,33 +3506,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G88" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H88" t="n">
-        <v>598</v>
+        <v>1831</v>
       </c>
       <c r="I88" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3541,33 +3541,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H89" t="n">
-        <v>981</v>
+        <v>1612</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3576,33 +3576,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G90" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H90" t="n">
-        <v>865</v>
+        <v>2500</v>
       </c>
       <c r="I90" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3611,33 +3611,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F91" t="n">
         <v>44</v>
       </c>
       <c r="G91" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H91" t="n">
-        <v>720</v>
+        <v>2325</v>
       </c>
       <c r="I91" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3646,33 +3646,33 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G92" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H92" t="n">
-        <v>1064</v>
+        <v>2597</v>
       </c>
       <c r="I92" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3681,33 +3681,33 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G93" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H93" t="n">
-        <v>1112</v>
+        <v>2395</v>
       </c>
       <c r="I93" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H94" t="n">
-        <v>1321</v>
+        <v>3284</v>
       </c>
       <c r="I94" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3751,33 +3751,33 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H95" t="n">
-        <v>1379</v>
+        <v>2425</v>
       </c>
       <c r="I95" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3786,33 +3786,33 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G96" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H96" t="n">
-        <v>1673</v>
+        <v>3240</v>
       </c>
       <c r="I96" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3832,34 +3832,34 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G97" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H97" t="n">
-        <v>1127</v>
+        <v>3093</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,34 +3867,34 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H98" t="n">
-        <v>1710</v>
+        <v>1922</v>
       </c>
       <c r="I98" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3902,22 +3902,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G99" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H99" t="n">
-        <v>1648</v>
+        <v>2577</v>
       </c>
       <c r="I99" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3926,33 +3926,33 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G100" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H100" t="n">
-        <v>1366</v>
+        <v>1689</v>
       </c>
       <c r="I100" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Rúben Gato Alves Dias</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G101" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H101" t="n">
-        <v>1644</v>
+        <v>2179</v>
       </c>
       <c r="I101" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4007,22 +4007,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G102" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H102" t="n">
-        <v>819</v>
+        <v>1763</v>
       </c>
       <c r="I102" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rúben Gato Alves Dias</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4031,33 +4031,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G103" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H103" t="n">
-        <v>1086</v>
+        <v>2652</v>
       </c>
       <c r="I103" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4077,22 +4077,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G104" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H104" t="n">
-        <v>1053</v>
+        <v>2194</v>
       </c>
       <c r="I104" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4101,33 +4101,33 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G105" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H105" t="n">
-        <v>572</v>
+        <v>1888</v>
       </c>
       <c r="I105" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Stefan Ortega Moreno</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,33 +4136,33 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G106" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H106" t="n">
-        <v>1792</v>
+        <v>1099</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Matheus Luiz Nunes</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4182,22 +4182,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G107" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H107" t="n">
-        <v>1217</v>
+        <v>1580</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4217,22 +4217,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G108" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H108" t="n">
-        <v>1382</v>
+        <v>3188</v>
       </c>
       <c r="I108" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Stefan Ortega Moreno</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4241,115 +4241,115 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G109" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H109" t="n">
-        <v>630</v>
+        <v>1433</v>
       </c>
       <c r="I109" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G110" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H110" t="n">
-        <v>966</v>
+        <v>1808</v>
       </c>
       <c r="I110" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G111" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H111" t="n">
-        <v>1662</v>
+        <v>2927</v>
       </c>
       <c r="I111" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Carlos Henrique Casimiro</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4357,22 +4357,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G112" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H112" t="n">
-        <v>692</v>
+        <v>1399</v>
       </c>
       <c r="I112" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Diogo Dalot Teixeira</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4381,33 +4381,33 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H113" t="n">
-        <v>1231</v>
+        <v>2787</v>
       </c>
       <c r="I113" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G114" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H114" t="n">
-        <v>1565</v>
+        <v>1028</v>
       </c>
       <c r="I114" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Carlos Henrique Casimiro</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4451,10 +4451,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G115" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H115" t="n">
-        <v>833</v>
+        <v>2188</v>
       </c>
       <c r="I115" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Diogo Dalot Teixeira</t>
+          <t>Kobbie Mainoo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4486,33 +4486,33 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H116" t="n">
-        <v>1766</v>
+        <v>1601</v>
       </c>
       <c r="I116" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4521,33 +4521,33 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G117" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H117" t="n">
-        <v>622</v>
+        <v>1751</v>
       </c>
       <c r="I117" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4556,33 +4556,33 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H118" t="n">
-        <v>1027</v>
+        <v>3060</v>
       </c>
       <c r="I118" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kobbie Mainoo</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4591,45 +4591,45 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G119" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H119" t="n">
-        <v>1096</v>
+        <v>1918</v>
       </c>
       <c r="I119" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Lewis Hall</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4637,34 +4637,34 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H120" t="n">
-        <v>1490</v>
+        <v>2188</v>
       </c>
       <c r="I120" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Bruno Guimarães Rodriguez Moura</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4672,69 +4672,69 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G121" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H121" t="n">
-        <v>975</v>
+        <v>3183</v>
       </c>
       <c r="I121" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G122" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H122" t="n">
-        <v>1800</v>
+        <v>3240</v>
       </c>
       <c r="I122" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4742,22 +4742,22 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G123" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H123" t="n">
-        <v>971</v>
+        <v>2668</v>
       </c>
       <c r="I123" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lewis Hall</t>
+          <t>Joelinton Cássio Apolinário de Lira</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,33 +4766,33 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G124" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H124" t="n">
-        <v>1587</v>
+        <v>2394</v>
       </c>
       <c r="I124" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Bruno Guimarães Rodriguez Moura</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G125" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H125" t="n">
-        <v>1745</v>
+        <v>2287</v>
       </c>
       <c r="I125" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4836,33 +4836,33 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G126" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H126" t="n">
-        <v>1710</v>
+        <v>2430</v>
       </c>
       <c r="I126" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4871,33 +4871,33 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G127" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H127" t="n">
-        <v>1465</v>
+        <v>2845</v>
       </c>
       <c r="I127" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Joelinton Cássio Apolinário de Lira</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4909,30 +4909,30 @@
         <v>72</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G128" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H128" t="n">
-        <v>1590</v>
+        <v>1272</v>
       </c>
       <c r="I128" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sean Longstaff</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4941,10 +4941,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4952,34 +4952,34 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G129" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H129" t="n">
-        <v>711</v>
+        <v>1659</v>
       </c>
       <c r="I129" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4987,127 +4987,127 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G130" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H130" t="n">
-        <v>1019</v>
+        <v>2157</v>
       </c>
       <c r="I130" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G131" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H131" t="n">
-        <v>1350</v>
+        <v>2406</v>
       </c>
       <c r="I131" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G132" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H132" t="n">
-        <v>1467</v>
+        <v>2716</v>
       </c>
       <c r="I132" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G133" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H133" t="n">
-        <v>773</v>
+        <v>2868</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5116,10 +5116,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5127,22 +5127,22 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G134" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H134" t="n">
-        <v>1406</v>
+        <v>1879</v>
       </c>
       <c r="I134" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Murillo Santiago Costa dos Santos</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5151,33 +5151,33 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G135" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H135" t="n">
-        <v>1112</v>
+        <v>3098</v>
       </c>
       <c r="I135" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Matz Sels</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5186,80 +5186,80 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G136" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H136" t="n">
-        <v>1251</v>
+        <v>3330</v>
       </c>
       <c r="I136" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G137" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H137" t="n">
-        <v>1572</v>
+        <v>2081</v>
       </c>
       <c r="I137" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5267,92 +5267,92 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G138" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H138" t="n">
-        <v>1324</v>
+        <v>1575</v>
       </c>
       <c r="I138" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Murillo Santiago Costa dos Santos</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G139" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H139" t="n">
-        <v>1687</v>
+        <v>2386</v>
       </c>
       <c r="I139" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Matz Sels</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G140" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H140" t="n">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="I140" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5361,33 +5361,33 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G141" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H141" t="n">
-        <v>1445</v>
+        <v>2516</v>
       </c>
       <c r="I141" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5396,33 +5396,33 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G142" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H142" t="n">
-        <v>685</v>
+        <v>1416</v>
       </c>
       <c r="I142" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Pape Matar Sarr</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5442,22 +5442,22 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G143" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H143" t="n">
-        <v>1588</v>
+        <v>1856</v>
       </c>
       <c r="I143" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5477,22 +5477,22 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G144" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H144" t="n">
-        <v>1158</v>
+        <v>2106</v>
       </c>
       <c r="I144" t="n">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Guglielmo Vicario</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5501,208 +5501,208 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F145" t="n">
         <v>45</v>
       </c>
       <c r="G145" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H145" t="n">
-        <v>1626</v>
+        <v>2070</v>
       </c>
       <c r="I145" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G146" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H146" t="n">
-        <v>974</v>
+        <v>2259</v>
       </c>
       <c r="I146" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pape Matar Sarr</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C147" t="n">
+        <v>193</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45802</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
         <v>40</v>
       </c>
-      <c r="D147" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>39</v>
-      </c>
       <c r="G147" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H147" t="n">
-        <v>1055</v>
+        <v>2884</v>
       </c>
       <c r="I147" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Vladimír Coufal</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G148" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H148" t="n">
-        <v>1236</v>
+        <v>1038</v>
       </c>
       <c r="I148" t="n">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Guglielmo Vicario</t>
+          <t>Emerson Palmieri dos Santos</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G149" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H149" t="n">
-        <v>1080</v>
+        <v>2108</v>
       </c>
       <c r="I149" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Micky van de Ven</t>
+          <t>Lucas Tolentino Coelho de Lima</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G150" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H150" t="n">
-        <v>788</v>
+        <v>2364</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5711,33 +5711,33 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G151" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H151" t="n">
-        <v>834</v>
+        <v>2473</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Edson Álvarez Velázquez</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5746,33 +5746,33 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>GK</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G152" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H152" t="n">
-        <v>909</v>
+        <v>1690</v>
       </c>
       <c r="I152" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Konstantinos Mavropanos</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5781,33 +5781,33 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H153" t="n">
-        <v>1656</v>
+        <v>1945</v>
       </c>
       <c r="I153" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Vladimír Coufal</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5816,45 +5816,45 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G154" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H154" t="n">
-        <v>568</v>
+        <v>2572</v>
       </c>
       <c r="I154" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Emerson Palmieri dos Santos</t>
+          <t>Rayan Aït-Nouri</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5865,10 +5865,10 @@
         <v>44</v>
       </c>
       <c r="G155" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H155" t="n">
-        <v>1351</v>
+        <v>3048</v>
       </c>
       <c r="I155" t="n">
         <v>2.3</v>
@@ -5877,19 +5877,19 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Lucas Tolentino Coelho de Lima</t>
+          <t>João Victor Gomes da Silva</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5897,34 +5897,34 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G156" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H156" t="n">
-        <v>1371</v>
+        <v>2885</v>
       </c>
       <c r="I156" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5932,69 +5932,69 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="G157" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H157" t="n">
-        <v>1343</v>
+        <v>1363</v>
       </c>
       <c r="I157" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Edson Álvarez Velázquez</t>
+          <t>José Malheiro de Sá</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>GK</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G158" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H158" t="n">
-        <v>968</v>
+        <v>2520</v>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Konstantinos Mavropanos</t>
+          <t>Toti António Gomes</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6002,48 +6002,48 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G159" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H159" t="n">
-        <v>1215</v>
+        <v>2523</v>
       </c>
       <c r="I159" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G160" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H160" t="n">
-        <v>1231</v>
+        <v>2506</v>
       </c>
       <c r="I160" t="n">
         <v>4.2</v>
@@ -6052,7 +6052,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rayan Aït-Nouri</t>
+          <t>Matt Doherty</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6061,10 +6061,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6072,22 +6072,22 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G161" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H161" t="n">
-        <v>1635</v>
+        <v>2019</v>
       </c>
       <c r="I161" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>João Victor Gomes da Silva</t>
+          <t>Santiago Bueno</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6096,33 +6096,33 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>DEF</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G162" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H162" t="n">
-        <v>1608</v>
+        <v>1675</v>
       </c>
       <c r="I162" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>Jean-Ricner Bellegarde</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6131,10 +6131,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6142,225 +6142,15 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G163" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H163" t="n">
-        <v>1363</v>
+        <v>1663</v>
       </c>
       <c r="I163" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>José Malheiro de Sá</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>38</v>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>44</v>
-      </c>
-      <c r="G164" t="n">
-        <v>21</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1170</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Toti António Gomes</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>34</v>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>84</v>
-      </c>
-      <c r="G165" t="n">
-        <v>21</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1263</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>112</v>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>47</v>
-      </c>
-      <c r="G166" t="n">
-        <v>21</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1560</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Matt Doherty</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>28</v>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
-        <v>75</v>
-      </c>
-      <c r="G167" t="n">
-        <v>21</v>
-      </c>
-      <c r="H167" t="n">
-        <v>801</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Santiago Bueno</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>27</v>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>79</v>
-      </c>
-      <c r="G168" t="n">
-        <v>21</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1060</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Jean-Ricner Bellegarde</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>36</v>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F169" t="n">
-        <v>71</v>
-      </c>
-      <c r="G169" t="n">
-        <v>21</v>
-      </c>
-      <c r="H169" t="n">
-        <v>801</v>
-      </c>
-      <c r="I169" t="n">
         <v>2</v>
       </c>
     </row>
